--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.466</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.978</v>
+        <v>17.092</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-69.358</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.462</v>
+        <v>20.039</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.476</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.911</v>
+        <v>10.44</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-189.1057350961927</v>
+        <v>0.6212133176848056</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-189.0286933273283</v>
+        <v>18.74311437408976</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-188.7308298655055</v>
+        <v>29.91358632509777</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-188.6929803997453</v>
+        <v>34.73263480891767</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-188.9031522753001</v>
+        <v>8.580180247088506</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-188.7961756147627</v>
+        <v>25.29664660676211</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-189.0308094809716</v>
+        <v>-6.478453896469127</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-188.9272714053556</v>
+        <v>27.29232768246305</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-188.5391872631126</v>
+        <v>62.93706389898433</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-188.5066369701435</v>
+        <v>65.40071149170529</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-188.7924350721397</v>
+        <v>0.5054055935234381</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-188.6506373742507</v>
+        <v>35.05809218758656</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-189.0602193908349</v>
+        <v>-14.113638453017</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-188.9542771991446</v>
+        <v>22.31782164546869</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-188.5716009077356</v>
+        <v>61.05239173026431</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-188.5377531656995</v>
+        <v>67.48954471521378</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-188.8320463854725</v>
+        <v>-6.926944389326724</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-188.6873799333129</v>
+        <v>29.52807303745838</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-189.1586450758591</v>
+        <v>-10.18334306059589</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-189.0829953249222</v>
+        <v>17.884427965118</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-188.8006606915083</v>
+        <v>45.75328355125717</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-188.7649427793636</v>
+        <v>56.02901674631855</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-188.969938199743</v>
+        <v>-0.3187738950992127</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-188.8655647945552</v>
+        <v>26.31917222057956</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-188.4295515901211</v>
+        <v>29.33822828766986</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-188.3447973462764</v>
+        <v>42.83414710157431</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-188.8745384306605</v>
+        <v>1.449607466474795</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-188.7371612649651</v>
+        <v>23.68994116429423</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-188.2936589148181</v>
+        <v>39.18284545018269</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-188.1878704156346</v>
+        <v>57.65159925597886</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-188.1637337706306</v>
+        <v>65.30787761889772</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-188.0829741156676</v>
+        <v>76.19269016812612</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-188.7353013069396</v>
+        <v>0.5518436728050631</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-188.5600745144341</v>
+        <v>41.97933071078683</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-187.9774641879327</v>
+        <v>92.16492369897483</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-187.8758927258764</v>
+        <v>102.5607440207948</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-188.207646458953</v>
+        <v>57.41421913942414</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-188.1260762561166</v>
+        <v>74.65085549765325</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-188.7655201669493</v>
+        <v>-7.256156845972079</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-188.5880985715554</v>
+        <v>37.83956129782944</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-188.0117219098436</v>
+        <v>87.84116255450235</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-187.9100526807378</v>
+        <v>102.7869159364527</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-188.5169312023601</v>
+        <v>40.68120788121203</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-188.4386392415122</v>
+        <v>63.03226694455195</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-188.9238452071609</v>
+        <v>-0.3967835977628269</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-188.7920630841327</v>
+        <v>35.07721609035879</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-188.368667007119</v>
+        <v>66.2091750149481</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-188.2718080768707</v>
+        <v>90.37134042636274</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-189.0093799260543</v>
+        <v>3.139176882324229</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-188.9129241997089</v>
+        <v>35.30759977453909</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-188.5851371319604</v>
+        <v>51.49257914172738</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-188.5485677040166</v>
+        <v>55.75815251638574</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-188.7906340593251</v>
+        <v>5.210703753340191</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-188.6577587243956</v>
+        <v>33.30576730089133</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-188.9358112483884</v>
+        <v>-3.415938616129445</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-188.8078557448921</v>
+        <v>41.51387702994826</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-188.3810327303163</v>
+        <v>77.56900537792114</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-188.3515816745643</v>
+        <v>79.08979838762636</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-188.6803565280386</v>
+        <v>-1.639444482533797</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-188.5061181058358</v>
+        <v>41.92280017754822</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-188.9762782195955</v>
+        <v>-10.51679277307688</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-188.8457860701034</v>
+        <v>35.77052287545445</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-188.4264504675411</v>
+        <v>74.77418897201926</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-188.3953926491715</v>
+        <v>79.70244630893291</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-188.7340106034042</v>
+        <v>-7.982366377765075</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-188.556752194749</v>
+        <v>36.32420685863948</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-189.0795615522629</v>
+        <v>-7.88958408374403</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-188.9855232166012</v>
+        <v>32.79551067925095</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-188.6766274284945</v>
+        <v>63.50631695089412</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-188.641867918914</v>
+        <v>72.64289982497192</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-188.8780479568457</v>
+        <v>-4.693409090709252</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-188.7491848806245</v>
+        <v>31.95119926494567</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-188.2568856151998</v>
+        <v>52.04803608328591</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-188.1695351159728</v>
+        <v>60.88503095463822</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-188.7613786812282</v>
+        <v>0.7853035193141409</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-188.5929836420233</v>
+        <v>33.17323438023099</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-188.1003292916331</v>
+        <v>55.13045199155277</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-187.9881596534226</v>
+        <v>69.76430363948541</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-187.9732068740716</v>
+        <v>83.84667037341475</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-187.891842737111</v>
+        <v>90.50899901317553</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-188.6218016411034</v>
+        <v>-2.904060736859449</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-188.4084884394151</v>
+        <v>46.57672093388977</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-187.7626299036247</v>
+        <v>99.20925077272972</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-187.6566812192061</v>
+        <v>105.6306169574913</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-188.0336660282922</v>
+        <v>75.9459424449326</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-187.9511810195617</v>
+        <v>88.52136122933516</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-188.6649921079476</v>
+        <v>-10.31639825203906</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-188.4494486938263</v>
+        <v>42.08246290703154</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-187.812520291192</v>
+        <v>95.25204443939151</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-187.7062975045595</v>
+        <v>105.3811068349495</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-188.3701461111061</v>
+        <v>59.73691379080132</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-188.2892654022674</v>
+        <v>76.59534219828785</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-188.8288099124595</v>
+        <v>-3.870100205431676</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-188.6679263695367</v>
+        <v>40.93114874321599</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-188.1999941101651</v>
+        <v>78.27308749607516</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-188.0972143724728</v>
+        <v>97.0203007824293</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-189.0093799260543</v>
+        <v>3.139176882324229</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-188.9129241997089</v>
+        <v>35.30759977453909</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-188.5851371319604</v>
+        <v>51.49257914172738</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-188.5485677040166</v>
+        <v>55.75815251638574</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-188.7906340593251</v>
+        <v>5.210703753340191</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-188.6577587243956</v>
+        <v>33.30576730089133</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-188.9358112483884</v>
+        <v>-3.415938616129445</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-188.8078557448921</v>
+        <v>41.51387702994826</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-188.3810327303163</v>
+        <v>77.56900537792114</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-188.3515816745643</v>
+        <v>79.08979838762636</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-188.6803565280386</v>
+        <v>-1.639444482533797</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-188.5061181058358</v>
+        <v>41.92280017754822</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-188.9762782195955</v>
+        <v>-10.51679277307688</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-188.8457860701034</v>
+        <v>35.77052287545445</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-188.4264504675411</v>
+        <v>74.77418897201926</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-188.3953926491715</v>
+        <v>79.70244630893291</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-188.7340106034042</v>
+        <v>-7.982366377765075</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-188.556752194749</v>
+        <v>36.32420685863948</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-189.0795615522629</v>
+        <v>-7.88958408374403</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-188.9855232166012</v>
+        <v>32.79551067925095</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-188.6766274284945</v>
+        <v>63.50631695089412</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-188.641867918914</v>
+        <v>72.64289982497192</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-188.8780479568457</v>
+        <v>-4.693409090709252</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>-188.7491848806245</v>
+        <v>31.95119926494567</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-188.2568856151998</v>
+        <v>52.04803608328591</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-188.1695351159728</v>
+        <v>60.88503095463822</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-188.7613786812282</v>
+        <v>0.7853035193141409</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-188.5929836420233</v>
+        <v>33.17323438023099</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-188.1003292916331</v>
+        <v>55.13045199155277</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-187.9881596534226</v>
+        <v>69.76430363948541</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-187.9732068740716</v>
+        <v>83.84667037341475</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-187.891842737111</v>
+        <v>90.50899901317553</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-188.6218016411034</v>
+        <v>-2.904060736859449</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-188.4084884394151</v>
+        <v>46.57672093388977</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-187.7626299036247</v>
+        <v>99.20925077272972</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-187.6566812192061</v>
+        <v>105.6306169574913</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-188.0336660282922</v>
+        <v>75.9459424449326</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-187.9511810195617</v>
+        <v>88.52136122933516</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-188.6649921079476</v>
+        <v>-10.31639825203906</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-188.4494486938263</v>
+        <v>42.08246290703154</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-187.812520291192</v>
+        <v>95.25204443939151</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-187.7062975045595</v>
+        <v>105.3811068349495</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-188.3701461111061</v>
+        <v>59.73691379080132</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-188.2892654022674</v>
+        <v>76.59534219828785</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-188.8288099124595</v>
+        <v>-3.870100205431676</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-188.6679263695367</v>
+        <v>40.93114874321599</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-188.1999941101651</v>
+        <v>78.27308749607516</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-188.0972143724728</v>
+        <v>97.0203007824293</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-189.250938981102</v>
+        <v>-0.6932399497354282</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-189.1771361399223</v>
+        <v>10.1002872850803</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-188.9127159503061</v>
+        <v>19.89939271283226</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-188.8762878112587</v>
+        <v>24.74827884581253</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-189.0853006198358</v>
+        <v>6.753304496342125</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-188.9822959037033</v>
+        <v>17.7172222687834</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-189.1906236282234</v>
+        <v>-8.127885737975792</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-189.0901468944559</v>
+        <v>17.32578628533318</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-188.7377720880868</v>
+        <v>49.51043060568738</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-188.7068956250066</v>
+        <v>53.11711456148365</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-188.9929430214365</v>
+        <v>-1.88888586776768</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-188.8548720643881</v>
+        <v>25.83425549800272</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-189.2164152616932</v>
+        <v>-15.79331804796582</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-189.1133380900147</v>
+        <v>12.2376421088407</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-188.7654278073574</v>
+        <v>47.17614625414576</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-188.733178227913</v>
+        <v>54.81372298681077</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-189.0281062638716</v>
+        <v>-9.430806340740897</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-188.8869186861595</v>
+        <v>20.08196419540474</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-189.2886417843095</v>
+        <v>-12.03762443082839</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-189.2157263669191</v>
+        <v>8.327780222002058</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-188.9631260837035</v>
+        <v>34.10053201179205</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-188.9286476709667</v>
+        <v>44.58109126742633</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-189.1330514216568</v>
+        <v>-2.744352900174434</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-189.0320206847824</v>
+        <v>17.77368623099342</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-188.6574802084455</v>
+        <v>18.91118595407551</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-188.5739052217515</v>
+        <v>32.57595950824066</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-189.0563078187087</v>
+        <v>1.031581702280263</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-188.9222932061268</v>
+        <v>18.35878273376922</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-188.5182664377328</v>
+        <v>30.25489746653079</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-188.4134765691108</v>
+        <v>48.2478133666257</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-188.4125449036536</v>
+        <v>51.27052674675902</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-188.3332347218976</v>
+        <v>63.72496495974962</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-188.9352173644732</v>
+        <v>0.6289672850046841</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-188.7630504597777</v>
+        <v>36.10924969886414</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-188.222309876737</v>
+        <v>81.67321067926659</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-188.1220321408583</v>
+        <v>92.88079832915827</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-188.4506088496813</v>
+        <v>42.83930286767343</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-188.3704062788194</v>
+        <v>61.72146662860315</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-188.960845743645</v>
+        <v>-7.302565093723189</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-188.7862499453524</v>
+        <v>31.78153188915796</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-188.2506041941378</v>
+        <v>77.01343415639982</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-188.1501548834304</v>
+        <v>92.78976309034772</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-188.7205687443649</v>
+        <v>28.62396538468123</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-188.6432887108242</v>
+        <v>51.33865935245273</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-189.0862756587495</v>
+        <v>-1.12421785592867</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-188.9572875864803</v>
+        <v>29.1839612443648</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-188.5688802186692</v>
+        <v>56.38870865992644</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-188.4728769653196</v>
+        <v>80.13629586070473</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-189.0443494848545</v>
+        <v>-4.336177479812818</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-188.9607468056406</v>
+        <v>19.68154010276185</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-188.6378730576663</v>
+        <v>34.47518314080528</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-188.6021650825229</v>
+        <v>39.31633059671826</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-188.8169639624444</v>
+        <v>5.314862371717979</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-188.7014186879798</v>
+        <v>27.75937008622886</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-188.9664846134547</v>
+        <v>-9.80080698640726</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-188.8558303610334</v>
+        <v>30.01369079537454</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-188.4410978345248</v>
+        <v>69.36044690675632</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-188.4109703823013</v>
+        <v>70.70575900186176</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-188.7025058222969</v>
+        <v>-2.72997259299613</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-188.5514153189826</v>
+        <v>37.48936888174972</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-188.9975444685093</v>
+        <v>-16.579235730537</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-188.8846775372789</v>
+        <v>25.96826530783654</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-188.4760072226819</v>
+        <v>68.52503823447702</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-188.4445576768953</v>
+        <v>73.446082516313</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-188.7445360279904</v>
+        <v>-9.76103649738771</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-188.5908260287534</v>
+        <v>32.43219748556594</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-189.1039418949199</v>
+        <v>-13.17888338066181</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-189.0224413664031</v>
+        <v>21.07661561015517</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-188.7177864371307</v>
+        <v>52.53587339299935</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-188.6840164013009</v>
+        <v>62.35632100672569</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-188.893292448139</v>
+        <v>-2.507604008785592</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-188.7812774165992</v>
+        <v>30.10684214334185</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-188.3001665485849</v>
+        <v>39.91895528529692</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-188.2185456098538</v>
+        <v>51.37666749975333</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-188.7969285347768</v>
+        <v>-1.359704270823777</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-188.6508495904048</v>
+        <v>24.89695847525542</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-188.1747982215628</v>
+        <v>44.49588672282231</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-188.0723029069917</v>
+        <v>61.43375895509849</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-188.0277422099664</v>
+        <v>75.75001696362438</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-187.950512783618</v>
+        <v>83.38940795476563</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-188.6556352657163</v>
+        <v>-4.135290707848895</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-188.4709723962133</v>
+        <v>41.15965514388051</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-187.8540795256845</v>
+        <v>95.24491711514136</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-187.7562170991209</v>
+        <v>103.0396102984166</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-188.0752599258834</v>
+        <v>68.32782308327714</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-188.6881401540293</v>
+        <v>-12.13807331464361</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-188.5015362881788</v>
+        <v>36.85967879625957</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-187.8917801114952</v>
+        <v>90.88480113378964</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-187.7937759480833</v>
+        <v>102.7448679243121</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-188.4017858067629</v>
+        <v>52.54742753727416</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-188.3263391353582</v>
+        <v>72.24758594702614</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-188.85504991198</v>
+        <v>-3.413324875932148</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-188.71550839957</v>
+        <v>36.20254303340506</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-188.2631558504853</v>
+        <v>71.50033400683756</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-188.169286805933</v>
+        <v>93.473280632578</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-188.7908175772675</v>
+        <v>-1.730641870482234</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-188.6554649308376</v>
+        <v>32.06150904006034</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-188.1948864474916</v>
+        <v>51.265046759938</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-188.1573768912554</v>
+        <v>53.87969375795442</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-188.4752275973867</v>
+        <v>4.644253229604111</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-188.2888794059227</v>
+        <v>38.64620757129418</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-188.7006621239323</v>
+        <v>-8.943254243327544</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-188.5235289956228</v>
+        <v>37.23924729031119</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-187.9307709699304</v>
+        <v>77.75245389235315</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-187.9034653090073</v>
+        <v>77.60215920606365</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-188.3370986733481</v>
+        <v>-3.030480273696394</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-188.0958488493656</v>
+        <v>45.71440041000971</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-188.7500528542523</v>
+        <v>-15.92378601404843</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-188.5698528180312</v>
+        <v>32.18004966819417</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-187.9869135522736</v>
+        <v>75.87239453684506</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-187.9572418020884</v>
+        <v>78.64525541987194</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-188.4039095864151</v>
+        <v>-9.361241729510617</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-188.1590553592789</v>
+        <v>40.65301000960962</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-188.8761771423288</v>
+        <v>-12.01204653936727</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-188.7449684670147</v>
+        <v>31.06792617062934</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-188.3112650301825</v>
+        <v>65.47054610508478</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-188.2750419602316</v>
+        <v>72.12873191934352</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-188.5853896990585</v>
+        <v>-4.140783889392893</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-188.4056322775726</v>
+        <v>39.25541865640723</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-187.7129552805947</v>
+        <v>62.53428533306885</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-187.61244367545</v>
+        <v>67.54453210886408</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-188.438540246807</v>
+        <v>1.265831050773379</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-188.2050405456285</v>
+        <v>39.06856691664456</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-187.5099071800424</v>
+        <v>62.38264075919962</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-187.3784036330476</v>
+        <v>70.83298461159714</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-187.3432012626153</v>
+        <v>93.29407776493653</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-187.2517327361061</v>
+        <v>95.84393802849431</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-188.2630140547594</v>
+        <v>-3.828860378837014</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-187.0705817762701</v>
+        <v>104.5445995640139</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-186.9485551112823</v>
+        <v>104.687676662855</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-187.4196302807275</v>
+        <v>85.974318244042</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-187.3263506289219</v>
+        <v>93.75058948816221</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-188.3159983049316</v>
+        <v>-11.31715661505485</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-188.0203460152875</v>
+        <v>46.092520578731</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-187.1330164284143</v>
+        <v>100.9040288050446</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-187.0102445835897</v>
+        <v>104.1310719087988</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-187.8622533979467</v>
+        <v>72.55789086580181</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-187.7687748480294</v>
+        <v>84.51676930184536</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-188.5223344883807</v>
+        <v>-2.511964040325886</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-188.3000772078895</v>
+        <v>48.27089487108412</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-187.6411585630901</v>
+        <v>87.10202216013076</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-187.5203486101689</v>
+        <v>98.63570395837257</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-188.7659687644556</v>
+        <v>-3.793830201911621</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-188.6527456303719</v>
+        <v>13.99676078005285</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-188.2187759192645</v>
+        <v>28.65284020394876</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-188.1729201586193</v>
+        <v>29.85924287875675</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-188.4587796057365</v>
+        <v>6.721560797290884</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-188.3012881567624</v>
+        <v>25.40561706684536</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-188.6667318171141</v>
+        <v>-16.12976917995368</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-188.5135865691656</v>
+        <v>13.69429817156131</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-187.9481664315584</v>
+        <v>48.83631872607116</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-187.9114918956302</v>
+        <v>50.22160101489939</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-188.3081173324647</v>
+        <v>-2.578794533357705</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-188.0981443732036</v>
+        <v>30.97601070842454</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-188.7175034429362</v>
+        <v>-25.41462410012982</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-188.5606422212832</v>
+        <v>6.161587330284192</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-188.0045580381144</v>
+        <v>43.99588125439402</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-187.9656359714864</v>
+        <v>49.30998080521827</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-188.3759741745802</v>
+        <v>-10.28647858606339</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-188.1615530457117</v>
+        <v>24.35911889255089</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-188.8541088744482</v>
+        <v>-19.6172311024293</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-188.7426300530913</v>
+        <v>6.693383537480081</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-188.332755494084</v>
+        <v>36.40715021881798</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-188.288964134819</v>
+        <v>42.82466532695239</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-188.5702971713245</v>
+        <v>-5.451993680720662</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-188.4162688946513</v>
+        <v>21.9530035340788</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-187.7656529035384</v>
+        <v>34.36915577791214</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-187.6530655311818</v>
+        <v>42.77420325073962</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-188.3862573406184</v>
+        <v>1.042707669339954</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-188.1819841035245</v>
+        <v>27.85616619971324</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-187.518266032256</v>
+        <v>44.86682911327944</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-187.3741983494583</v>
+        <v>55.59731288183919</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-187.3866551438593</v>
+        <v>63.05016575326137</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-187.2816730771276</v>
+        <v>72.13271045926675</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-188.1919257422337</v>
+        <v>-1.320247579957645</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-187.9304993791773</v>
+        <v>42.13641334034453</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-187.0619126195583</v>
+        <v>89.53377729420663</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-186.9258258338755</v>
+        <v>94.82920668439453</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-187.4624118412339</v>
+        <v>53.96644000034652</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-187.3558041123183</v>
+        <v>69.41857148318094</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-188.2466071418423</v>
+        <v>-8.754333085687058</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-187.981771835396</v>
+        <v>37.85603892482423</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-187.124480877196</v>
+        <v>85.32999374696615</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-186.9878433839681</v>
+        <v>94.93417711163337</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-187.9088017396016</v>
+        <v>40.1832140179406</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-187.8043864373408</v>
+        <v>57.02402971154594</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-188.474609337091</v>
+        <v>-3.137682331254148</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-188.2784074493834</v>
+        <v>36.26352997303957</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-187.6473259439987</v>
+        <v>68.35728067101761</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-187.5151371702161</v>
+        <v>83.7903232288989</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-189.0144275858904</v>
+        <v>-9.307721971677154</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-188.9194195008232</v>
+        <v>12.46143008713229</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-188.5700618607179</v>
+        <v>26.49288013893116</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-188.530470001094</v>
+        <v>30.97781490545615</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-188.7744869864876</v>
+        <v>-1.934599482504652</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-188.6430223205618</v>
+        <v>19.20694727813203</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-188.933816024939</v>
+        <v>-15.45865481715922</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-188.8076359566885</v>
+        <v>21.92104372866759</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-188.354729257639</v>
+        <v>60.00176724094233</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-188.3217479981002</v>
+        <v>61.21072415818209</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-188.6541013467419</v>
+        <v>-10.3496373995522</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-188.4816725997726</v>
+        <v>28.52199501518093</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-188.9680904513664</v>
+        <v>-22.71571166530079</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-188.8393054186013</v>
+        <v>17.34211215619734</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-188.3929356867304</v>
+        <v>58.58563068438354</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-188.3583865830636</v>
+        <v>63.43921446107853</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-188.7006359875162</v>
+        <v>-17.63568014486527</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-188.5251175648256</v>
+        <v>23.13909323117685</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-189.0753087624394</v>
+        <v>-19.23244345984146</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-188.9825499679072</v>
+        <v>12.74936532725759</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-188.6520356215609</v>
+        <v>43.36305178327093</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-188.614512559541</v>
+        <v>52.94583360065009</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-188.8526200835218</v>
+        <v>-10.66140347972998</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-188.7250031743146</v>
+        <v>20.66073061168144</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-188.2091645783015</v>
+        <v>30.58532271567219</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-188.1171078105973</v>
+        <v>41.00393278442132</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-188.7495065379635</v>
+        <v>-6.964987066098054</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-188.5827104354784</v>
+        <v>18.58712361177097</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-188.0613301239765</v>
+        <v>35.87562894598772</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-187.9451429317417</v>
+        <v>51.93887579065008</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-187.9096439518895</v>
+        <v>65.59939729943144</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-187.8228757632075</v>
+        <v>72.58578879876322</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-188.5983115543339</v>
+        <v>-9.708983907479791</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-188.3870342171791</v>
+        <v>34.8936510566711</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-187.7061873095595</v>
+        <v>86.56174596731168</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-187.5955674646499</v>
+        <v>93.68358005459552</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-187.9618762241225</v>
+        <v>57.65945209726308</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-187.8740685132181</v>
+        <v>70.70708924677274</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-188.6339357584027</v>
+        <v>-17.94005429841877</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-188.4203540265064</v>
+        <v>30.38988223295465</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-187.7472120274974</v>
+        <v>81.99364299402424</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-187.6363737418115</v>
+        <v>93.25178918628453</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-188.3135278009219</v>
+        <v>42.11473948424106</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-188.2283729772149</v>
+        <v>60.96220474999475</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-188.8068431660089</v>
+        <v>-9.651592079417206</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-188.6473749483536</v>
+        <v>29.45194749892121</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-188.1507403990279</v>
+        <v>62.55305740432197</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-188.0442907448404</v>
+        <v>83.66118246143421</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-188.7775583983125</v>
+        <v>-0.5623673011876811</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-188.6524005726215</v>
+        <v>37.42600417371952</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-188.2168365026192</v>
+        <v>62.59173401565101</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-188.1823023408195</v>
+        <v>63.65520599503912</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-188.5125927665725</v>
+        <v>-4.345617468547587</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-188.3408456968908</v>
+        <v>29.03765861237781</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-188.6838055244077</v>
+        <v>-7.978187140860026</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-188.5209471964816</v>
+        <v>42.10934939493121</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-187.9639742129168</v>
+        <v>88.95412415235481</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>-187.938550278606</v>
+        <v>87.91165320213685</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-188.3754850214447</v>
+        <v>-10.97460824028681</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-188.1542187720989</v>
+        <v>37.16976936278698</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-188.7319624285488</v>
+        <v>-15.46161534417751</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-188.5664739744916</v>
+        <v>36.43961896777302</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-188.0190863063443</v>
+        <v>86.56316261308498</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-187.9915407096821</v>
+        <v>88.51496164188424</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-188.4386649934651</v>
+        <v>-17.22694273302837</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-188.214315107869</v>
+        <v>32.21328066222968</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-188.8667839931094</v>
+        <v>-12.4957196838166</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-188.7457687119482</v>
+        <v>34.70935234819457</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-188.3367134678023</v>
+        <v>75.54693336367973</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-188.3034116267611</v>
+        <v>80.51872292451236</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-188.6218075343553</v>
+        <v>-14.13224961072347</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-188.4564955441624</v>
+        <v>28.60840987775819</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-187.8091867257693</v>
+        <v>55.00005397067108</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-187.7180392157018</v>
+        <v>59.71300975889412</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-188.4842019781787</v>
+        <v>-5.51737114725762</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-188.2698709448316</v>
+        <v>32.48456495640163</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-187.6330401590715</v>
+        <v>59.42449531762674</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-187.5140383292693</v>
+        <v>66.60635890517304</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-187.4612773720429</v>
+        <v>87.33133017985412</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-187.3782017859315</v>
+        <v>90.10736582823543</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-188.3133566933852</v>
+        <v>-9.935037674308269</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-188.0452556044671</v>
+        <v>44.59066025127248</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-187.2224937165148</v>
+        <v>101.6318132762915</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-187.1119581868669</v>
+        <v>100.9604272008883</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-187.5337774280383</v>
+        <v>80.48720682975187</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-187.4490724635612</v>
+        <v>88.47238091314949</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-188.3638998207792</v>
+        <v>-17.08841700143695</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-188.0936644828138</v>
+        <v>40.71983576880385</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-187.2821339517352</v>
+        <v>98.52240804466527</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-187.1709281913759</v>
+        <v>100.9399082532079</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-187.9555434355644</v>
+        <v>64.60015952336504</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-187.8707872523432</v>
+        <v>76.0371593992688</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-188.5690792631019</v>
+        <v>-9.922292634584323</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-188.3653833031255</v>
+        <v>41.03722566287148</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-187.7623097749631</v>
+        <v>83.70929965728655</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-187.6529905633038</v>
+        <v>93.77271304744121</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-188.9515830421397</v>
+        <v>-2.866688493939797</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-188.8664943760046</v>
+        <v>4.873857754924657</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-188.5479688896324</v>
+        <v>9.823547285948436</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-188.4935888007425</v>
+        <v>16.19141846907026</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-188.6951856593347</v>
+        <v>3.843284132498262</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-188.5763207233697</v>
+        <v>11.32197336532283</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-188.8644710809434</v>
+        <v>-11.22478699980823</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-188.745970220713</v>
+        <v>9.436310049727805</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-188.319852313483</v>
+        <v>31.2048186210517</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-188.2719794006198</v>
+        <v>36.04363416574422</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-188.562535975387</v>
+        <v>-2.386890274419592</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-188.3997820429277</v>
+        <v>20.85463092002639</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-188.9091261753427</v>
+        <v>-19.69294294216029</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-188.7871379313137</v>
+        <v>2.093470152169481</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-188.3683186773694</v>
+        <v>25.73155152445899</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-188.3189397358164</v>
+        <v>34.80942292139319</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-188.6223445240448</v>
+        <v>-9.706880257089573</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-188.4553653727989</v>
+        <v>13.95604581260167</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-189.0266702567463</v>
+        <v>-16.48931653659301</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-188.9418343370459</v>
+        <v>-1.802975182050798</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-188.6396242359468</v>
+        <v>15.26305283036349</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-188.5886121470954</v>
+        <v>27.77382519891303</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-188.7907557836222</v>
+        <v>-7.797294545824926</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-188.6731796007153</v>
+        <v>6.645649070862149</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-188.186421772146</v>
+        <v>11.10727043784691</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-188.0697931811306</v>
+        <v>26.03194354424252</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-188.6381512595973</v>
+        <v>-0.308419073614921</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-188.4808508900479</v>
+        <v>12.60203152813283</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-187.9832791395753</v>
+        <v>20.19166779994155</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-187.8374207626892</v>
+        <v>44.05806928473505</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-187.8657035128923</v>
+        <v>40.1350872128022</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-187.7537474233281</v>
+        <v>54.34041077793059</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-188.4678967086349</v>
+        <v>0.7815609692333609</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-188.2628472091974</v>
+        <v>30.68961413826317</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-187.5963956034076</v>
+        <v>65.52716812215149</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-187.4553074711402</v>
+        <v>83.37310565840983</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-187.9309762488567</v>
+        <v>30.23423305258713</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-187.8181799247824</v>
+        <v>51.31581723732647</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-188.5165277359881</v>
+        <v>-6.423255593369042</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-188.3081019341136</v>
+        <v>25.95351904545945</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-187.650455057404</v>
+        <v>60.21607576635362</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-187.5095068834329</v>
+        <v>83.07376146198712</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-188.3018337417048</v>
+        <v>13.18802578924673</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-188.1943339735294</v>
+        <v>37.71169835113212</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-188.7137215630602</v>
+        <v>-4.988004551131269</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-188.5614867637293</v>
+        <v>18.57142630327519</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-188.0861927071925</v>
+        <v>38.63960882880392</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-187.9528758566745</v>
+        <v>68.91609685897825</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-188.9701971084904</v>
+        <v>-5.638559151605996</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-188.8729014176845</v>
+        <v>19.93361932140164</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-188.5288817030648</v>
+        <v>30.3050819856802</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-188.4896512648316</v>
+        <v>34.27925879782212</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-188.7083288500179</v>
+        <v>3.456309876776544</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-188.573900146408</v>
+        <v>28.34301728127033</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-188.8950096546992</v>
+        <v>-12.18320323450419</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-188.7649764668</v>
+        <v>25.59837737524187</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-188.3179911361102</v>
+        <v>54.19841232536631</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-188.2861006550852</v>
+        <v>55.05173355000289</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-188.5930787642453</v>
+        <v>-4.508515705872568</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>-188.4156525071039</v>
+        <v>34.9359686491024</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-188.9375339559808</v>
+        <v>-18.27762228673994</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-188.8047349669823</v>
+        <v>20.7830483587369</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-188.3656525364964</v>
+        <v>52.08545950101267</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-188.332122993679</v>
+        <v>56.17467533684074</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-188.650522134387</v>
+        <v>-10.31470038174457</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-188.4697937068953</v>
+        <v>29.73282846260867</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-189.0444637882237</v>
+        <v>-14.98274660885388</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-188.9492929539678</v>
+        <v>18.50436927596586</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-188.6253422954587</v>
+        <v>42.14701910839021</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-188.5881187831849</v>
+        <v>50.88852391890057</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-188.8045450047213</v>
+        <v>-5.375457398547262</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-188.6738007746152</v>
+        <v>27.42146122192754</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-188.1445901382386</v>
+        <v>44.10702304989011</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-188.0517794784835</v>
+        <v>51.03219864941236</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-188.6736655669856</v>
+        <v>2.6405018987425</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-188.5023574722316</v>
+        <v>31.38097050757726</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-187.9755130458235</v>
+        <v>48.99710727197853</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-187.8566071387907</v>
+        <v>62.84404711360533</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-187.8484757024213</v>
+        <v>72.14035478476887</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-187.7617705911851</v>
+        <v>76.58775489649918</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-188.5277475265385</v>
+        <v>-1.610988425190946</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-188.3097534805093</v>
+        <v>43.12715592880529</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-187.6228645448993</v>
+        <v>90.31159730760268</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-187.510291374494</v>
+        <v>96.01840963097999</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-187.9132699825873</v>
+        <v>64.52625984510183</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-187.8254511015428</v>
+        <v>74.66789714243245</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-188.5744480881793</v>
+        <v>-8.635018703675073</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-188.3539721581685</v>
+        <v>38.78232533040548</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-187.6768666491923</v>
+        <v>86.38925338074688</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-187.5640681525929</v>
+        <v>95.68011917442973</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-188.2687016744172</v>
+        <v>51.25993531441367</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-188.1828241950113</v>
+        <v>65.99872841509841</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-188.7495639914769</v>
+        <v>-1.34049385041174</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-188.5855735719674</v>
+        <v>38.99216135868885</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-188.0861636962967</v>
+        <v>70.99415550262162</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-187.9772585298567</v>
+        <v>88.9545699728744</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-189.0279434972608</v>
+        <v>3.034793254568001</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-188.9490366729702</v>
+        <v>14.43257074821859</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-188.6418593835153</v>
+        <v>23.47169715428358</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-188.6050582582072</v>
+        <v>25.97994043375811</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-188.810756221809</v>
+        <v>1.678900496442488</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-188.7007432663794</v>
+        <v>10.85078315849105</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-188.9581396483871</v>
+        <v>-6.066111289339172</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-188.8495527480967</v>
+        <v>15.24978112736575</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-188.4471116645769</v>
+        <v>38.65129626568756</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-188.4170635943614</v>
+        <v>42.11448673295011</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-188.7046934841362</v>
+        <v>-7.029073269796747</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-188.5556834113761</v>
+        <v>14.66167785318022</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-188.9991275452641</v>
+        <v>-13.70579771372809</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-188.8875761633524</v>
+        <v>8.568130315119738</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-188.492449124859</v>
+        <v>33.93623142390359</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-188.4608192103844</v>
+        <v>41.19880145866282</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-188.7590257175539</v>
+        <v>-13.70352560601173</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-188.6064368079341</v>
+        <v>8.348396754431278</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-189.0983869225868</v>
+        <v>-10.90864918760608</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-189.0201207865044</v>
+        <v>7.28240676302223</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-188.7304624100082</v>
+        <v>28.45734887398225</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-188.6955027080634</v>
+        <v>36.36296065945448</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-188.8988070997799</v>
+        <v>-10.54792429674887</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-188.7904904887965</v>
+        <v>5.488238811492373</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-188.3254110415054</v>
+        <v>14.88232897265255</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-188.2380635980692</v>
+        <v>24.316097540089</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-188.7613021776642</v>
+        <v>-1.030856554154091</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-188.6165472745166</v>
+        <v>15.69862084415823</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-188.1447007485406</v>
+        <v>26.76951617960942</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-188.033036591406</v>
+        <v>39.63406350134816</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-188.0530486950936</v>
+        <v>36.50544098899334</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-187.9712291669925</v>
+        <v>47.98281798371649</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-188.6239375875845</v>
+        <v>-3.549714970717339</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-188.4367073915039</v>
+        <v>27.37780135462925</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-187.8160291549149</v>
+        <v>64.64796733081495</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-187.7101221955915</v>
+        <v>73.57913680101527</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-188.113400255617</v>
+        <v>27.53456295936496</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-188.0304850272701</v>
+        <v>45.21291112703021</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-188.668526668591</v>
+        <v>-10.52666937055398</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-188.4784884225147</v>
+        <v>22.89485819066704</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-187.8666957961906</v>
+        <v>60.21126145989378</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-187.7605221894943</v>
+        <v>73.24817486624679</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-188.4352973567282</v>
+        <v>16.76518684184859</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-188.3544284471323</v>
+        <v>34.67499587901037</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-188.8318082770514</v>
+        <v>-6.474967225025502</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-188.6921704642875</v>
+        <v>21.02586079300515</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-188.2439439878179</v>
+        <v>45.56279892477291</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-188.1416189937539</v>
+        <v>63.1255974836924</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-188.9578042331985</v>
+        <v>-3.348283901049722</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-188.8813978055828</v>
+        <v>-0.4425093259104464</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-188.5531996024608</v>
+        <v>2.446101212258061</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-188.5135636237352</v>
+        <v>4.01507101092448</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-188.6860150753292</v>
+        <v>-1.766413508384904</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-188.578799130264</v>
+        <v>2.111784691421601</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-188.8843930842361</v>
+        <v>-12.93825690968574</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-188.7774133342305</v>
+        <v>-0.9667638660535722</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-188.3500552952194</v>
+        <v>14.11995982639757</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-188.3173135229034</v>
+        <v>16.62273514532277</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-188.5721583115043</v>
+        <v>-12.25612596166934</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-188.4247586454173</v>
+        <v>2.923252680078349</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-188.928587843697</v>
+        <v>-19.66290656715887</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-188.8183327583797</v>
+        <v>-6.850974153079893</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-188.398935925205</v>
+        <v>9.881585998503983</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-188.3645887892621</v>
+        <v>16.05334794538325</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-188.6318190436115</v>
+        <v>-18.43718196624893</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-188.4804516857099</v>
+        <v>-3.069611002763651</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-189.0361722669582</v>
+        <v>-15.92314314080693</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-188.9597753361275</v>
+        <v>-6.987343745814531</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-188.6509696408553</v>
+        <v>6.609882348157498</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-188.6133923391572</v>
+        <v>13.50595035723801</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-188.7880749695748</v>
+        <v>-13.2697228395669</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-188.6817863071714</v>
+        <v>-3.327634974376384</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-188.1681932732192</v>
+        <v>2.190421282611219</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-188.0752103942066</v>
+        <v>8.993148745915114</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-188.62606409818</v>
+        <v>-0.7676754814701283</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-188.4828938575842</v>
+        <v>10.50397227904906</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-187.9688022495828</v>
+        <v>16.68480091831602</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-187.8503149332021</v>
+        <v>27.81321978209368</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-187.8810057880712</v>
+        <v>18.58276573687664</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-187.7935678992657</v>
+        <v>27.51117964064257</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-188.4790672043604</v>
+        <v>-4.262130138414513</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-188.2921163512501</v>
+        <v>19.81975872031283</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-187.622244996898</v>
+        <v>50.69384431732101</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-187.5095230051847</v>
+        <v>58.34072708269811</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-187.947437633357</v>
+        <v>9.811076384728032</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-187.8589213811744</v>
+        <v>24.75265706853184</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-188.5288818584167</v>
+        <v>-10.82971094399548</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-188.3387610355793</v>
+        <v>15.47389605384797</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-187.6789858920947</v>
+        <v>46.25278741935305</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-187.5660531042619</v>
+        <v>57.92089959635667</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-188.294659178594</v>
+        <v>2.918043217960502</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-188.2086391749871</v>
+        <v>18.00460096056908</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-188.710846809373</v>
+        <v>-5.75318443115696</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-188.572143710806</v>
+        <v>15.31398569742817</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-188.0854958902154</v>
+        <v>33.84307925351795</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-187.9769690019442</v>
+        <v>49.69281603783642</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-189.0937757099952</v>
+        <v>-2.600940310634996</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-189.0085055022597</v>
+        <v>11.05406892120932</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-188.6933198509372</v>
+        <v>20.67133586278965</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-188.6504972341422</v>
+        <v>25.05824520340386</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-188.886699318017</v>
+        <v>3.332137468740328</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-188.7679485842783</v>
+        <v>16.6152509006662</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-189.0165552084856</v>
+        <v>-11.00112710238436</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-188.9009360909421</v>
+        <v>18.06538966360039</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-188.4843849522654</v>
+        <v>51.56047015408187</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-188.4477524316767</v>
+        <v>54.23383403080429</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-188.7705690174978</v>
+        <v>-5.182035714513638</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-188.6119273559297</v>
+        <v>25.91358332738007</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-189.0487292707316</v>
+        <v>-19.45700568281689</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-188.9302207874249</v>
+        <v>12.19044169595323</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-188.5193224004835</v>
+        <v>48.66262795129168</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-188.4811603079362</v>
+        <v>55.52198420264082</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-188.8139793140034</v>
+        <v>-13.0690846791539</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-188.6518777908298</v>
+        <v>19.83246041189307</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-189.1460186205607</v>
+        <v>-15.22485310152363</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-189.0619433617688</v>
+        <v>8.242974696799035</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-188.7619284389523</v>
+        <v>34.46069145887676</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-188.7214678743377</v>
+        <v>44.59417884604751</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-188.9523790219694</v>
+        <v>-6.89508786092459</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-188.8361001524423</v>
+        <v>16.22653823616717</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-188.3815492038256</v>
+        <v>17.54740204842125</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-188.2847711238122</v>
+        <v>30.66429956068363</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-188.8485754051949</v>
+        <v>-2.611212208577435</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-188.6946848918076</v>
+        <v>17.3987549457677</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-188.2175639329605</v>
+        <v>29.54783069211469</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-188.0964227948805</v>
+        <v>47.62927290956477</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-188.0902046494304</v>
+        <v>52.60448495267436</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-187.9981220890128</v>
+        <v>63.94693439679245</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-188.6990982052157</v>
+        <v>-2.914875707183995</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>-188.5018140854794</v>
+        <v>36.34089296387089</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-187.867458383909</v>
+        <v>83.04657260531232</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-187.7512639587034</v>
+        <v>93.6656763879993</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-188.137668098128</v>
+        <v>43.94303699590048</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-188.0446090204803</v>
+        <v>61.96562592382212</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-188.7318069935526</v>
+        <v>-10.9420868266122</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-188.5318417081445</v>
+        <v>31.99231989583959</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-187.9039700298482</v>
+        <v>78.44172227314306</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-187.7876246007212</v>
+        <v>93.85651049230259</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-188.4669148203335</v>
+        <v>27.25872533080634</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-188.3774741350501</v>
+        <v>49.63621636594271</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-188.8945830816686</v>
+        <v>-5.082569094586709</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-188.7466223362041</v>
+        <v>28.30072437609292</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>-188.2893543880264</v>
+        <v>56.14894982205941</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>-188.1784084458797</v>
+        <v>80.17042475114553</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-188.9883336516636</v>
+        <v>10.05567857985073</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-188.9045606683639</v>
+        <v>34.23506013579903</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-188.5977822650085</v>
+        <v>49.10738139937344</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>-188.5542269940634</v>
+        <v>55.52630836994422</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-188.7669412289107</v>
+        <v>4.700974319933444</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-188.6509897562745</v>
+        <v>26.01408694793547</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-188.9102561280514</v>
+        <v>1.698099120710165</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-188.7967990003021</v>
+        <v>38.62591983605548</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-188.395273672456</v>
+        <v>72.2491264742697</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>-188.3577714423193</v>
+        <v>75.86096720985563</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-188.6511741814592</v>
+        <v>-3.351026665171396</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-188.4962485241621</v>
+        <v>33.35636693238416</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-188.9514939013276</v>
+        <v>-5.923383662981145</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-188.8353318485444</v>
+        <v>32.04226998518722</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-188.4410846336928</v>
+        <v>67.98674661104695</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-188.4022397769525</v>
+        <v>75.36777852353973</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-188.7056464277344</v>
+        <v>-10.00200987635534</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-188.5474668571057</v>
+        <v>27.08738494514017</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-189.0624546432447</v>
+        <v>-1.051957719295462</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-188.980024910664</v>
+        <v>30.60263798502467</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-188.6909426298251</v>
+        <v>58.36104437089705</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>-188.6499886025063</v>
+        <v>70.28240415696425</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-188.8591062962712</v>
+        <v>-5.421209289274728</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-188.7457209441478</v>
+        <v>23.33520954486174</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-188.2786185762642</v>
+        <v>37.88847210132409</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-188.1831153500154</v>
+        <v>49.46674987106253</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-188.7390621390844</v>
+        <v>-2.266385120031373</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>-188.5896246278199</v>
+        <v>22.40471862957678</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-188.1295239882915</v>
+        <v>40.22752988841084</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-188.0091207774382</v>
+        <v>60.23375959052846</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-187.9976033511399</v>
+        <v>66.96956473377981</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-187.9067659764277</v>
+        <v>76.47438542166071</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-188.5940931184896</v>
+        <v>-6.527259933613287</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>-188.4023219581758</v>
+        <v>34.89531097602681</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-187.7954199571072</v>
+        <v>81.86900810957164</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-187.6798104708544</v>
+        <v>94.23378291808461</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>-188.058305171711</v>
+        <v>58.09744319744582</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-187.9666661007008</v>
+        <v>73.96747731996737</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-188.6384695650667</v>
+        <v>-13.75404985909249</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>-188.4441861730998</v>
+        <v>30.15010247893907</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-187.8458911133421</v>
+        <v>77.11890004092649</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-187.7303205987535</v>
+        <v>93.82796742651206</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>-188.3934890873395</v>
+        <v>42.79287536023224</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>-188.3053859703777</v>
+        <v>63.14937365212339</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-188.8119289588045</v>
+        <v>-6.974735130207407</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-188.6683514187832</v>
+        <v>28.82241067264068</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-188.2311043218444</v>
+        <v>60.23232668408918</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-188.1210167791057</v>
+        <v>85.53230563815157</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-189.0083522115157</v>
+        <v>-0.852474280496093</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-188.9254810744698</v>
+        <v>27.73599375487172</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-188.5996178987946</v>
+        <v>45.39359880366337</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-188.565493483109</v>
+        <v>48.90054470627481</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-188.7893524578387</v>
+        <v>1.317844932470415</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-188.6750785642528</v>
+        <v>26.09656077987207</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-188.927884441718</v>
+        <v>-7.352503725336302</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-188.8186580328224</v>
+        <v>37.1510698382871</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-188.4025803455273</v>
+        <v>80.2701104332981</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-188.3739401313235</v>
+        <v>80.40161705680524</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-188.6731944516659</v>
+        <v>-7.13770093955668</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-188.5242988863353</v>
+        <v>35.79561166280947</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-188.9602478207477</v>
+        <v>-14.71911676225282</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-188.8489334002001</v>
+        <v>32.47638506163179</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-188.4392379924597</v>
+        <v>79.039600910686</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-188.4092985186172</v>
+        <v>82.83831159596099</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-188.716226151618</v>
+        <v>-14.35711885697226</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-188.5648619186766</v>
+        <v>30.55824111728969</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-189.0730498937372</v>
+        <v>-10.95997617661919</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-188.9924192418895</v>
+        <v>28.12652972503345</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-188.6857310251097</v>
+        <v>63.21394949043614</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-188.6534330261202</v>
+        <v>71.69369874619431</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-188.8701622164697</v>
+        <v>-7.425513263650771</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-188.7595619585053</v>
+        <v>27.81710769454975</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-188.2743086105625</v>
+        <v>40.04085763600332</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-188.1959573404482</v>
+        <v>50.19837860238537</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-188.770547125017</v>
+        <v>-5.178719336932247</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-188.6265176907324</v>
+        <v>23.90345605706617</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-188.1533579968913</v>
+        <v>45.6317774402874</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-188.0547687649443</v>
+        <v>60.87491122136642</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-188.0036678541024</v>
+        <v>76.98224492818753</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-187.9296814506178</v>
+        <v>83.4011425139708</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-188.6284376096105</v>
+        <v>-8.548984404344431</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>-188.446822196793</v>
+        <v>40.11456361879218</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-187.8359501676545</v>
+        <v>97.03910577686494</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-187.7419649688796</v>
+        <v>102.9274218265237</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-188.0525813645624</v>
+        <v>69.54125500427367</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-187.9777422224084</v>
+        <v>81.9962311647987</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-188.6622014027045</v>
+        <v>-16.65508103150829</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-188.4787783398522</v>
+        <v>35.8122699574872</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-187.8753065494541</v>
+        <v>92.87112582988505</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-187.781157763033</v>
+        <v>102.8766463808977</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>-188.3812889621927</v>
+        <v>52.69208131593145</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-188.3088398584736</v>
+        <v>71.12121573493702</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-188.8335923658429</v>
+        <v>-7.853107486494267</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-188.6961670740154</v>
+        <v>35.05070856180422</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-188.2473552370143</v>
+        <v>73.19536139551985</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-188.1570469614974</v>
+        <v>93.33080456003603</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-189.2957315416112</v>
+        <v>8.39396789511467</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-189.2393387633975</v>
+        <v>29.77277702993524</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-189.0188347606901</v>
+        <v>44.63635353211834</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-188.9928619096688</v>
+        <v>47.56738590539469</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-189.1514045236072</v>
+        <v>12.74501365726686</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-189.07308751058</v>
+        <v>32.01709477333684</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-189.241804348594</v>
+        <v>1.825785075413325</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-189.16610375231</v>
+        <v>38.19228752468004</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>-188.8796285271636</v>
+        <v>76.78946736117393</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>-188.85764380315</v>
+        <v>77.5063453850382</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-189.0719904042207</v>
+        <v>4.386651852098634</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-188.9682982156119</v>
+        <v>40.5578996503765</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-189.2626837175115</v>
+        <v>-4.71065550970896</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-189.1852363719202</v>
+        <v>34.25405235555911</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-188.9026778491812</v>
+        <v>75.94481062520504</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-188.8797111277639</v>
+        <v>80.45341382152077</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-189.1001100908327</v>
+        <v>-2.2110397030815</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-188.994335337246</v>
+        <v>35.80621410148172</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-189.333422126486</v>
+        <v>-0.775080789030568</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-189.2780699367371</v>
+        <v>30.42881186839537</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-189.0691256908557</v>
+        <v>61.90759563808266</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-189.0445416571817</v>
+        <v>69.99096057409301</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-189.1987715302202</v>
+        <v>4.933521533082263</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-189.1223896848137</v>
+        <v>33.95182935767534</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-188.8017916496297</v>
+        <v>41.19399968412591</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-188.7422226882558</v>
+        <v>52.78176637487239</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-189.1367708648644</v>
+        <v>3.176958386592347</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-189.0362750919788</v>
+        <v>26.86452457646166</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-188.7103264134454</v>
+        <v>46.61345418146571</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-188.6357068871212</v>
+        <v>62.78190089855872</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>-188.6091380772145</v>
+        <v>75.19021595814436</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-188.5526557225453</v>
+        <v>84.26191962170296</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-189.0371935840507</v>
+        <v>1.735089793636369</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-188.9091163625985</v>
+        <v>43.68474171173865</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-188.4817185387907</v>
+        <v>97.46505239073304</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-188.4103723404882</v>
+        <v>105.7749504658948</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-188.6403663548265</v>
+        <v>68.21830443530691</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>-188.5832441469292</v>
+        <v>83.34370049590888</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-189.0582996401849</v>
+        <v>-5.508106925347057</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-188.9286320749699</v>
+        <v>40.00195283437627</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-188.5057065161439</v>
+        <v>93.63789511620058</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-188.4342321949775</v>
+        <v>106.2463457837772</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-188.8644957609782</v>
+        <v>53.57895940911443</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-188.8094125348843</v>
+        <v>73.58478272057897</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-189.1707601815333</v>
+        <v>1.822712601373233</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-189.0743831396214</v>
+        <v>38.44263930934927</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-188.7632386440749</v>
+        <v>73.77246780940268</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-188.6948731851722</v>
+        <v>95.27164586742538</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-189.0901758243476</v>
+        <v>-0.4286071541575645</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-189.0096254159366</v>
+        <v>25.62494854971925</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-188.7280905243539</v>
+        <v>38.06331179931527</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-188.6869867789753</v>
+        <v>44.11497627224038</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-188.8925244078526</v>
+        <v>-1.453665646002968</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-188.7812363608198</v>
+        <v>21.11766077612308</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-189.0169689998325</v>
+        <v>-6.179179485690966</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-188.9088994952136</v>
+        <v>35.89458221062541</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-188.5387973514538</v>
+        <v>71.06754944886862</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-188.5031393207927</v>
+        <v>72.29491066413735</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-188.7841073142905</v>
+        <v>-8.223634019351742</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-188.6366862242179</v>
+        <v>33.1433737689141</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-189.0514800349252</v>
+        <v>-14.17760975773789</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-188.9410203486188</v>
+        <v>29.66483482714474</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-188.5769855121571</v>
+        <v>67.86920837144753</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-188.5401043411587</v>
+        <v>73.01754553490898</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-188.8300007838598</v>
+        <v>-15.51348256610354</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-188.6797185990568</v>
+        <v>26.90015050629415</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-189.1507835633444</v>
+        <v>-11.25929695751721</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>-189.0718495386662</v>
+        <v>23.89782396291848</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-188.8055662670052</v>
+        <v>51.63730993007457</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>-188.7669444564146</v>
+        <v>63.35009686781117</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-188.9681360869862</v>
+        <v>-11.33205997668566</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-188.8597144581587</v>
+        <v>20.29506415047604</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-188.438462550036</v>
+        <v>32.80345398745221</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-188.3490818631943</v>
+        <v>43.41982100127513</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-188.8696567380376</v>
+        <v>-7.835835866206594</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-188.7275753274313</v>
+        <v>17.95293203585594</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-188.3062120856674</v>
+        <v>34.42037112866353</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-188.1940300274134</v>
+        <v>55.19736605925322</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-188.17587522916</v>
+        <v>69.93263182555054</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-188.0906227159442</v>
+        <v>75.94638335192332</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-188.7340046772197</v>
+        <v>-10.04723180104263</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-188.5527052539566</v>
+        <v>35.76229013401791</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>-187.9944446807235</v>
+        <v>85.08513839150294</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>-187.8865142041808</v>
+        <v>95.72124969389176</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>-188.2268634645485</v>
+        <v>61.06617457723512</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-188.1408967479478</v>
+        <v>73.75840303381739</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-188.7704197213098</v>
+        <v>-18.19436555335074</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>-188.5869413311841</v>
+        <v>30.75920723914965</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-188.0357473273104</v>
+        <v>80.07622313522458</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-187.9278711597183</v>
+        <v>95.36395487910576</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-188.5342747494992</v>
+        <v>41.05796863733197</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-188.4518403802639</v>
+        <v>60.87239969352213</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-188.9270980404146</v>
+        <v>-12.17943304699293</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-188.7909118783186</v>
+        <v>26.37377184968101</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-188.3891309123288</v>
+        <v>57.9458262612327</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-188.2865626847735</v>
+        <v>84.47041934112539</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-189.1224363502216</v>
+        <v>1.975892292412155</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-189.0512436655598</v>
+        <v>12.07635397351869</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-188.7680987567002</v>
+        <v>22.23402873029423</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-188.7318030070712</v>
+        <v>24.49051916260858</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-188.919793492696</v>
+        <v>5.189254512882236</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-188.8200321633629</v>
+        <v>17.44414571879978</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-189.0508995364792</v>
+        <v>-8.295805074839709</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-188.9535286745196</v>
+        <v>15.24594667230595</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-188.5818057305814</v>
+        <v>44.78160354571228</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-188.5509273128477</v>
+        <v>46.67705217111794</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-188.8121213312404</v>
+        <v>-0.8414177970181598</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-188.6779189231365</v>
+        <v>27.68627389105973</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-189.0818344653004</v>
+        <v>-17.60924649548785</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-188.9818659649096</v>
+        <v>8.078159307372481</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-188.6156661266314</v>
+        <v>39.77542307713495</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-188.5834083344319</v>
+        <v>45.73448256076595</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-188.8537414660731</v>
+        <v>-8.945381709527126</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-188.7164298344609</v>
+        <v>21.0666744795417</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-189.1756502743179</v>
+        <v>-10.68500835547202</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-189.1051758728822</v>
+        <v>8.022108726371101</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-188.836532658992</v>
+        <v>32.70754299969016</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-188.8021652492552</v>
+        <v>40.56691169970274</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-188.9873204969687</v>
+        <v>-3.836549911091993</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-188.889328751897</v>
+        <v>17.23822817990808</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-188.4711272593896</v>
+        <v>20.52481066441728</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-188.3881230499983</v>
+        <v>33.29103016278079</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-188.8921683621919</v>
+        <v>-5.631705765051116</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-188.761386571057</v>
+        <v>13.35717418587937</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-188.3358671437138</v>
+        <v>23.54928042758039</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-188.2316851999916</v>
+        <v>42.64137104487875</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>-188.2104801300964</v>
+        <v>52.46451082497967</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-188.1315981786478</v>
+        <v>64.83181337056087</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-188.7552615914646</v>
+        <v>-1.08908123863673</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>-188.5869496169143</v>
+        <v>35.82074563669035</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-188.0238122813005</v>
+        <v>76.75024686325537</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-187.9239828002697</v>
+        <v>89.92169213877659</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-188.2563227233882</v>
+        <v>42.82509243243146</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-188.1765271715694</v>
+        <v>61.63789910117151</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-188.7874153678076</v>
+        <v>-9.150132489147076</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-188.6166833614707</v>
+        <v>31.07633261976014</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-188.0599156724135</v>
+        <v>71.14993861295918</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-187.9598890154111</v>
+        <v>88.97945467286689</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>-188.5571804468899</v>
+        <v>28.75743204807171</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>-188.4803980083229</v>
+        <v>50.58122881380255</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-188.941948249697</v>
+        <v>-7.477692125682779</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-188.8159918675901</v>
+        <v>23.76295291168714</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-188.409264333472</v>
+        <v>47.42838044347025</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-188.3137868426879</v>
+        <v>72.50535829321169</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-189.3113580334571</v>
+        <v>-0.3397162351518936</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-189.2567195059641</v>
+        <v>18.39356217694907</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-189.0434039686403</v>
+        <v>30.22177901092746</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-189.0166980078159</v>
+        <v>34.8096215420081</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-189.172883612902</v>
+        <v>3.273803826026768</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-189.0968791414745</v>
+        <v>20.06281032786545</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-189.258303132209</v>
+        <v>-6.768829286836571</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-189.1845809226877</v>
+        <v>26.77029814549222</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-188.9060265603159</v>
+        <v>61.97196124893802</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>-188.8831869452317</v>
+        <v>64.87783700648865</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-189.094615102097</v>
+        <v>-4.324999515788576</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-188.9935285321781</v>
+        <v>29.22169000676007</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-189.2786614358878</v>
+        <v>-13.0261279542716</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-189.2031583389045</v>
+        <v>23.08775395221359</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-188.9283256265095</v>
+        <v>61.25491177941407</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-188.9045253313512</v>
+        <v>68.04522854375466</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-189.1220020477398</v>
+        <v>-10.51838988914567</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-189.0187875509017</v>
+        <v>24.85563236556087</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-189.34735666112</v>
+        <v>-9.758760888724243</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-189.2935947026704</v>
+        <v>18.62606613733715</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-189.0911096208328</v>
+        <v>46.77833179208409</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>-189.0658692848767</v>
+        <v>56.68240784307926</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-189.2178993755093</v>
+        <v>-4.572894938196661</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-189.1436132491571</v>
+        <v>21.80112252516177</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-188.8353149758725</v>
+        <v>24.19362457647006</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-188.7748068922211</v>
+        <v>38.87142067169685</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-189.1572973613853</v>
+        <v>-7.326657924239463</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-189.0592607846583</v>
+        <v>14.41800300440205</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-188.7431659266762</v>
+        <v>30.46537303809722</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>-188.6676275857524</v>
+        <v>49.32377960042667</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>-188.6450646476844</v>
+        <v>58.44646501752521</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-188.5874851905933</v>
+        <v>71.18993853104514</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-189.0586362396686</v>
+        <v>-7.329466298177799</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-188.9333250001937</v>
+        <v>32.55267139707445</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-188.5167406450077</v>
+        <v>82.26833076089778</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-188.4443104298485</v>
+        <v>93.83489780892913</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-188.6752424671277</v>
+        <v>51.82821721266503</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-188.6170507906133</v>
+        <v>70.70453255323022</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-189.0790460240692</v>
+        <v>-13.94695526195208</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-188.9520953999367</v>
+        <v>29.46533427313948</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-188.5397124320671</v>
+        <v>78.95571653462105</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-188.4671802744</v>
+        <v>94.9239175687307</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>-188.8944520973282</v>
+        <v>36.13118133084512</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-188.8385283647418</v>
+        <v>59.4243968557574</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-189.1890664631742</v>
+        <v>-8.374095341584585</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-189.0949167657033</v>
+        <v>26.1404143817396</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-188.792625512534</v>
+        <v>57.452495580686</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-188.7234362743054</v>
+        <v>81.87732050720706</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-188.9957161405011</v>
+        <v>10.07674376971577</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-188.9124208876172</v>
+        <v>36.3840847656863</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-188.5754463921875</v>
+        <v>56.06657729802674</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-188.5420549062584</v>
+        <v>53.20544325362047</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-188.7712091364388</v>
+        <v>6.124924916425329</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-188.6554439745362</v>
+        <v>30.70374644044151</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-188.9150992345214</v>
+        <v>-1.273771545886124</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-188.8028482872369</v>
+        <v>38.4533106015428</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-188.367498175725</v>
+        <v>80.81137527500684</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-188.3406752579165</v>
+        <v>76.86522272468696</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-188.6523119673806</v>
+        <v>-4.206148770232886</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-188.4984872727681</v>
+        <v>36.24926614503442</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-188.9508623377539</v>
+        <v>-9.053527442562586</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-188.8359462378315</v>
+        <v>32.74493136673004</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-188.407361321592</v>
+        <v>78.31725443163822</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-188.3789061888778</v>
+        <v>78.30637681379136</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-188.6998522367402</v>
+        <v>-10.8449519442092</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-188.5428428569879</v>
+        <v>30.97549899400946</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-189.0618067051821</v>
+        <v>-2.773637869319391</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-188.9799092779473</v>
+        <v>32.92313769697163</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-188.6619054707662</v>
+        <v>69.38680709775946</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-188.6300135807502</v>
+        <v>71.56960852142106</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-188.8535557611775</v>
+        <v>-4.155707743566808</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-188.7404776445081</v>
+        <v>29.87123304093876</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-188.241785126974</v>
+        <v>46.19211828927806</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>-188.1598921844393</v>
+        <v>50.63155159912775</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-188.7388229838176</v>
+        <v>-4.950701941731921</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>-188.5893190651479</v>
+        <v>25.34893738390131</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-188.0887492753733</v>
+        <v>48.63276463046977</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-187.9844073428809</v>
+        <v>56.91214644266645</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>-187.9537288612759</v>
+        <v>76.72137349848845</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>-187.8772407859615</v>
+        <v>80.09337378393826</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-188.5892432396909</v>
+        <v>-7.867518564849014</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>-188.3983176798766</v>
+        <v>40.03482058334058</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>-187.7459391597681</v>
+        <v>96.06279106746271</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>-187.6473045382876</v>
+        <v>97.35555603604888</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>-188.0069449652553</v>
+        <v>69.30640499315672</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>-187.929280361406</v>
+        <v>79.01852610644809</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-188.6265629489892</v>
+        <v>-14.73051705315903</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>-188.4332022872133</v>
+        <v>36.52386415676882</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>-187.7887367543053</v>
+        <v>92.67129855129764</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>-187.6896924272033</v>
+        <v>98.34757891523839</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>-188.3488230894114</v>
+        <v>56.07691092403181</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>-188.272871473707</v>
+        <v>68.82485411510983</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-188.8021334245424</v>
+        <v>-7.92807652855187</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>-188.6586398574206</v>
+        <v>35.49182946761207</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>-188.1826684066251</v>
+        <v>74.89127170443373</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>-188.086911913131</v>
+        <v>87.98606101505345</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-189.0698676882376</v>
+        <v>-3.542237697723131</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>-188.985052919029</v>
+        <v>23.64603228280205</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-188.6921768793376</v>
+        <v>37.47714326401301</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-188.6514297148579</v>
+        <v>42.01868376948501</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-188.8756103422901</v>
+        <v>-1.899629923295755</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-188.7586600053085</v>
+        <v>19.89871524082493</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-188.9926066331905</v>
+        <v>-6.673390496576864</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>-188.8795343105006</v>
+        <v>37.14787578218929</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>-188.4951635040503</v>
+        <v>73.16683962035569</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>-188.4600687355019</v>
+        <v>72.67943576350217</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-188.7626236747055</v>
+        <v>-7.62041133306375</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>-188.6085745404415</v>
+        <v>33.48450498711095</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-189.0266809991012</v>
+        <v>-13.87627496701282</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>-188.9112414192174</v>
+        <v>31.95666651598435</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>-188.5328775900534</v>
+        <v>71.130014409908</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>-188.4964950892609</v>
+        <v>74.4841782067208</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-188.8077246810332</v>
+        <v>-14.3860979308676</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>-188.6508495508919</v>
+        <v>28.02959162741679</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-189.1305607062085</v>
+        <v>-13.76023344632285</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>-189.0476773735904</v>
+        <v>22.92527754949484</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-188.7704758406655</v>
+        <v>52.56503488280856</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>-188.7321242391333</v>
+        <v>62.57798408687344</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-188.9503113304914</v>
+        <v>-11.56663356051257</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>-188.8366513360849</v>
+        <v>19.64044490724964</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-188.4040201045111</v>
+        <v>31.9147596484434</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>-188.314280352085</v>
+        <v>42.63956552122088</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-188.8624107401193</v>
+        <v>-7.41648109707473</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>-188.7140128757809</v>
+        <v>17.12985080484136</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-188.2823985362776</v>
+        <v>31.25001673656782</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>-188.1694986055437</v>
+        <v>52.28839484913529</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>-188.1322626249209</v>
+        <v>69.21824653271615</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>-188.0468598403738</v>
+        <v>74.95900404428943</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-188.7221562551513</v>
+        <v>-8.187235146029153</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>-188.5335086000982</v>
+        <v>36.79692842691817</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>-187.9611528533227</v>
+        <v>82.32809108339293</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>-187.8527291177844</v>
+        <v>93.11304558031438</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>-188.1823487944652</v>
+        <v>61.15010385622034</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>-188.0961703775033</v>
+        <v>73.40333550378953</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-188.7572332057569</v>
+        <v>-15.95966377744078</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>-188.5664557166536</v>
+        <v>32.35246016962086</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>-188.0008977372644</v>
+        <v>77.79035172068171</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>-187.8924790481857</v>
+        <v>93.15110056881338</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>-188.4995914706867</v>
+        <v>40.94724431371279</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>-188.4167739701761</v>
+        <v>60.66912307275045</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-188.9174145125253</v>
+        <v>-11.60414110252299</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>-188.77539972981</v>
+        <v>25.93232404212586</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>-188.3632994678996</v>
+        <v>55.08928627681485</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>-188.2600313133632</v>
+        <v>81.82988854075381</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.539</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.092</v>
+        <v>16.568</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.434</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.039</v>
+        <v>14.419</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.856</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.44</v>
+        <v>9.15</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6212133176832815</v>
+        <v>5.005152497676828</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.74311437408897</v>
+        <v>17.64190559761777</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.91358632510156</v>
+        <v>18.06024579574036</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34.73263480892133</v>
+        <v>20.05718285876154</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.580180247088606</v>
+        <v>11.68912988347241</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.29664660675991</v>
+        <v>24.48951672232905</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-6.478453896467805</v>
+        <v>1.210620724418909</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.29232768246353</v>
+        <v>22.35275739859872</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>62.93706389898332</v>
+        <v>37.25778483692437</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65.40071149170757</v>
+        <v>38.55890084358329</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5054055935240669</v>
+        <v>8.765349629610904</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.05809218758789</v>
+        <v>32.83715230089685</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-14.1136384530157</v>
+        <v>-1.726601978618532</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.31782164546677</v>
+        <v>20.93909335372836</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>61.05239173026683</v>
+        <v>37.41782281215254</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>67.48954471521461</v>
+        <v>39.52778514818534</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-6.926944389323758</v>
+        <v>4.989261496310508</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.52807303745904</v>
+        <v>29.87267444945844</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-10.18334306059914</v>
+        <v>-2.895585473390415</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.88442796511583</v>
+        <v>16.69288840695166</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>45.75328355125603</v>
+        <v>27.29923998926467</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>56.02901674631973</v>
+        <v>31.8245491409555</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.3187738950942887</v>
+        <v>7.074454540551756</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.31917222058036</v>
+        <v>26.66798654175643</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.33822828766735</v>
+        <v>24.91588016234217</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.83414710157041</v>
+        <v>32.1206318871413</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.449607466477346</v>
+        <v>7.955239723205715</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.68994116429487</v>
+        <v>23.86270227967296</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.18284545018796</v>
+        <v>29.81779672552895</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>57.65159925598079</v>
+        <v>38.73176773374846</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>65.3078776188942</v>
+        <v>47.22018321732898</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>76.19269016812169</v>
+        <v>55.72417407297549</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5518436728045799</v>
+        <v>10.82454325457629</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.97933071078603</v>
+        <v>41.71409901811295</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>92.16492369897662</v>
+        <v>66.12438226781197</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>102.5607440207934</v>
+        <v>72.70677581262572</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>57.41421913942558</v>
+        <v>43.14793784155686</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74.6508554976501</v>
+        <v>54.27457201662952</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-7.256156845971596</v>
+        <v>8.13862773609787</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.8395612978311</v>
+        <v>41.27792691137117</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>87.84116255450246</v>
+        <v>65.76714435485765</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>102.7869159364515</v>
+        <v>73.85933207840564</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.68120788120878</v>
+        <v>30.91516514967097</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>63.03226694455194</v>
+        <v>44.62415253108464</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.3967835977659675</v>
+        <v>9.260978925092241</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35.07721609035308</v>
+        <v>37.18546593136129</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>66.20917501494742</v>
+        <v>52.01763436824315</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>90.37134042636006</v>
+        <v>65.16273034810787</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.139176882324765</v>
+        <v>11.01232000892951</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.30759977453643</v>
+        <v>36.43369926225149</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>51.49257914172596</v>
+        <v>37.31881629344805</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>55.75815251638655</v>
+        <v>39.84329870435389</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.210703753341114</v>
+        <v>9.104523978553605</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.30576730088976</v>
+        <v>30.34846289447938</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-3.415938616130255</v>
+        <v>7.505429866188869</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.51387702994678</v>
+        <v>40.95166381607628</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>77.56900537792063</v>
+        <v>55.10137835289837</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>79.08979838762625</v>
+        <v>56.3905656582052</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1.639444482537243</v>
+        <v>6.427469136819969</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.92280017754768</v>
+        <v>38.6879579639689</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-10.51679277307894</v>
+        <v>4.45952071269274</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.77052287545696</v>
+        <v>38.68409308552878</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>74.77418897202116</v>
+        <v>54.622722246644</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>79.7024463089333</v>
+        <v>56.46118194414993</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-7.982366377766397</v>
+        <v>3.049415877127899</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.32420685863919</v>
+        <v>35.48302189485695</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-7.889584083744015</v>
+        <v>5.280294257285867</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.79551067925306</v>
+        <v>37.03370977233524</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>63.50631695089502</v>
+        <v>48.10236293775311</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>72.64289982497263</v>
+        <v>52.79598290750932</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-4.693409090710929</v>
+        <v>4.321219706110298</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.95119926494763</v>
+        <v>31.19268079806405</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>52.04803608328631</v>
+        <v>34.96000388337721</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>60.88503095464205</v>
+        <v>40.55815509642215</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.7853035193166278</v>
+        <v>8.662318687991316</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.17323438023219</v>
+        <v>32.68479636534108</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>55.13045199155344</v>
+        <v>38.78339699804562</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>69.76430363948575</v>
+        <v>48.43938415113922</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>83.84667037341407</v>
+        <v>56.33665031921427</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>90.50899901317675</v>
+        <v>62.70176155478789</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-2.904060736860778</v>
+        <v>8.65452072887218</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>46.57672093388853</v>
+        <v>48.30234695151282</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>99.20925077272824</v>
+        <v>69.74226788450022</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>105.6306169574916</v>
+        <v>74.77286705229827</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>75.94594244493433</v>
+        <v>52.02607354751345</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>88.52136122933584</v>
+        <v>60.59288609619909</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-10.31639825203647</v>
+        <v>5.483611104320314</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>42.08246290703353</v>
+        <v>46.97676559255225</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>95.25204443939151</v>
+        <v>68.35476978523549</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>105.3811068349467</v>
+        <v>73.96047356969726</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>59.7369137907988</v>
+        <v>39.1740796107668</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>76.59534219828916</v>
+        <v>50.05690691537147</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-3.8701002054325</v>
+        <v>8.583490950562688</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.9311487432153</v>
+        <v>43.73836131208128</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>78.27308749607553</v>
+        <v>57.64829098917899</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>97.02030078243055</v>
+        <v>69.00670549304309</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.139176882324765</v>
+        <v>8.977541091470995</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.30759977453643</v>
+        <v>31.7315774505638</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.49257914172596</v>
+        <v>33.69592237059365</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>55.75815251638655</v>
+        <v>35.45860087108102</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5.210703753341114</v>
+        <v>11.16467085678567</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.30576730088976</v>
+        <v>31.81021614492922</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-3.415938616130255</v>
+        <v>6.505214922444718</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.51387702994678</v>
+        <v>37.57888762973238</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>77.56900537792063</v>
+        <v>52.80174404628671</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>79.08979838762625</v>
+        <v>53.27444044758812</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-1.639444482537243</v>
+        <v>9.070700683638924</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.92280017754768</v>
+        <v>40.99861831389512</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-10.51679277307894</v>
+        <v>3.80129834264627</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.77052287545696</v>
+        <v>35.80238531706273</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>74.77418897202116</v>
+        <v>52.79446101984358</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>79.7024463089333</v>
+        <v>53.82805551227364</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-7.982366377766397</v>
+        <v>6.036164570035435</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.32420685863919</v>
+        <v>38.28042039202644</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-7.889584083744015</v>
+        <v>3.805123780171829</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.79551067925306</v>
+        <v>33.11279107336461</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>63.50631695089502</v>
+        <v>45.51678646787487</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>72.64289982497263</v>
+        <v>49.38003118869618</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-4.693409090710929</v>
+        <v>7.098763097872023</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.95119926494763</v>
+        <v>33.81438142233942</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>52.04803608328631</v>
+        <v>37.91015260575716</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>60.88503095464205</v>
+        <v>41.79083755408762</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.7853035193166278</v>
+        <v>10.02628246276477</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.17323438023219</v>
+        <v>33.83708823608983</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>55.13045199155344</v>
+        <v>41.00043789073567</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>69.76430363948575</v>
+        <v>48.79653968573171</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>83.84667037341407</v>
+        <v>60.25676774862166</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>90.50899901317675</v>
+        <v>64.57112273698765</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-2.904060736860778</v>
+        <v>10.49857342112479</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.57672093388853</v>
+        <v>50.32095856362803</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>99.20925077272824</v>
+        <v>72.77922197619164</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>105.6306169574916</v>
+        <v>75.76670666210089</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>75.94594244493433</v>
+        <v>56.50100978733232</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>88.52136122933584</v>
+        <v>62.91996200895069</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-10.31639825203647</v>
+        <v>7.623525221129423</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.08246290703353</v>
+        <v>49.42207866604546</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>95.25204443939151</v>
+        <v>71.84717655362662</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>105.3811068349467</v>
+        <v>75.35821378583219</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>59.7369137907988</v>
+        <v>43.64387292258029</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>76.59534219828916</v>
+        <v>52.33296784125459</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-3.8701002054325</v>
+        <v>10.62358061608418</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>40.9311487432153</v>
+        <v>45.96906254667839</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>78.27308749607553</v>
+        <v>61.28291491971503</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>97.02030078243055</v>
+        <v>70.39096772812768</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-0.693239949738107</v>
+        <v>5.816949842477911</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>10.10028728508397</v>
+        <v>16.46221480900559</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.89939271283364</v>
+        <v>18.48073491434524</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>24.74827884581325</v>
+        <v>19.93595997434817</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6.753304496341741</v>
+        <v>11.30324391871194</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>17.71722226878377</v>
+        <v>21.82370756105688</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-8.127885737976829</v>
+        <v>1.91508929931371</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>17.32578628533652</v>
+        <v>20.62197342867601</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>49.51043060568754</v>
+        <v>36.32909885828151</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53.11711456148262</v>
+        <v>37.26012826521253</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-1.888885867769257</v>
+        <v>8.608837324001005</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.83425549800228</v>
+        <v>29.72527867540564</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-15.7933180479633</v>
+        <v>-0.9789870820307556</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12.23764210884153</v>
+        <v>19.20379737715131</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>47.17614625414574</v>
+        <v>36.1738494050477</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>54.81372298681146</v>
+        <v>37.91731745408241</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-9.430806340737963</v>
+        <v>5.033226070300515</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.08196419540511</v>
+        <v>26.97174089297717</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-12.03762443083132</v>
+        <v>-1.523337109144581</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>8.327780222002836</v>
+        <v>15.82563400351402</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.10053201179304</v>
+        <v>27.02055332127037</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>44.58109126742338</v>
+        <v>30.95204755822726</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-2.74435290017535</v>
+        <v>6.907346179878431</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.77368623099449</v>
+        <v>23.91978395784792</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.91118595407586</v>
+        <v>21.72288683829496</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.57595950823712</v>
+        <v>28.74225801771127</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1.031581702281507</v>
+        <v>8.44779877232553</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.35878273377084</v>
+        <v>22.25299337556114</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.25489746653144</v>
+        <v>26.16799289976099</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.24781336662577</v>
+        <v>35.10731250555083</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.27052674675915</v>
+        <v>42.38055972048975</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.72496495974551</v>
+        <v>50.996821320788</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.6289672850053947</v>
+        <v>12.08448560036634</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.10924969886117</v>
+        <v>39.91222510353475</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>81.6732106792646</v>
+        <v>61.25431304381473</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>92.88079832915523</v>
+        <v>68.31346051415713</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>42.83930286767283</v>
+        <v>38.48390532546473</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>61.7214666286066</v>
+        <v>49.56653854157193</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-7.302565093722734</v>
+        <v>9.552334567564211</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.78153188915974</v>
+        <v>39.52942135699012</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>77.01343415639943</v>
+        <v>60.9329515601795</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>92.78976309034661</v>
+        <v>69.40246064908206</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.62396538467917</v>
+        <v>27.17144976344659</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>51.33865935244913</v>
+        <v>40.35739312969835</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-1.124217855929722</v>
+        <v>9.995202671597697</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.18396124436518</v>
+        <v>35.18721797239643</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>56.38870865992931</v>
+        <v>47.66632341050141</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>80.13629586070431</v>
+        <v>60.63948448590568</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-4.336177479812807</v>
+        <v>9.304976372828584</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.68154010276231</v>
+        <v>27.12336126822822</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.4751831408048</v>
+        <v>29.42230815617188</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.31633059671891</v>
+        <v>30.95666030083317</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>5.314862371715662</v>
+        <v>14.93858924938883</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.75937008623043</v>
+        <v>31.67770066682386</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-9.800806986408098</v>
+        <v>6.999810918286343</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.01369079537263</v>
+        <v>33.7423055525776</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>69.3604469067599</v>
+        <v>50.58309191963755</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>70.70575900186202</v>
+        <v>51.39342153271356</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-2.729972592998713</v>
+        <v>12.03845311066171</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.48936888175139</v>
+        <v>39.99225360509962</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-16.57923573054006</v>
+        <v>4.554244554394231</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.96826530783598</v>
+        <v>32.78084614204039</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>68.5250382344791</v>
+        <v>51.24996178147349</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>73.4460825163136</v>
+        <v>52.80190690380043</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-9.761036497389298</v>
+        <v>8.692296938362633</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.43219748556552</v>
+        <v>37.48387567998801</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-13.17888338066016</v>
+        <v>4.173283344767274</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21.07661561015703</v>
+        <v>29.41498984264087</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.53587339300113</v>
+        <v>41.79698773434436</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>62.35632100672546</v>
+        <v>45.65883269792324</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-2.507604008785727</v>
+        <v>11.33759099083355</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.10684214333765</v>
+        <v>35.12128443111563</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.9189552852953</v>
+        <v>38.31714262691752</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>51.37666749975276</v>
+        <v>43.59414082547105</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-1.359704270825318</v>
+        <v>10.17037330356295</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.8969584752539</v>
+        <v>29.09551421758034</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>44.49588672282014</v>
+        <v>37.90605181448447</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>61.43375895509627</v>
+        <v>46.28172808596636</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>75.75001696362227</v>
+        <v>60.61465594387155</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>83.38940795476185</v>
+        <v>66.63159402996871</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-4.13529070785313</v>
+        <v>11.17091474617373</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.15965514387972</v>
+        <v>44.8412330136637</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>95.24491711514463</v>
+        <v>71.00631342696005</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>103.0396102984143</v>
+        <v>76.56935863784641</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>68.32782308327528</v>
+        <v>57.01876240149593</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-12.13807331464353</v>
+        <v>8.558170622346395</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.85967879625844</v>
+        <v>44.37531995269388</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>90.88480113379055</v>
+        <v>70.6098335413577</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>102.7448679243134</v>
+        <v>77.36619852649368</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.54742753727202</v>
+        <v>45.58688148942718</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>72.24758594702718</v>
+        <v>56.49285605864929</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-3.413324875934372</v>
+        <v>11.39016375107488</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.20254303340447</v>
+        <v>42.12124785847581</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>71.5003340068337</v>
+        <v>59.77259393604791</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>93.47328063258129</v>
+        <v>71.58061834289263</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-1.730641870482593</v>
+        <v>7.188736451086548</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.06150904006118</v>
+        <v>32.46270445484428</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.26504675993853</v>
+        <v>34.22393357464068</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>53.87969375795102</v>
+        <v>34.84423175741617</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>4.6442532296061</v>
+        <v>12.88990254224951</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.6462075712945</v>
+        <v>37.6076066856589</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-8.943254243325445</v>
+        <v>5.493103294056347</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>37.23924729031423</v>
+        <v>37.60403028995138</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>77.75245389235195</v>
+        <v>51.71117400969266</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>77.60215920606382</v>
+        <v>51.35273288905461</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-3.030480273698885</v>
+        <v>11.77812991838545</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>45.71440041000979</v>
+        <v>46.17790556514382</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-15.92378601405062</v>
+        <v>3.280691971720316</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.18004966819654</v>
+        <v>36.22655505181146</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>75.87239453684626</v>
+        <v>52.33830412845663</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>78.645255419873</v>
+        <v>52.27999198734167</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-9.361241729509882</v>
+        <v>9.652980564433676</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.65301000960818</v>
+        <v>44.39450869023908</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-12.01204653936553</v>
+        <v>3.928546656637209</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.06792617062924</v>
+        <v>35.3953491646798</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>65.47054610508509</v>
+        <v>46.79382430527693</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>72.12873191934283</v>
+        <v>48.79801128348926</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-4.140783889392146</v>
+        <v>11.41986982800249</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>39.25541865640595</v>
+        <v>42.01518016662849</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>62.53428533306836</v>
+        <v>44.48245451574535</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>67.54453210886319</v>
+        <v>47.68302991694431</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1.265831050775603</v>
+        <v>11.2124784918588</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>39.06856691664466</v>
+        <v>36.78315601158755</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>62.38264075920024</v>
+        <v>44.08185867840223</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>70.83298461159799</v>
+        <v>50.10243402980323</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>93.29407776493642</v>
+        <v>64.63585999565692</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>95.84393802849539</v>
+        <v>67.7602088254591</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-3.828860378836183</v>
+        <v>11.68333568392317</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>104.5445995640163</v>
+        <v>71.30057519372291</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>104.6876766628538</v>
+        <v>73.1184420055734</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>85.97431824404069</v>
+        <v>61.85123779865583</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>93.75058948816249</v>
+        <v>66.51484298067922</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-11.317156615054</v>
+        <v>9.723763213733221</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.09252057873151</v>
+        <v>50.13769107781329</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>100.9040288050446</v>
+        <v>71.15124629335403</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>104.1310719087977</v>
+        <v>73.21084610021364</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>72.55789086580504</v>
+        <v>51.60170102874473</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>84.51676930184519</v>
+        <v>58.43519538012022</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-2.511964040325999</v>
+        <v>13.08868484174065</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>48.27089487108394</v>
+        <v>48.85017178369354</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>87.10202216013104</v>
+        <v>63.55999487263961</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>98.63570395837209</v>
+        <v>70.11562449610192</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-3.793830201912492</v>
+        <v>2.809934762321291</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>13.99676078005369</v>
+        <v>13.69010312301904</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.65284020395138</v>
+        <v>17.86093481059326</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.85924287876061</v>
+        <v>18.45672634125353</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.721560797290884</v>
+        <v>10.04848837086919</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.40561706684493</v>
+        <v>23.82978489525234</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-16.12976917995025</v>
+        <v>-2.011804412823125</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>13.69429817155947</v>
+        <v>14.84339021255051</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.83631872607371</v>
+        <v>30.31387388077195</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.2216010149006</v>
+        <v>30.30424094201936</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-2.578794533356671</v>
+        <v>9.276184195885852</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.97601070842357</v>
+        <v>32.45478535791192</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-25.41462410013066</v>
+        <v>-5.398280934671252</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>6.161587330284064</v>
+        <v>12.41301987658532</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.99588125439206</v>
+        <v>29.3532098713919</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>49.30998080521513</v>
+        <v>29.84805491926603</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-10.28647858606288</v>
+        <v>6.212749604858359</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.35911889255099</v>
+        <v>29.63293577997946</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-19.61723110242567</v>
+        <v>-6.618996201230942</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>6.693383537480138</v>
+        <v>9.424574987732502</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.40715021881719</v>
+        <v>22.9970803551905</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>42.82466532695398</v>
+        <v>25.21945179770421</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-5.451993680722587</v>
+        <v>6.115274648391651</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>21.9530035340778</v>
+        <v>25.10670325225104</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.36915577791432</v>
+        <v>25.3877894866191</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.77420325073867</v>
+        <v>30.83658719614198</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1.042707669340871</v>
+        <v>8.251381055632709</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.85616619971454</v>
+        <v>25.50494193834897</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.86682911328005</v>
+        <v>32.23596712012981</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.59731288183904</v>
+        <v>39.02581104938288</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>63.05016575326333</v>
+        <v>44.99075323777488</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>72.13271045926906</v>
+        <v>51.83708161730207</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1.320247579959258</v>
+        <v>12.4379645121708</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.1364133403462</v>
+        <v>43.03484448320108</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>89.53377729420981</v>
+        <v>63.99737269134869</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>94.82920668439291</v>
+        <v>68.40637644830369</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>53.96644000034647</v>
+        <v>41.05082584405426</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>69.41857148318068</v>
+        <v>50.12135979649584</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-8.75433308569081</v>
+        <v>10.63378271150732</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.85603892482526</v>
+        <v>43.01154480808722</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>85.32999374696516</v>
+        <v>63.83292922008819</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>94.93417711163301</v>
+        <v>69.27911116851448</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.18321401794201</v>
+        <v>29.62195543530681</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>57.02402971154276</v>
+        <v>40.02272654973348</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-3.137682331256535</v>
+        <v>11.19527095287369</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.26352997304114</v>
+        <v>38.84755400815327</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>68.35728067102129</v>
+        <v>52.52966856296466</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>83.79032322890035</v>
+        <v>61.60979110039298</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-9.307721971677292</v>
+        <v>-0.5862219028634286</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.46143008713216</v>
+        <v>13.08832720183543</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.49288013892904</v>
+        <v>13.97339673652065</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.9778149054537</v>
+        <v>15.47126775144405</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.934599482504751</v>
+        <v>2.169745922151154</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.20694727812919</v>
+        <v>14.55400570150214</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-15.45865481716326</v>
+        <v>-4.858843410514329</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.92104372867104</v>
+        <v>17.20293899816285</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>60.0017672409406</v>
+        <v>31.59012712029743</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>61.21072415818104</v>
+        <v>32.37187225505863</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-10.34963739955157</v>
+        <v>-2.664803405694755</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.52199501518072</v>
+        <v>20.56597493769316</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-22.71571166530143</v>
+        <v>-7.519163354240444</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.34211215619651</v>
+        <v>16.00605115369264</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>58.58563068438568</v>
+        <v>31.89884967736742</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>63.43921446108135</v>
+        <v>33.42793839042218</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-17.63568014486712</v>
+        <v>-5.926580695769474</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.13909323117412</v>
+        <v>18.12418584280984</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-19.2324434598473</v>
+        <v>-7.412501435892384</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>12.74936532725832</v>
+        <v>13.27775394860677</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.36305178327171</v>
+        <v>23.89390521370136</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.94583360065119</v>
+        <v>27.73812076595161</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-10.66140347973145</v>
+        <v>-2.789565346624446</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.66073061168192</v>
+        <v>16.22908287394711</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>30.58532271567425</v>
+        <v>18.34214983394973</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>41.00393278442074</v>
+        <v>23.74184574795733</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-6.964987066100065</v>
+        <v>0.6292921236899467</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.58712361176983</v>
+        <v>16.04952559654017</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.87562894598882</v>
+        <v>21.16308875748779</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>51.93887579065035</v>
+        <v>30.8943012947206</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>65.59939729942946</v>
+        <v>37.02370516339978</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>72.58578879875873</v>
+        <v>43.38490175667279</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-9.70898390748431</v>
+        <v>1.086915364575248</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.89365105666695</v>
+        <v>31.08672111222516</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>86.56174596731481</v>
+        <v>52.05751202038836</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>93.68358005459658</v>
+        <v>59.41063720170058</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>57.6594520972633</v>
+        <v>33.35576577473628</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>70.70708924677135</v>
+        <v>42.05676368846376</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-17.94005429842172</v>
+        <v>-1.397365992872462</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.38988223295684</v>
+        <v>30.77831333698404</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>81.99364299402473</v>
+        <v>51.66950878179962</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>93.25178918628256</v>
+        <v>60.25174931029166</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.11473948424074</v>
+        <v>23.2329284910906</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>60.96220474999661</v>
+        <v>34.34225421813046</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-9.651592079415273</v>
+        <v>1.216823739869632</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.45194749892218</v>
+        <v>28.20176754652672</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>62.55305740432342</v>
+        <v>41.38884596439068</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>83.66118246143569</v>
+        <v>54.80195204120004</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-0.5623673011896173</v>
+        <v>12.10475217167455</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.42600417371797</v>
+        <v>39.9260079524423</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>62.59173401564968</v>
+        <v>44.8542230151086</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>63.65520599504062</v>
+        <v>45.9469753325675</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-4.345617468549023</v>
+        <v>8.503887572681702</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.03765861237915</v>
+        <v>31.61094439607299</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-7.978187140863614</v>
+        <v>9.73338281447011</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.10934939493157</v>
+        <v>44.93682102495841</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>88.95412415235569</v>
+        <v>63.33729468824119</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>87.91165320214108</v>
+        <v>63.39916995013861</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-10.97460824028742</v>
+        <v>6.880335511534472</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.16976936278667</v>
+        <v>40.20182390715316</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-15.46161534417775</v>
+        <v>6.761253308527532</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.43961896777303</v>
+        <v>42.87037971547514</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>86.56316261308456</v>
+        <v>63.43120514695255</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>88.5149616418874</v>
+        <v>63.86410863994321</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-17.22694273302852</v>
+        <v>4.319875864944152</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.21328066223142</v>
+        <v>37.99822968809581</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-12.49571968381422</v>
+        <v>6.113856734961864</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.70935234819801</v>
+        <v>40.50685899784483</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>75.54693336367978</v>
+        <v>56.90986202483815</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>80.51872292451452</v>
+        <v>59.41913349974863</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-14.13224961072527</v>
+        <v>5.143278077410823</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.60840987775684</v>
+        <v>34.3449163310113</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>55.00005397066964</v>
+        <v>36.35801997641536</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>59.71300975889012</v>
+        <v>39.46669294356416</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-5.517371147258615</v>
+        <v>7.914197538031964</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.48456495640235</v>
+        <v>33.03198430072238</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>59.42449531762734</v>
+        <v>40.8133133721222</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>66.60635890517136</v>
+        <v>47.46988787042896</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>87.33133017985338</v>
+        <v>57.95382149956279</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>90.10736582823705</v>
+        <v>61.08603635164268</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-9.935037674311545</v>
+        <v>7.809564142701952</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.59066025127048</v>
+        <v>47.23935125255512</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>101.6318132762918</v>
+        <v>69.24157192436108</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>100.9604272008879</v>
+        <v>71.3976620391695</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>80.487206829749</v>
+        <v>54.93559912685514</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>88.47238091314642</v>
+        <v>59.86384377495064</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-17.08841700143627</v>
+        <v>5.704001777017002</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>40.71983576880366</v>
+        <v>46.99074956398216</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>98.52240804466356</v>
+        <v>69.20402111883695</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>100.9399082532062</v>
+        <v>71.67155709116727</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>64.60015952336661</v>
+        <v>42.65444410097113</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>76.03715939927025</v>
+        <v>49.77656049901908</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-9.92229263458438</v>
+        <v>8.974412702199077</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.03722566287011</v>
+        <v>45.13359755872066</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>83.7092996572851</v>
+        <v>60.83275763383322</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>93.77271304743991</v>
+        <v>68.08362791053169</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-2.866688493938167</v>
+        <v>3.986278305446834</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>4.873857754922472</v>
+        <v>12.53141195383454</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.8235472859498</v>
+        <v>11.69344972153538</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.19141846907341</v>
+        <v>13.89402068146301</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.843284132498908</v>
+        <v>5.548712742715406</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.32197336532143</v>
+        <v>15.14659318925142</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-11.22478699981012</v>
+        <v>0.1105592556376926</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.4363100497259</v>
+        <v>14.97676121175819</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.20481862105165</v>
+        <v>23.83574382826703</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.04363416574657</v>
+        <v>25.36130801485538</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-2.386890274421418</v>
+        <v>5.760156261139041</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.85463092002836</v>
+        <v>24.48704597588322</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-19.6929429421599</v>
+        <v>-2.894624842250217</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>2.093470152169772</v>
+        <v>12.69680970415453</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.73155152446387</v>
+        <v>22.63435363738169</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.80942292139242</v>
+        <v>24.81624306579404</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-9.706880257088955</v>
+        <v>2.498156519052138</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.95604581260191</v>
+        <v>21.20116392134722</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-16.48931653659115</v>
+        <v>-4.215454930659227</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1.802975182052396</v>
+        <v>8.65501756595601</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.26305283036248</v>
+        <v>15.19678250801962</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.773825198911</v>
+        <v>19.64686212676212</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-7.797294545823966</v>
+        <v>0.2627453026902735</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.645649070863364</v>
+        <v>13.70765662661147</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.10727043784438</v>
+        <v>13.75493406153232</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.0319435442415</v>
+        <v>20.11796908325572</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.3084190736140684</v>
+        <v>6.866429868667499</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.60203152813141</v>
+        <v>17.7517769700273</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.19166779994304</v>
+        <v>20.18736909064225</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>44.05806928473526</v>
+        <v>29.95020799268799</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>40.1350872128007</v>
+        <v>32.67808484961324</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>54.34041077793063</v>
+        <v>40.9118159185991</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.7815609692336167</v>
+        <v>12.03339851654834</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.68961413826172</v>
+        <v>35.66980473465235</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>65.52716812215073</v>
+        <v>51.14463073836301</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>83.37310565840804</v>
+        <v>59.17222947700682</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.23423305258815</v>
+        <v>28.16709084515548</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>51.31581723732874</v>
+        <v>38.93646926074015</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-6.423255593368999</v>
+        <v>9.57062934622704</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.95351904545785</v>
+        <v>34.62032072000501</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>60.21607576635451</v>
+        <v>49.55095170953894</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>83.0737614619878</v>
+        <v>59.0704150046793</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>13.1880257892478</v>
+        <v>14.30763763419871</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.71169835113248</v>
+        <v>26.67309446901209</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-4.988004551130395</v>
+        <v>7.822820144078516</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>18.57142630327739</v>
+        <v>27.18518584707957</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.63960882880422</v>
+        <v>34.44802030472137</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>68.91609685897868</v>
+        <v>48.3236903207616</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-5.638559151605754</v>
+        <v>-1.879191687101759</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>19.93361932140017</v>
+        <v>14.6173376706018</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.30508198568204</v>
+        <v>13.36438479175724</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.27925879782421</v>
+        <v>14.1623171878174</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>3.456309876778271</v>
+        <v>9.826860254944885</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.34301728127109</v>
+        <v>28.15576080822824</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-12.18320323450286</v>
+        <v>-4.821744107099232</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.59837737524168</v>
+        <v>18.81301668763716</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>54.19841232536535</v>
+        <v>28.83182735586788</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>55.05173355000337</v>
+        <v>28.48672858059929</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-4.508515705873272</v>
+        <v>7.476219596859856</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.93596864910293</v>
+        <v>35.80519258158142</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-18.27762228674295</v>
+        <v>-6.632388872662649</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>20.78304835873616</v>
+        <v>17.8605171861492</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>52.08545950100724</v>
+        <v>29.33117873063083</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>56.17467533683904</v>
+        <v>29.51123426917098</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-10.31470038174578</v>
+        <v>5.093762286211042</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.7328284626084</v>
+        <v>33.74316473744601</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-14.98274660885057</v>
+        <v>-5.412363833108316</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.50436927596404</v>
+        <v>16.78148826896239</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>42.14701910838633</v>
+        <v>23.80625406070008</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.88852391890126</v>
+        <v>26.60028030307358</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-5.375457398548612</v>
+        <v>6.939566914280327</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.42146122192582</v>
+        <v>30.71539978550094</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>44.10702304989064</v>
+        <v>34.74828671231404</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>51.03219864941018</v>
+        <v>37.50696872079327</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>2.64050189873965</v>
+        <v>11.57305437679298</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.38097050757722</v>
+        <v>32.92608415273035</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>48.99710727197756</v>
+        <v>38.972674911814</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>62.84404711360684</v>
+        <v>45.46694624527092</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>72.14035478476653</v>
+        <v>53.3959532552354</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>76.58775489649801</v>
+        <v>56.47351378340977</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1.610988425193135</v>
+        <v>12.25009619259069</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.1271559288035</v>
+        <v>47.79713134647052</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>90.31159730760101</v>
+        <v>67.81659343041514</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>96.01840963097899</v>
+        <v>69.96573014562614</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>64.52625984510362</v>
+        <v>50.22664362465095</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>74.66789714242948</v>
+        <v>55.12120287202971</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-8.635018703674334</v>
+        <v>9.75821423268388</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.78232533040486</v>
+        <v>47.06170713283927</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>86.38925338074708</v>
+        <v>67.03842117883038</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>95.68011917442962</v>
+        <v>69.63003838627633</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>51.25993531441411</v>
+        <v>40.27824548329693</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>65.99872841509827</v>
+        <v>47.20881016718532</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1.340493850415491</v>
+        <v>12.76045855315874</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.99216135868544</v>
+        <v>44.36189862013428</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>70.99415550262339</v>
+        <v>57.92363110917752</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>88.95456997287459</v>
+        <v>65.54805547740411</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>3.034793254564615</v>
+        <v>6.599592694178998</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>14.43257074821756</v>
+        <v>17.15723167170882</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.47169715428333</v>
+        <v>17.65884302454479</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.97994043375616</v>
+        <v>19.28660017519127</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1.678900496442424</v>
+        <v>3.7175293008533</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.8507831584911</v>
+        <v>12.43956165877691</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-6.066111289341119</v>
+        <v>2.607167513234845</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.24978112736206</v>
+        <v>19.00995278747389</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.6512962656862</v>
+        <v>29.6482378040507</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.1144867329492</v>
+        <v>30.92095772392917</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-7.029073269799419</v>
+        <v>0.04397397018635374</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.66167785317748</v>
+        <v>17.08350644292253</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-13.70579771373597</v>
+        <v>-0.09917438601113204</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>8.568130315115788</v>
+        <v>17.06249165605579</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>33.93623142390411</v>
+        <v>28.77498467406379</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>41.19880145866157</v>
+        <v>30.6693502359721</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-13.70352560601098</v>
+        <v>-3.011791593962901</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.348396754431249</v>
+        <v>14.20013563289891</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-10.90864918760569</v>
+        <v>-0.8402221804707679</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>7.282406763023722</v>
+        <v>14.48407727258093</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.45734887397906</v>
+        <v>22.53509936881738</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>36.36296065945375</v>
+        <v>26.31893381790312</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-10.54792429675556</v>
+        <v>-1.786480764576421</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.488238811484656</v>
+        <v>11.22475443663301</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.88232897265173</v>
+        <v>11.93582587071229</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.31609754008993</v>
+        <v>16.97099309906549</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1.030856554155761</v>
+        <v>7.463026509810494</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.6986208441573</v>
+        <v>21.13857826834366</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.76951617961171</v>
+        <v>23.23672212003281</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>39.63406350134435</v>
+        <v>30.3046772893471</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.50544098899191</v>
+        <v>26.19148403631484</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>47.98281798371737</v>
+        <v>33.37438415055844</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-3.549714970717908</v>
+        <v>8.485811273075061</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.37780135462874</v>
+        <v>34.63977352686911</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>64.64796733081423</v>
+        <v>50.35643539625545</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>73.57913680101589</v>
+        <v>54.69701052532808</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.53456295936491</v>
+        <v>22.10698507345761</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>45.21291112702668</v>
+        <v>31.38607541701433</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-10.52666937055378</v>
+        <v>5.800666784376943</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.89485819066926</v>
+        <v>33.67319233467698</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>60.21126145989506</v>
+        <v>49.27045230767632</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>73.2481748662459</v>
+        <v>54.30653922202484</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.76518684184822</v>
+        <v>13.00174929435727</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.67499587901057</v>
+        <v>22.8895993583496</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-6.474967225024734</v>
+        <v>7.363257187157618</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.0258607930068</v>
+        <v>30.52644020817264</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>45.5627989247746</v>
+        <v>39.33527172523301</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>63.12559748369338</v>
+        <v>48.08664212241797</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-3.34828390104823</v>
+        <v>1.220770889475524</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-0.4425093259078174</v>
+        <v>5.810511161362978</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>2.446101212253573</v>
+        <v>3.922211015168173</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>4.015071010923876</v>
+        <v>4.606333654025558</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1.766413508383085</v>
+        <v>-0.1615796046248583</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>2.11178469142359</v>
+        <v>4.170306957389837</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-12.93825690968431</v>
+        <v>-3.043748726033431</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-0.9667638660557394</v>
+        <v>6.163393671360907</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.11995982639514</v>
+        <v>12.25207274049949</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.62273514532387</v>
+        <v>12.63666284724024</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-12.25612596167113</v>
+        <v>-4.909098638904108</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>2.923252680081116</v>
+        <v>6.180153147031252</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-19.66290656715942</v>
+        <v>-5.150875849970543</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-6.85097415308087</v>
+        <v>4.717664590570688</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.881585998502732</v>
+        <v>11.51540062137629</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.05334794538508</v>
+        <v>12.49865896194017</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-18.43718196625025</v>
+        <v>-7.399427813393295</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-3.069611002764333</v>
+        <v>3.853498395490263</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-15.92314314080588</v>
+        <v>-4.804737851029117</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-6.987343745815025</v>
+        <v>3.583148067908482</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>6.609882348158443</v>
+        <v>7.528696393767738</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.50595035723877</v>
+        <v>10.22709185039932</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-13.26972283956515</v>
+        <v>-5.111589208548985</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-3.327634974375474</v>
+        <v>2.665142165851467</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.190421282612434</v>
+        <v>4.192595755044266</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>8.993148745916528</v>
+        <v>6.545949134558565</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-0.7676754814712368</v>
+        <v>6.506155826253366</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.50397227905196</v>
+        <v>15.55533939671961</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.6848009183144</v>
+        <v>16.55769332977105</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.81321978209237</v>
+        <v>21.44064334588105</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.58276573687827</v>
+        <v>13.52548629409829</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.51117964064505</v>
+        <v>17.75744942134996</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-4.262130138417639</v>
+        <v>7.234253181167094</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.8197587203115</v>
+        <v>26.68420012794003</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>50.6938443173207</v>
+        <v>39.84884738281733</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>58.3407270826984</v>
+        <v>42.28734464631826</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>9.811076384730214</v>
+        <v>9.922403880212746</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.75265706853354</v>
+        <v>16.02620211644102</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-10.82971094399961</v>
+        <v>4.888665009456421</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.47389605384749</v>
+        <v>25.84383503579761</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.2527874193543</v>
+        <v>38.87069641563139</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>57.92089959635573</v>
+        <v>41.93897039617048</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2.918043217963124</v>
+        <v>4.463516117292283</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.00460096057214</v>
+        <v>10.97344442001659</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-5.753184431157187</v>
+        <v>6.461154488844741</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.31398569742878</v>
+        <v>23.53241028207153</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.84307925352062</v>
+        <v>30.68892521080042</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>49.69281603783727</v>
+        <v>37.06931776623666</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-2.600940310634396</v>
+        <v>10.68270301040265</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>11.05406892120883</v>
+        <v>23.48698411201169</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.67133586279077</v>
+        <v>23.90275565750594</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.0582452034038</v>
+        <v>26.5140090122147</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>3.332137468740441</v>
+        <v>9.182853643483295</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.61525090066438</v>
+        <v>20.41895221178336</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-11.00112710238385</v>
+        <v>8.417139448275609</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.06538966360117</v>
+        <v>29.71501356981311</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>51.56047015408384</v>
+        <v>45.28574705453217</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>54.23383403080225</v>
+        <v>47.02490998602488</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-5.182035714516644</v>
+        <v>6.649637796389598</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.91358332738167</v>
+        <v>29.03642296681211</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-19.45700568281586</v>
+        <v>5.330104535150046</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>12.1904416959567</v>
+        <v>28.07047068582705</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>48.66262795129234</v>
+        <v>45.33407315342833</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>55.52198420264114</v>
+        <v>47.86658252852118</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-13.06908467915216</v>
+        <v>3.067340815621414</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.83246041189251</v>
+        <v>26.2488268141003</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-15.22485310152538</v>
+        <v>2.420539544226024</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>8.242974696800101</v>
+        <v>22.01700096405588</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.4606914588754</v>
+        <v>32.84195105202944</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>44.594178846044</v>
+        <v>38.07794304881931</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-6.895087860925848</v>
+        <v>4.386834177680452</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.2265382361664</v>
+        <v>22.34669556609376</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>17.54740204842292</v>
+        <v>18.37596872650894</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.6642995606842</v>
+        <v>24.27880101234813</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-2.611212208574926</v>
+        <v>7.593361604129715</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.39875494576759</v>
+        <v>22.56426305387301</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.547830692113</v>
+        <v>25.64723178399275</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.62927290956515</v>
+        <v>33.56889406552416</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>52.60448495267499</v>
+        <v>41.24230363941308</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>63.94693439679603</v>
+        <v>48.21866423561857</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-2.914875707184592</v>
+        <v>11.16411675724397</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.34089296386809</v>
+        <v>41.23782179386389</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>83.04657260531056</v>
+        <v>63.306593319973</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>93.66567638799978</v>
+        <v>68.47283692447428</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.94303699590576</v>
+        <v>37.49411055375156</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>61.9656259238259</v>
+        <v>47.09859389949474</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-10.94208682661337</v>
+        <v>8.523873497828436</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.99231989583808</v>
+        <v>40.88219828224948</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>78.44172227313763</v>
+        <v>63.23169573307945</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>93.85651049230199</v>
+        <v>69.86277293055892</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.25872533080882</v>
+        <v>24.1697941378512</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>49.63621636594443</v>
+        <v>36.48516416738882</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-5.082569094587335</v>
+        <v>8.663282707192099</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.30072437609314</v>
+        <v>35.75854877734462</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.14894982205677</v>
+        <v>47.91238201584699</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>80.17042475114224</v>
+        <v>59.80410497599809</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>10.05567857984983</v>
+        <v>15.52141550054509</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.23506013579952</v>
+        <v>34.48241250918149</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>49.10738139937614</v>
+        <v>37.3185038469188</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.52630836994599</v>
+        <v>40.31752783188496</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>4.700974319932079</v>
+        <v>10.38509459297548</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.01408694793523</v>
+        <v>26.03456779002163</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1.698099120709134</v>
+        <v>11.96836819793675</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.62591983605849</v>
+        <v>38.02101682238388</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>72.24912647426797</v>
+        <v>52.46479618064603</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>75.86096720985847</v>
+        <v>54.56347261475267</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-3.351026665173038</v>
+        <v>8.522094296205371</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.35636693238684</v>
+        <v>33.83050880389138</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-5.9233836629816</v>
+        <v>8.9810654020015</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>32.04226998518865</v>
+        <v>35.69316241038872</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>67.98674661104731</v>
+        <v>51.29167672674657</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>75.3677785235422</v>
+        <v>53.9919783495696</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-10.00200987635725</v>
+        <v>5.290038749654752</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.08738494513845</v>
+        <v>30.66075828938578</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-1.051957719297629</v>
+        <v>9.546262742104622</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.60263798502649</v>
+        <v>33.78987276915641</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>58.36104437089611</v>
+        <v>44.7383673078852</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>70.28240415696436</v>
+        <v>49.93654290193498</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-5.421209289277449</v>
+        <v>5.573962081818536</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.33520954486387</v>
+        <v>25.76857203220283</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.88847210132462</v>
+        <v>29.73755600199562</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>49.46674987106165</v>
+        <v>34.55290074104401</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-2.266385120032027</v>
+        <v>9.12831348159453</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.40471862957778</v>
+        <v>27.0157034954539</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.22752988840933</v>
+        <v>31.92117976009639</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>60.23375959052871</v>
+        <v>41.43579123136264</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>66.96956473378083</v>
+        <v>48.33144477378579</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>76.47438542165915</v>
+        <v>54.20963290642321</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-6.527259933615404</v>
+        <v>10.22477829098774</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.89531097602777</v>
+        <v>41.82610954182297</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>81.86900810957064</v>
+        <v>60.10795479600884</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>94.23378291808521</v>
+        <v>66.08383551122748</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>58.09744319744581</v>
+        <v>43.94883960049731</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>73.96747731996744</v>
+        <v>52.09005675163135</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-13.75404985909522</v>
+        <v>7.147758910791516</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.15010247894003</v>
+        <v>40.27260352434456</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>77.11890004092533</v>
+        <v>58.17849093255413</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>93.82796742651215</v>
+        <v>65.05023652799225</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.79287536022937</v>
+        <v>31.84546031243802</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>63.14937365212182</v>
+        <v>42.02539587412024</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-6.974735130208714</v>
+        <v>8.795982329535157</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.82241067263951</v>
+        <v>36.04693088530173</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.23232668408991</v>
+        <v>46.93995691456281</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>85.53230563815009</v>
+        <v>59.00466636158558</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-0.8524742804995817</v>
+        <v>10.44182275777663</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.7359937548682</v>
+        <v>31.68851303838179</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>45.39359880366457</v>
+        <v>32.98641514278633</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>48.90054470627557</v>
+        <v>35.24300279312477</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>1.317844932462528</v>
+        <v>10.21717763143869</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.09656077986975</v>
+        <v>28.23647371737537</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-7.352503725335716</v>
+        <v>7.436958632918692</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.15106983829097</v>
+        <v>37.90347701388897</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>80.27011043329881</v>
+        <v>55.07871850896525</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>80.40161705680867</v>
+        <v>56.34196930914049</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-7.137700939555572</v>
+        <v>6.54441674876999</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.79561166280724</v>
+        <v>36.47732084590341</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-14.71911676225113</v>
+        <v>4.504606234846403</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.47638506163202</v>
+        <v>36.44990211105343</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>79.03960091068532</v>
+        <v>55.62570043955434</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>82.83831159596232</v>
+        <v>57.62804626454277</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-14.3571188569718</v>
+        <v>2.93423806218599</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.55824111728795</v>
+        <v>33.70369988826946</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-10.95997617662024</v>
+        <v>3.786360780576292</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.12652972502919</v>
+        <v>32.73530553061094</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>63.21394949043625</v>
+        <v>45.62127245865388</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>71.69369874619524</v>
+        <v>50.29908841741735</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-7.425513263655056</v>
+        <v>5.68090975845244</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.81710769455166</v>
+        <v>31.03684309020887</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>40.0408576360038</v>
+        <v>31.14741242128084</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>50.19837860238646</v>
+        <v>36.63401742302165</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-5.178719336935174</v>
+        <v>6.326226294626171</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.90345605706698</v>
+        <v>26.84756033696567</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>45.63177744028675</v>
+        <v>34.25500617448783</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>60.87491122136748</v>
+        <v>42.9658088987555</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>76.98224492818906</v>
+        <v>54.49330611877029</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>83.40114251397114</v>
+        <v>60.49057627180993</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-8.548984404341383</v>
+        <v>6.815625228627102</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.11456361879238</v>
+        <v>43.22264645008767</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>97.03910577686585</v>
+        <v>69.20498848951176</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>102.9274218265255</v>
+        <v>74.41396873641996</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>69.54125500427496</v>
+        <v>50.65134497549369</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>81.99623116480026</v>
+        <v>59.12232460892288</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-16.65508103151063</v>
+        <v>3.947180497028718</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.81226995748378</v>
+        <v>42.66532388360551</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>92.87112582988811</v>
+        <v>68.81609731828563</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>102.8766463808991</v>
+        <v>75.21748461487522</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>52.69208131592934</v>
+        <v>38.00792287152681</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>71.12121573493573</v>
+        <v>49.53190632633986</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-7.853107486498281</v>
+        <v>6.789846034824873</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.05070856180335</v>
+        <v>39.93918037291797</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>73.1953613955173</v>
+        <v>56.68896884874908</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>93.33080456003682</v>
+        <v>68.79662175969257</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>8.393967895117704</v>
+        <v>12.93695022317465</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.77277702993457</v>
+        <v>29.78729211743675</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>44.63635353212209</v>
+        <v>32.31666540374166</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>47.56738590539774</v>
+        <v>33.66721510178233</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>12.74501365726467</v>
+        <v>14.91480449272941</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.01709477334133</v>
+        <v>29.23469211292621</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>1.825785075411726</v>
+        <v>10.81568715419875</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.19228752468021</v>
+        <v>36.25911845336088</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>76.7894673611726</v>
+        <v>53.48535456559814</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>77.50634538503525</v>
+        <v>54.11029223671829</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>4.386651852098982</v>
+        <v>12.10877899170631</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.55789965037414</v>
+        <v>37.05806491230582</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-4.710655509708818</v>
+        <v>8.632907248603306</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.25405235555976</v>
+        <v>35.56962159511419</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>75.94481062520694</v>
+        <v>54.30559764257403</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>80.45341382152284</v>
+        <v>55.671807886467</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2.211039703082808</v>
+        <v>8.984958634709951</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.80621410148095</v>
+        <v>34.82101705983823</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-0.7750807890295448</v>
+        <v>7.658924840344149</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.42881186839122</v>
+        <v>31.72336305002279</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>61.9075956380857</v>
+        <v>44.16353401609256</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>69.99096057409832</v>
+        <v>47.73869107533895</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.933521533085056</v>
+        <v>11.44953550002201</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.95182935767524</v>
+        <v>32.64744900536606</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>41.19399968412533</v>
+        <v>32.27385391608347</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.78176637487246</v>
+        <v>38.50954215330943</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>3.17695838658959</v>
+        <v>9.907637705384733</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.86452457646141</v>
+        <v>26.79851922643605</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.61345418146524</v>
+        <v>35.18729992260679</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>62.78190089855786</v>
+        <v>43.196634746508</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>75.19021595814456</v>
+        <v>53.88099038677858</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>84.26191962170296</v>
+        <v>61.10904240503743</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1.735089793637052</v>
+        <v>11.91955526906163</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.68474171173911</v>
+        <v>42.82691031638599</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>97.46505239073198</v>
+        <v>68.89467122524832</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>105.7749504658906</v>
+        <v>74.30550752655428</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>68.21830443530823</v>
+        <v>50.73462363746793</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>83.34370049590888</v>
+        <v>60.24549282396536</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-5.508106925348287</v>
+        <v>9.768809358888879</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.00195283437583</v>
+        <v>42.82265195525062</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>93.63789511619822</v>
+        <v>68.98381575241866</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>106.2463457837789</v>
+        <v>75.64130634134207</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>53.57895940911729</v>
+        <v>39.58301879582839</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>73.58478272058228</v>
+        <v>51.51397631023178</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>1.822712601372068</v>
+        <v>11.56073870079676</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.44263930934805</v>
+        <v>39.91482073512601</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>73.77246780940118</v>
+        <v>56.92577833754342</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>95.27164586742481</v>
+        <v>68.54840324995308</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-0.428607154159657</v>
+        <v>8.275442267354006</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.62494854971514</v>
+        <v>29.57809634230355</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>38.06331179931535</v>
+        <v>30.24839542870602</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>44.11497627223817</v>
+        <v>33.54243414149292</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-1.453665645999628</v>
+        <v>6.342165474713703</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.11766077612474</v>
+        <v>24.71759462467784</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-6.179179485692423</v>
+        <v>6.932658691389488</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.89458221062809</v>
+        <v>37.74245053844959</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>71.06754944886839</v>
+        <v>52.31242742692569</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>72.29491066414035</v>
+        <v>53.99837228024951</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-8.223634019352588</v>
+        <v>5.08472993341422</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.14337376891574</v>
+        <v>35.73596501020214</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-14.17760975773996</v>
+        <v>4.244015316596016</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.66483482714444</v>
+        <v>36.06005590745391</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>67.86920837144859</v>
+        <v>52.57394597690682</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>73.01754553491131</v>
+        <v>54.90941784043573</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-15.51348256610165</v>
+        <v>2.123429405974694</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.90015050629486</v>
+        <v>33.11622636308911</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-11.25929695751682</v>
+        <v>2.784023156536374</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>23.89782396292092</v>
+        <v>30.64368436159481</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>51.63730993007537</v>
+        <v>42.18286683908195</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.35009686780804</v>
+        <v>48.02223279101665</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-11.33205997668493</v>
+        <v>2.163994010930679</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.29506415047381</v>
+        <v>26.56369537571895</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.80345398744965</v>
+        <v>26.61365073806265</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>43.41982100127405</v>
+        <v>29.89331178774432</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-7.835835866206786</v>
+        <v>5.090312306998559</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>17.95293203585328</v>
+        <v>24.21478542624902</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.42037112866357</v>
+        <v>28.43262153248651</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>55.19736605925136</v>
+        <v>36.92210008717934</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>69.93263182554676</v>
+        <v>50.44166402311031</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>75.9463833519211</v>
+        <v>53.67232793555634</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-10.04723180104593</v>
+        <v>7.344331670070524</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.76229013401881</v>
+        <v>43.23830556099989</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>85.08513839150399</v>
+        <v>62.62842617693902</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>95.721249693896</v>
+        <v>66.81315454125355</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.06617457723513</v>
+        <v>46.85825296382372</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>73.75840303381588</v>
+        <v>52.60383968434138</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-18.19436555335059</v>
+        <v>4.447648075870653</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.75920723914991</v>
+        <v>42.2762865132101</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>80.07622313522219</v>
+        <v>61.50602474121366</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>95.36395487910499</v>
+        <v>66.88155423617758</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.05796863733219</v>
+        <v>31.92038367919949</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>60.87239969352152</v>
+        <v>41.0959078654172</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-12.17943304699412</v>
+        <v>4.838236181744119</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.37377184967808</v>
+        <v>35.07918934615227</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>57.94582626123303</v>
+        <v>46.50885249592794</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>84.47041934112121</v>
+        <v>58.38464529552397</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1.975892292410922</v>
+        <v>6.098523161490203</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.07635397351997</v>
+        <v>16.21850190111636</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.23402873029499</v>
+        <v>16.99238888801225</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.49051916260915</v>
+        <v>18.52821447972299</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>5.189254512884364</v>
+        <v>8.675723211606822</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>17.44414571880014</v>
+        <v>19.97543357682331</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-8.295805074839205</v>
+        <v>2.910910666999069</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.24594667230875</v>
+        <v>19.74332150433765</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.7816035457143</v>
+        <v>30.86856466415473</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>46.6770521711175</v>
+        <v>31.7987223195207</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-0.8414177970195595</v>
+        <v>8.698486714739294</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.68627389106247</v>
+        <v>29.66333029194179</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-17.60924649548419</v>
+        <v>0.1719139573097017</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>8.078159307374577</v>
+        <v>18.02876103842437</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.77542307713802</v>
+        <v>30.25751110586758</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>45.73448256076663</v>
+        <v>31.89210779843085</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-8.945381709526867</v>
+        <v>5.81628460001339</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.0666744795413</v>
+        <v>27.19409506398054</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-10.68500835547135</v>
+        <v>-0.5935319537363988</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>8.022108726372419</v>
+        <v>14.75930432226803</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>32.70754299968972</v>
+        <v>24.14409126127351</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.56691169970577</v>
+        <v>27.94359360808109</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-3.83654991109222</v>
+        <v>6.338686444202747</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.23822817991118</v>
+        <v>22.88078011855431</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.52481066441621</v>
+        <v>19.36590722643106</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.29103016277812</v>
+        <v>25.85480047579505</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-5.631705765047691</v>
+        <v>6.519395469823188</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>13.35717418587809</v>
+        <v>19.75501315156182</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.54928042758316</v>
+        <v>21.6331274301576</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.64137104487943</v>
+        <v>30.27434198428647</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.46451082498141</v>
+        <v>39.73469579147485</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.83181337056249</v>
+        <v>47.89002256575561</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-1.089081238636865</v>
+        <v>12.09168960417824</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.82074563669306</v>
+        <v>38.49181251215148</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>76.75024686325656</v>
+        <v>55.09331662675115</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>89.92169213877506</v>
+        <v>61.99919717721394</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>42.82509243243116</v>
+        <v>36.12900060332351</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>61.63789910117303</v>
+        <v>46.80972077981235</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-9.150132489146799</v>
+        <v>9.649761506590297</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.07633261976172</v>
+        <v>37.88499978785601</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>71.1499386129575</v>
+        <v>54.19963853918595</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>88.97945467286459</v>
+        <v>62.61551438559403</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.75743204807016</v>
+        <v>25.24199927243185</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>50.58122881379935</v>
+        <v>38.02326504889687</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-7.477692125680818</v>
+        <v>7.607804874679125</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>23.76295291168578</v>
+        <v>30.74371888636637</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>47.4283804434697</v>
+        <v>38.89650844149465</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>72.50535829320867</v>
+        <v>51.88473689908672</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-0.3397162351525793</v>
+        <v>7.909222107711386</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.39356217694878</v>
+        <v>22.18068128824623</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.22177901092851</v>
+        <v>23.66807943412594</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.8096215420078</v>
+        <v>25.2271390277339</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>3.273803826026995</v>
+        <v>10.0597011051146</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.06281032786484</v>
+        <v>22.55987290954035</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-6.768829286834713</v>
+        <v>5.900630627969825</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.77029814549387</v>
+        <v>28.53356163182864</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>61.97196124893873</v>
+        <v>44.08527350698317</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>64.8778370064903</v>
+        <v>45.04153829492661</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-4.32499951578794</v>
+        <v>7.505284395185413</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.2216900067597</v>
+        <v>30.50753973083417</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-13.02612795427228</v>
+        <v>3.997528351853582</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>23.08775395221108</v>
+        <v>28.14695428660168</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>61.25491177941189</v>
+        <v>45.08464091748093</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>68.04522854375656</v>
+        <v>46.80236462887247</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-10.5183898891432</v>
+        <v>4.597572981639399</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.8556323655606</v>
+        <v>28.48303696629953</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-9.758760888723522</v>
+        <v>2.618429269112809</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.6260661373368</v>
+        <v>23.86772907944927</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>46.77833179208388</v>
+        <v>34.85480023649758</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>56.68240784307497</v>
+        <v>38.72185908607922</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-4.572894938199262</v>
+        <v>6.733222026224571</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.80112252516333</v>
+        <v>25.9099790717417</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.19362457646813</v>
+        <v>22.68326862354438</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>38.87142067169668</v>
+        <v>30.3079504562386</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-7.326657924236201</v>
+        <v>4.73492719346412</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>14.418003004404</v>
+        <v>19.99987973844548</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.46537303809895</v>
+        <v>25.86903659108559</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>49.32377960042579</v>
+        <v>34.6629196359862</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>58.44646501752421</v>
+        <v>43.70356633620388</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>71.18993853104362</v>
+        <v>52.68745997379452</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-7.329466298177344</v>
+        <v>7.474648889774716</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.55267139707524</v>
+        <v>36.6461902736504</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>82.26833076089608</v>
+        <v>59.81033431847818</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>93.83489780893248</v>
+        <v>66.39383178035825</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>51.82821721266681</v>
+        <v>40.74926034294151</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>70.70453255322893</v>
+        <v>52.07098160882965</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-13.94695526194965</v>
+        <v>5.612468977052469</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.46533427313926</v>
+        <v>36.94461841904118</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>78.95571653462173</v>
+        <v>60.19216271587693</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>94.92391756873292</v>
+        <v>68.09505017647038</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.13118133084315</v>
+        <v>29.68855894729548</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>59.42439685575467</v>
+        <v>43.30295476621349</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-8.374095341582205</v>
+        <v>6.595303569804955</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.14041438174307</v>
+        <v>33.18309565699469</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>57.45249558068436</v>
+        <v>47.34621685635058</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>81.8773205072076</v>
+        <v>60.07668044258499</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>10.07674376971802</v>
+        <v>13.08015109128511</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.38408476568424</v>
+        <v>36.2226064082132</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>56.06657729802479</v>
+        <v>41.75915561924694</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>53.20544325361973</v>
+        <v>42.41137566461585</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>6.124924916420191</v>
+        <v>10.96857401746464</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.70374644043759</v>
+        <v>29.45071970187771</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-1.273771545882546</v>
+        <v>9.523754221867454</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.45331060154714</v>
+        <v>40.12614960470665</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>80.81137527500346</v>
+        <v>59.57460974309362</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>76.86522272468798</v>
+        <v>59.11413471283645</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-4.206148770237057</v>
+        <v>9.269646484100496</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.24926614503429</v>
+        <v>37.55953665378046</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-9.053527442562416</v>
+        <v>6.889701094377656</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>32.74493136672966</v>
+        <v>38.53888424591354</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>78.31725443163882</v>
+        <v>59.9182888227766</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>78.30637681378985</v>
+        <v>59.91191141146948</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-10.84495194420936</v>
+        <v>6.919838551885217</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.97549899401296</v>
+        <v>35.77747485409681</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-2.773637869316776</v>
+        <v>5.920223039705409</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>32.92313769697197</v>
+        <v>35.56650360041141</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>69.3868070977596</v>
+        <v>52.28406909844417</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>71.5696085214191</v>
+        <v>54.28228101532618</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-4.155707743565173</v>
+        <v>8.071456717344915</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.87123304093966</v>
+        <v>33.04559186696525</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>46.19211828927796</v>
+        <v>34.67163640439904</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>50.63155159912729</v>
+        <v>37.57791597592158</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-4.950701941731595</v>
+        <v>8.097572984570547</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.34893738390257</v>
+        <v>28.92145796852702</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>48.63276463046734</v>
+        <v>37.26622926316742</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>56.9121464426667</v>
+        <v>43.12083374841865</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>76.7213734984874</v>
+        <v>55.49180422404371</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>80.09337378394204</v>
+        <v>58.58104880523726</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-7.867518564851046</v>
+        <v>10.52849699004694</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>40.0348205833389</v>
+        <v>45.16805316650888</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>96.06279106746138</v>
+        <v>68.84494792693521</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>97.35555603604979</v>
+        <v>70.81395292843933</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>69.30640499315476</v>
+        <v>52.89744438439826</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>79.01852610644809</v>
+        <v>57.91396408099348</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-14.73051705315761</v>
+        <v>8.792770683206706</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>36.5238641567687</v>
+        <v>45.38960588433729</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>92.67129855129747</v>
+        <v>69.07227742384121</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>98.34757891524009</v>
+        <v>71.78278778073869</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>56.07691092403019</v>
+        <v>42.20704980601243</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>68.82485411511129</v>
+        <v>49.18337336641234</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-7.928076528553035</v>
+        <v>9.892723405813401</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>35.49182946760971</v>
+        <v>41.8013390393772</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>74.891271704433</v>
+        <v>57.6968009064407</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>87.98606101505379</v>
+        <v>65.14550080286541</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-3.542237697723518</v>
+        <v>5.681913402961484</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.6460322828014</v>
+        <v>27.08018605900968</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>37.47714326401101</v>
+        <v>29.90873312565576</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>42.01868376948701</v>
+        <v>32.56102899147758</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-1.899629923299109</v>
+        <v>5.91411572543382</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>19.8987152408257</v>
+        <v>24.26333125346607</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-6.673390496578104</v>
+        <v>5.389937863284281</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>37.14787578218692</v>
+        <v>36.42874134370729</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>73.16683962035262</v>
+        <v>52.63251952686487</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>72.67943576350061</v>
+        <v>53.66007598167833</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-7.620411333058264</v>
+        <v>4.538920225359412</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>33.48450498710669</v>
+        <v>35.05413758795685</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-13.87627496701267</v>
+        <v>3.215682960353426</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>31.95666651598602</v>
+        <v>35.32786754534351</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>71.13001440990816</v>
+        <v>53.34780864037958</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>74.48417820672231</v>
+        <v>55.08224791116119</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-14.38609793086948</v>
+        <v>1.844705455988251</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>28.02959162741708</v>
+        <v>32.78105724680202</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-13.76023344632314</v>
+        <v>1.178750064183109</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>22.92527754949475</v>
+        <v>29.35593705166915</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>52.56503488280787</v>
+        <v>42.96057948423433</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>62.57798408687224</v>
+        <v>48.16907184896424</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-11.5666335605106</v>
+        <v>2.150039908363809</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>19.64044490724775</v>
+        <v>26.64329426777872</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>31.91475964844444</v>
+        <v>26.86038036408949</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>42.63956552122077</v>
+        <v>30.92451656003686</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-7.416481097070864</v>
+        <v>4.208605071014759</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>17.12985080483961</v>
+        <v>22.70491683793956</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>31.25001673656639</v>
+        <v>26.68524645474109</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>52.28839484913613</v>
+        <v>35.6013763195554</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>69.21824653271477</v>
+        <v>49.87556303166753</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>74.9590040442929</v>
+        <v>53.84212115552787</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-8.187235146026488</v>
+        <v>6.485840496661051</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>36.79692842691804</v>
+        <v>41.64504309757653</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>82.32809108339484</v>
+        <v>60.3412374986687</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>93.11304558031338</v>
+        <v>65.08735253362586</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>61.15010385622089</v>
+        <v>46.58996830156546</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>73.40333550379</v>
+        <v>52.95022383982766</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-15.95966377744138</v>
+        <v>3.861696012449425</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>32.35246016962331</v>
+        <v>40.99033236582937</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>77.79035172068004</v>
+        <v>59.49223681486797</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>93.15110056881281</v>
+        <v>65.4444471943504</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>40.94724431371218</v>
+        <v>32.53802153874852</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>60.6691230727515</v>
+        <v>42.32137134525451</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-11.60414110252418</v>
+        <v>4.244469810156652</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.93232404212859</v>
+        <v>33.82874430864202</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>55.08928627681592</v>
+        <v>44.72078708291573</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>81.82988854075577</v>
+        <v>57.22228345821441</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.568</v>
+        <v>16.837</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.707</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.419</v>
+        <v>14.31</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.889</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.15</v>
+        <v>4.512</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.005152497676828</v>
+        <v>9.638310284676393</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.64190559761777</v>
+        <v>16.80748075929929</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.06024579574036</v>
+        <v>17.09582614694795</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.05718285876154</v>
+        <v>18.08312310511189</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.68912988347241</v>
+        <v>22.2280964443257</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.48951672232905</v>
+        <v>28.76504212668645</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.210620724418909</v>
+        <v>5.885004161224536</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.35275739859872</v>
+        <v>17.84805304277049</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.25778483692437</v>
+        <v>30.27715243199372</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.55890084358329</v>
+        <v>29.60459036875731</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.765349629610904</v>
+        <v>15.17799105600166</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.83715230089685</v>
+        <v>35.09105502597783</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1.726601978618532</v>
+        <v>5.150863297158335</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.93909335372836</v>
+        <v>17.69484781185101</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.41782281215254</v>
+        <v>25.69722428411188</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39.52778514818534</v>
+        <v>27.34368369838088</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.989261496310508</v>
+        <v>11.3754752697634</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.87267444945844</v>
+        <v>28.68118547066098</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.895585473390415</v>
+        <v>3.682924100540532</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.69288840695166</v>
+        <v>16.38544470090935</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.29923998926467</v>
+        <v>22.98469870773477</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.8245491409555</v>
+        <v>26.08053066298147</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7.074454540551756</v>
+        <v>12.66279309803225</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.66798654175643</v>
+        <v>27.11705531717361</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.91588016234217</v>
+        <v>26.78743630467968</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.1206318871413</v>
+        <v>31.80705939423483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.955239723205715</v>
+        <v>19.50008572132271</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.86270227967296</v>
+        <v>28.29308008686425</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.81779672552895</v>
+        <v>27.68662454600373</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.73176773374846</v>
+        <v>31.2191581082256</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.22018321732898</v>
+        <v>49.60853234345624</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>55.72417407297549</v>
+        <v>57.86871259777055</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>10.82454325457629</v>
+        <v>19.41582628185741</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.71409901811295</v>
+        <v>46.84257605912275</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>66.12438226781197</v>
+        <v>65.72810714417535</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>72.70677581262572</v>
+        <v>67.7135962014754</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.14793784155686</v>
+        <v>37.60906867462397</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>54.27457201662952</v>
+        <v>52.79171961953253</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.13862773609787</v>
+        <v>15.9135150838522</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.27792691137117</v>
+        <v>42.33123675475034</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>65.76714435485765</v>
+        <v>56.61244951895789</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>73.85933207840564</v>
+        <v>64.31334942190729</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.91516514967097</v>
+        <v>29.02199999756166</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.62415253108464</v>
+        <v>46.09186461660593</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.260978925092241</v>
+        <v>16.84755316665697</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.18546593136129</v>
+        <v>40.45166325354436</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>52.01763436824315</v>
+        <v>51.92338265107363</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>65.16273034810787</v>
+        <v>62.87963769757518</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.01232000892951</v>
+        <v>14.42041551328654</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.43369926225149</v>
+        <v>38.26480588106252</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.31881629344805</v>
+        <v>35.02006751390329</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>39.84329870435389</v>
+        <v>39.58910751307738</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.104523978553605</v>
+        <v>15.43810548820696</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.34846289447938</v>
+        <v>31.44509598885362</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7.505429866188869</v>
+        <v>13.26394469519273</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.95166381607628</v>
+        <v>42.56517377638271</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.10137835289837</v>
+        <v>51.56120656878277</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>56.3905656582052</v>
+        <v>50.94873685444716</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6.427469136819969</v>
+        <v>12.98398492631452</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.6879579639689</v>
+        <v>41.13866705807041</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.45952071269274</v>
+        <v>10.54942287404622</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.68409308552878</v>
+        <v>39.66005379212955</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>54.622722246644</v>
+        <v>50.04905853463811</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>56.46118194414993</v>
+        <v>49.06618456605866</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.049415877127899</v>
+        <v>10.47394991274582</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.48302189485695</v>
+        <v>35.15197869424372</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.280294257285867</v>
+        <v>8.070876621644206</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.03370977233524</v>
+        <v>37.53804276141925</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.10236293775311</v>
+        <v>46.71337482653979</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>52.79598290750932</v>
+        <v>51.25910813559742</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.321219706110298</v>
+        <v>10.96287872140231</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.19268079806405</v>
+        <v>31.0370040400698</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.96000388337721</v>
+        <v>32.46255978092012</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.55815509642215</v>
+        <v>36.36683103079537</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>8.662318687991316</v>
+        <v>15.74594645365115</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.68479636534108</v>
+        <v>32.84153193609494</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.78339699804562</v>
+        <v>34.77750136034123</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.43938415113922</v>
+        <v>44.68721838615077</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>56.33665031921427</v>
+        <v>51.74643178288914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>62.70176155478789</v>
+        <v>56.32875433246863</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.65452072887218</v>
+        <v>14.44608798374933</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>48.30234695151282</v>
+        <v>49.93895942128505</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>69.74226788450022</v>
+        <v>63.79900630362182</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.77286705229827</v>
+        <v>65.75737434032999</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>52.02607354751345</v>
+        <v>43.70784068221325</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>60.59288609619909</v>
+        <v>53.32464956913721</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.483611104320314</v>
+        <v>11.85704510754344</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>46.97676559255225</v>
+        <v>46.62313623542134</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>68.35476978523549</v>
+        <v>57.75140846144163</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>73.96047356969726</v>
+        <v>61.96890829482346</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>39.1740796107668</v>
+        <v>34.72360957453994</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>50.05690691537147</v>
+        <v>48.3018613861403</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>8.583490950562688</v>
+        <v>12.49886685846195</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>43.73836131208128</v>
+        <v>42.01585632334268</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>57.64829098917899</v>
+        <v>53.43160040555323</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>69.00670549304309</v>
+        <v>62.92929524531695</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.977541091470995</v>
+        <v>15.84081111163269</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.7315774505638</v>
+        <v>35.55263833741543</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.69592237059365</v>
+        <v>35.47259189992218</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.45860087108102</v>
+        <v>35.86162160106595</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>11.16467085678567</v>
+        <v>16.45023455520688</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.81021614492922</v>
+        <v>34.55369258874652</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6.505214922444718</v>
+        <v>15.60021626777044</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.57888762973238</v>
+        <v>43.16180783262806</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>52.80174404628671</v>
+        <v>56.53926169989192</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>53.27444044758812</v>
+        <v>53.76551072338759</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>9.070700683638924</v>
+        <v>13.827941530046</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.99861831389512</v>
+        <v>43.27131688788715</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.80129834264627</v>
+        <v>11.90803877676431</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.80238531706273</v>
+        <v>40.14822356350928</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.79446101984358</v>
+        <v>52.29724205894173</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>53.82805551227364</v>
+        <v>50.08463408618626</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6.036164570035435</v>
+        <v>12.03746883320312</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.28042039202644</v>
+        <v>38.97054913702496</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3.805123780171829</v>
+        <v>11.10876991835108</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.11279107336461</v>
+        <v>38.94489749113852</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.51678646787487</v>
+        <v>50.13451031434142</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>49.38003118869618</v>
+        <v>51.68494210114935</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>7.098763097872023</v>
+        <v>12.03030428116104</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.81438142233942</v>
+        <v>37.11639547927368</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>37.91015260575716</v>
+        <v>39.43605188075353</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.79083755408762</v>
+        <v>40.85638706935707</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>10.02628246276477</v>
+        <v>17.66959535402276</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.83708823608983</v>
+        <v>34.61913576800421</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.00043789073567</v>
+        <v>40.83818653180377</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.79653968573171</v>
+        <v>48.88206850228195</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>60.25676774862166</v>
+        <v>61.15924480704525</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>64.57112273698765</v>
+        <v>63.30868894951736</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10.49857342112479</v>
+        <v>16.88176939550684</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.32095856362803</v>
+        <v>51.31376601177912</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>72.77922197619164</v>
+        <v>73.36286469003186</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>75.76670666210089</v>
+        <v>73.79174308197122</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>56.50100978733232</v>
+        <v>54.33178450257144</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>62.91996200895069</v>
+        <v>60.10433949796351</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>7.623525221129423</v>
+        <v>14.35951311695669</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>49.42207866604546</v>
+        <v>49.45131242651524</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>71.84717655362662</v>
+        <v>67.89527992940263</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>75.35821378583219</v>
+        <v>69.36818912684876</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.64387292258029</v>
+        <v>44.87192085499038</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>52.33296784125459</v>
+        <v>51.67846336713508</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.62358061608418</v>
+        <v>15.63075459978881</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.96906254667839</v>
+        <v>48.31021960559555</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.28291491971503</v>
+        <v>63.13958030108759</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>70.39096772812768</v>
+        <v>67.73259876676538</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5.816949842477911</v>
+        <v>13.59385578735753</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.46221480900559</v>
+        <v>16.80936358735158</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>18.48073491434524</v>
+        <v>30.44978923519847</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>19.93595997434817</v>
+        <v>31.74290594033249</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>11.30324391871194</v>
+        <v>20.83262196585853</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.82370756105688</v>
+        <v>27.76019022191936</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1.91508929931371</v>
+        <v>11.34100855845438</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20.62197342867601</v>
+        <v>21.2790877439221</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.32909885828151</v>
+        <v>45.87124125697915</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>37.26012826521253</v>
+        <v>45.44256604230979</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>8.608837324001005</v>
+        <v>14.86951643232533</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.72527867540564</v>
+        <v>34.944846601763</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9789870820307556</v>
+        <v>10.01582857565106</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.20379737715131</v>
+        <v>20.95139262070082</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.1738494050477</v>
+        <v>40.28279608613629</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>37.91731745408241</v>
+        <v>41.68437639301932</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5.033226070300515</v>
+        <v>10.79277890517889</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.97174089297717</v>
+        <v>27.54644021662519</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1.523337109144581</v>
+        <v>7.892409880029376</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>15.82563400351402</v>
+        <v>18.37548975696866</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.02055332127037</v>
+        <v>37.19461657963494</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.95204755822726</v>
+        <v>40.03349140397185</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6.907346179878431</v>
+        <v>11.98159728938066</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23.91978395784792</v>
+        <v>25.99248720269126</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.72288683829496</v>
+        <v>22.01335850744417</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.74225801771127</v>
+        <v>25.2529497871577</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.44779877232553</v>
+        <v>17.31077733186063</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.25299337556114</v>
+        <v>24.88361123027025</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.16799289976099</v>
+        <v>23.65929654566417</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.10731250555083</v>
+        <v>28.05700677342984</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.38055972048975</v>
+        <v>47.90102431384715</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.996821320788</v>
+        <v>57.87041230796883</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>12.08448560036634</v>
+        <v>20.60794527095508</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.91222510353475</v>
+        <v>45.18323119988496</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.25431304381473</v>
+        <v>64.93292422111833</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>68.31346051415713</v>
+        <v>69.62525429246659</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.48390532546473</v>
+        <v>36.14412628880076</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.56653854157193</v>
+        <v>53.00231823004614</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>9.552334567564211</v>
+        <v>17.68513225902096</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.52942135699012</v>
+        <v>39.49425483463681</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>60.9329515601795</v>
+        <v>54.58748204692959</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>69.40246064908206</v>
+        <v>65.47830679546986</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.17144976344659</v>
+        <v>23.49221583011597</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.35739312969835</v>
+        <v>39.54596331660365</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>9.995202671597697</v>
+        <v>15.9556767786023</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.18721797239643</v>
+        <v>35.6010394220767</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>47.66632341050141</v>
+        <v>45.90270563314533</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>60.63948448590568</v>
+        <v>58.89758088452959</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.304976372828584</v>
+        <v>9.480998546565104</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.12336126822822</v>
+        <v>29.02855702200317</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.42230815617188</v>
+        <v>28.96353447906746</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.95666030083317</v>
+        <v>28.96686565076439</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.93858924938883</v>
+        <v>22.06720366365663</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.67770066682386</v>
+        <v>37.66567740422491</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.999810918286343</v>
+        <v>14.66302530103499</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.7423055525776</v>
+        <v>42.60692615468956</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>50.58309191963755</v>
+        <v>54.91032780115486</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>51.39342153271356</v>
+        <v>53.94984771054082</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>12.03845311066171</v>
+        <v>15.64391279335299</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>39.99225360509962</v>
+        <v>44.70120108038431</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4.554244554394231</v>
+        <v>13.36998746631539</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.78084614204039</v>
+        <v>41.83442562422663</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>51.24996178147349</v>
+        <v>54.11435409685807</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>52.80190690380043</v>
+        <v>54.9386007560781</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>8.692296938362633</v>
+        <v>13.26848190804071</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.48387567998801</v>
+        <v>40.45885322671835</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>4.173283344767274</v>
+        <v>11.87544832945623</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.41498984264087</v>
+        <v>42.31849940142468</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.79698773434436</v>
+        <v>55.50271151405761</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>45.65883269792324</v>
+        <v>56.03677245842292</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>11.33759099083355</v>
+        <v>13.83445928631056</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.12128443111563</v>
+        <v>40.59737206590911</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.31714262691752</v>
+        <v>43.11529477137294</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.59414082547105</v>
+        <v>42.9887972028281</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10.17037330356295</v>
+        <v>18.2085068883924</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.09551421758034</v>
+        <v>31.90153597415455</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.90605181448447</v>
+        <v>40.6433195663822</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.28172808596636</v>
+        <v>45.95014623781137</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>60.61465594387155</v>
+        <v>68.95561452356021</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.63159402996871</v>
+        <v>70.13734923607132</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.17091474617373</v>
+        <v>17.39286660679623</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.8412330136637</v>
+        <v>47.79266364503381</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>71.00631342696005</v>
+        <v>73.02056790652162</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>76.56935863784641</v>
+        <v>74.7303692250639</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>57.01876240149593</v>
+        <v>61.86760114548716</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.558170622346395</v>
+        <v>15.7882978162803</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.37531995269388</v>
+        <v>44.19434513234461</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>70.6098335413577</v>
+        <v>65.81920549876824</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>77.36619852649368</v>
+        <v>71.78004861021353</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.58688148942718</v>
+        <v>53.30332948303035</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.49285605864929</v>
+        <v>57.09937397853125</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>11.39016375107488</v>
+        <v>15.7401608351971</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.12124785847581</v>
+        <v>45.73289612298785</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>59.77259393604791</v>
+        <v>66.83751610461441</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>71.58061834289263</v>
+        <v>73.5758679845527</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>7.188736451086548</v>
+        <v>9.864594114524404</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.46270445484428</v>
+        <v>35.33313481603779</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.22393357464068</v>
+        <v>30.5041890819447</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.84423175741617</v>
+        <v>30.89502079331636</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.88990254224951</v>
+        <v>18.19137238638296</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>37.6076066856589</v>
+        <v>38.76405753495669</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5.493103294056347</v>
+        <v>12.84726603404618</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>37.60403028995138</v>
+        <v>41.59263690827739</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>51.71117400969266</v>
+        <v>52.21945223186232</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>51.35273288905461</v>
+        <v>50.66135417306556</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>11.77812991838545</v>
+        <v>15.43875502048288</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.17790556514382</v>
+        <v>47.32230717043261</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3.280691971720316</v>
+        <v>10.54343974135082</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.22655505181146</v>
+        <v>39.19707222414814</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>52.33830412845663</v>
+        <v>55.16510178648944</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>52.27999198734167</v>
+        <v>53.71259048033098</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9.652980564433676</v>
+        <v>13.24334788617872</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.39450869023908</v>
+        <v>44.68508805208722</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3.928546656637209</v>
+        <v>8.83219246845929</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.3953491646798</v>
+        <v>42.47433539818254</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.79382430527693</v>
+        <v>58.39860744020059</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.79801128348926</v>
+        <v>59.06953366100586</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.41986982800249</v>
+        <v>13.6431027494799</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.01518016662849</v>
+        <v>42.14460376148921</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.48245451574535</v>
+        <v>42.14788206803046</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>47.68302991694431</v>
+        <v>45.43159765365152</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>11.2124784918588</v>
+        <v>16.59115156933898</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.78315601158755</v>
+        <v>34.99331968079866</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>44.08185867840223</v>
+        <v>40.68084505545163</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>50.10243402980323</v>
+        <v>47.21881278870457</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>64.63585999565692</v>
+        <v>62.65858035786019</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>67.7602088254591</v>
+        <v>63.45120575669957</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>11.68333568392317</v>
+        <v>16.8878321932872</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>71.30057519372291</v>
+        <v>64.07029362033394</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>73.1184420055734</v>
+        <v>65.28954708860897</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>61.85123779865583</v>
+        <v>58.28855523299082</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>66.51484298067922</v>
+        <v>61.02541542516722</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.723763213733221</v>
+        <v>16.43177061387595</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>50.13769107781329</v>
+        <v>47.07102262469456</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>71.15124629335403</v>
+        <v>62.0734765532095</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>73.21084610021364</v>
+        <v>63.88369088875132</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>51.60170102874473</v>
+        <v>48.43605918722816</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>58.43519538012022</v>
+        <v>54.90455974614128</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.08868484174065</v>
+        <v>15.35095084083599</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>48.85017178369354</v>
+        <v>47.923241764729</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>63.55999487263961</v>
+        <v>60.90548027473291</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>70.11562449610192</v>
+        <v>63.4259297326048</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>2.809934762321291</v>
+        <v>9.865753328878437</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>13.69010312301904</v>
+        <v>16.24038425446542</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.86093481059326</v>
+        <v>19.11211351165202</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>18.45672634125353</v>
+        <v>19.47127033188336</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>10.04848837086919</v>
+        <v>16.13343649836303</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.82978489525234</v>
+        <v>26.09153925904986</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-2.011804412823125</v>
+        <v>5.200479768237081</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>14.84339021255051</v>
+        <v>15.18413837221209</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.31387388077195</v>
+        <v>29.63236430486636</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.30424094201936</v>
+        <v>29.45084320314561</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.276184195885852</v>
+        <v>13.47632658382837</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.45478535791192</v>
+        <v>32.83326205747159</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-5.398280934671252</v>
+        <v>1.586225522719033</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.41301987658532</v>
+        <v>11.96397197941436</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.3532098713919</v>
+        <v>24.40594461219635</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.84805491926603</v>
+        <v>25.30257337536323</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.212749604858359</v>
+        <v>11.23254012266401</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.63293577997946</v>
+        <v>27.98172066216877</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-6.618996201230942</v>
+        <v>1.341684372583234</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>9.424574987732502</v>
+        <v>11.57680197839809</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.9970803551905</v>
+        <v>19.62624291879859</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.21945179770421</v>
+        <v>22.20774595104503</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>6.115274648391651</v>
+        <v>11.66086463182233</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.10670325225104</v>
+        <v>26.07790154134907</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.3877894866191</v>
+        <v>26.64710689983349</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.83658719614198</v>
+        <v>29.30668563432768</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>8.251381055632709</v>
+        <v>14.69405607293269</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.50494193834897</v>
+        <v>25.96928427051956</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.23596712012981</v>
+        <v>30.99627429685923</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>39.02581104938288</v>
+        <v>35.00198201438268</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.99075323777488</v>
+        <v>44.31569774594031</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>51.83708161730207</v>
+        <v>49.37633021476671</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>12.4379645121708</v>
+        <v>17.98828916074364</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>43.03484448320108</v>
+        <v>42.4172209626057</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>63.99737269134869</v>
+        <v>61.75220789161864</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>68.40637644830369</v>
+        <v>64.19986811952414</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>41.05082584405426</v>
+        <v>36.00868261662103</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>50.12135979649584</v>
+        <v>45.6964820991731</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.63378271150732</v>
+        <v>15.24201541277547</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.01154480808722</v>
+        <v>40.8296022568167</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>63.83292922008819</v>
+        <v>55.04599223015217</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>69.27911116851448</v>
+        <v>60.07638585378122</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.62195543530681</v>
+        <v>27.55649220784411</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>40.02272654973348</v>
+        <v>37.16611096688964</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>11.19527095287369</v>
+        <v>15.53631538465086</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>38.84755400815327</v>
+        <v>41.39221446297337</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>52.52966856296466</v>
+        <v>51.87021280342638</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>61.60979110039298</v>
+        <v>57.23466166245228</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-0.5862219028634286</v>
+        <v>6.749266322455878</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.08832720183543</v>
+        <v>12.56482088811614</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>13.97339673652065</v>
+        <v>12.53708023580132</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>15.47126775144405</v>
+        <v>12.30105289322875</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.169745922151154</v>
+        <v>14.67973475062444</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>14.55400570150214</v>
+        <v>16.26246595371808</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-4.858843410514329</v>
+        <v>8.59546204510896</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.20293899816285</v>
+        <v>18.00810466876005</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>31.59012712029743</v>
+        <v>23.89848238436403</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.37187225505863</v>
+        <v>23.0358204913728</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-2.664803405694755</v>
+        <v>1.623350638240133</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.56597493769316</v>
+        <v>12.10095082021344</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-7.519163354240444</v>
+        <v>5.431558173815301</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>16.00605115369264</v>
+        <v>15.22522064996317</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.89884967736742</v>
+        <v>18.39890121302397</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.42793839042218</v>
+        <v>18.90961345807071</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-5.926580695769474</v>
+        <v>0.03080144217186387</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>18.12418584280984</v>
+        <v>7.597498069761503</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-7.412501435892384</v>
+        <v>1.002652860328435</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13.27775394860677</v>
+        <v>11.90481499098429</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.89390521370136</v>
+        <v>14.83066984827825</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.73812076595161</v>
+        <v>15.90250545552072</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-2.789565346624446</v>
+        <v>2.7394827853938</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.22908287394711</v>
+        <v>9.803735183516935</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.34214983394973</v>
+        <v>16.00126394519076</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.74184574795733</v>
+        <v>18.48882250863723</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.6292921236899467</v>
+        <v>7.32451013323152</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.04952559654017</v>
+        <v>9.193882751113538</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.16308875748779</v>
+        <v>15.94175587935535</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.8943012947206</v>
+        <v>26.59781435966491</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.02370516339978</v>
+        <v>25.14053276467348</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.38490175667279</v>
+        <v>33.22554135710831</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>1.086915364575248</v>
+        <v>7.026592960129452</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.08672111222516</v>
+        <v>21.93073371423838</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>52.05751202038836</v>
+        <v>35.01983754120578</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>59.41063720170058</v>
+        <v>49.65302292503054</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.35576577473628</v>
+        <v>15.99440990300352</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.05676368846376</v>
+        <v>28.91679900213947</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1.397365992872462</v>
+        <v>7.188461802811336</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.77831333698404</v>
+        <v>19.07187336106319</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>51.66950878179962</v>
+        <v>26.7993202067919</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>60.25174931029166</v>
+        <v>47.56409810598985</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.2329284910906</v>
+        <v>11.06913278382263</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.34225421813046</v>
+        <v>19.04319990753162</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.216823739869632</v>
+        <v>5.826032265201416</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.20176754652672</v>
+        <v>17.93846559365939</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>41.38884596439068</v>
+        <v>26.49583349855384</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>54.80195204120004</v>
+        <v>47.33519009832671</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>12.10475217167455</v>
+        <v>15.64977067630362</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>39.9260079524423</v>
+        <v>39.96442302154953</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.8542230151086</v>
+        <v>41.82358000555332</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.9469753325675</v>
+        <v>44.33285585205107</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.503887572681702</v>
+        <v>17.47566646136449</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.61094439607299</v>
+        <v>33.44399878731642</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>9.73338281447011</v>
+        <v>16.22630221285473</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.93682102495841</v>
+        <v>45.93196989070022</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>63.33729468824119</v>
+        <v>62.82838599007351</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>63.39916995013861</v>
+        <v>61.7310661726807</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.880335511534472</v>
+        <v>15.88532589540524</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.20182390715316</v>
+        <v>41.56470688729888</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>6.761253308527532</v>
+        <v>10.80207187734611</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.87037971547514</v>
+        <v>41.6162835854251</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>63.43120514695255</v>
+        <v>58.24072027303149</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>63.86410863994321</v>
+        <v>56.98719228998321</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>4.319875864944152</v>
+        <v>13.70100241063027</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.99822968809581</v>
+        <v>38.25468202102825</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>6.113856734961864</v>
+        <v>5.376530961495565</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.50685899784483</v>
+        <v>37.88813409587316</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>56.90986202483815</v>
+        <v>52.94662390387445</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>59.41913349974863</v>
+        <v>54.73816760510638</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>5.143278077410823</v>
+        <v>12.4875290015882</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.3449163310113</v>
+        <v>34.84312817356538</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.35801997641536</v>
+        <v>35.10714750877933</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.46669294356416</v>
+        <v>36.47351701515531</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.914197538031964</v>
+        <v>17.01124112123482</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.03198430072238</v>
+        <v>32.79551189463968</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>40.8133133721222</v>
+        <v>39.33404801727431</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>47.46988787042896</v>
+        <v>46.89760462900335</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>57.95382149956279</v>
+        <v>56.55590066875888</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>61.08603635164268</v>
+        <v>56.8362399966156</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>7.809564142701952</v>
+        <v>17.41662669139201</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.23935125255512</v>
+        <v>46.50219745456167</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>69.24157192436108</v>
+        <v>66.49763568652142</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>71.3976620391695</v>
+        <v>66.86304661800065</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>54.93559912685514</v>
+        <v>50.67807194567047</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>59.86384377495064</v>
+        <v>53.73487515770983</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>5.704001777017002</v>
+        <v>15.8076087220943</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>46.99074956398216</v>
+        <v>45.78509584751875</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>69.20402111883695</v>
+        <v>62.60099761481536</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>71.67155709116727</v>
+        <v>63.40981771528081</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>42.65444410097113</v>
+        <v>38.43690581375645</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>49.77656049901908</v>
+        <v>44.1190792233743</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.974412702199077</v>
+        <v>15.08121429366438</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.13359755872066</v>
+        <v>44.36517077820123</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>60.83275763383322</v>
+        <v>57.33453597842145</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>68.08362791053169</v>
+        <v>60.83455370554556</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3.986278305446834</v>
+        <v>10.1991504059542</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.53141195383454</v>
+        <v>15.34747719348709</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.69344972153538</v>
+        <v>13.99530538109453</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.89402068146301</v>
+        <v>14.92414387029696</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>5.548712742715406</v>
+        <v>12.83662767189353</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.14659318925142</v>
+        <v>19.70349462350956</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>0.1105592556376926</v>
+        <v>6.891714408060921</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.97676121175819</v>
+        <v>17.0591280904917</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.83574382826703</v>
+        <v>24.02827441681985</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.36130801485538</v>
+        <v>24.55757261319922</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>5.760156261139041</v>
+        <v>12.16634851417531</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.48704597588322</v>
+        <v>28.13099232955543</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-2.894624842250217</v>
+        <v>4.998222027163063</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>12.69680970415453</v>
+        <v>14.55739872632433</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.63435363738169</v>
+        <v>20.65366236501928</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.81624306579404</v>
+        <v>22.65779401428512</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2.498156519052138</v>
+        <v>8.499363284324762</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.20116392134722</v>
+        <v>19.25999210873554</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-4.215454930659227</v>
+        <v>3.479032426769454</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>8.65501756595601</v>
+        <v>10.71258127154833</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.19678250801962</v>
+        <v>13.78363365772495</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.64686212676212</v>
+        <v>18.60288286144992</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.2627453026902735</v>
+        <v>6.499790924119072</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.70765662661147</v>
+        <v>13.68836810868006</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.75493406153232</v>
+        <v>17.9194749260846</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.11796908325572</v>
+        <v>19.42764239111501</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.866429868667499</v>
+        <v>14.85411482477867</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.7517769700273</v>
+        <v>19.8330187867715</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.18736909064225</v>
+        <v>18.95927016116132</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.95020799268799</v>
+        <v>22.41026040372748</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.67808484961324</v>
+        <v>33.77809188804902</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.9118159185991</v>
+        <v>40.22299649947418</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.03339851654834</v>
+        <v>20.35889144763188</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.66980473465235</v>
+        <v>37.28561414230353</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.14463073836301</v>
+        <v>51.6626863283733</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>59.17222947700682</v>
+        <v>59.06235080692593</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.16709084515548</v>
+        <v>20.46664710026242</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.93646926074015</v>
+        <v>34.56800171548953</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.57062934622704</v>
+        <v>16.45849659209354</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.62032072000501</v>
+        <v>30.6816983869547</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.55095170953894</v>
+        <v>40.28254757293327</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>59.0704150046793</v>
+        <v>55.92344681135955</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>14.30763763419871</v>
+        <v>10.77114504830021</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.67309446901209</v>
+        <v>23.01448549176842</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>7.822820144078516</v>
+        <v>15.84624956704466</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.18518584707957</v>
+        <v>27.7349545588084</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.44802030472137</v>
+        <v>31.68771257422957</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>48.3236903207616</v>
+        <v>48.34209119640821</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-1.879191687101759</v>
+        <v>4.631337660568445</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>14.6173376706018</v>
+        <v>8.044259803365314</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13.36438479175724</v>
+        <v>5.200579230804269</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>14.1623171878174</v>
+        <v>5.94932469936143</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.826860254944885</v>
+        <v>15.25673829429014</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.15576080822824</v>
+        <v>29.74059481847162</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-4.821744107099232</v>
+        <v>3.549453141969142</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>18.81301668763716</v>
+        <v>8.979031011568452</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.83182735586788</v>
+        <v>11.7658619482232</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.48672858059929</v>
+        <v>13.25261443028507</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>7.476219596859856</v>
+        <v>12.53556720043468</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.80519258158142</v>
+        <v>37.34379668280889</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-6.632388872662649</v>
+        <v>4.129896988954211</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>17.8605171861492</v>
+        <v>9.268248444662557</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.33117873063083</v>
+        <v>10.67041999163987</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.51123426917098</v>
+        <v>13.7382483870164</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>5.093762286211042</v>
+        <v>11.78873097266958</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.74316473744601</v>
+        <v>34.79954631437805</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-5.412363833108316</v>
+        <v>3.643303015159535</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.78148826896239</v>
+        <v>9.836282360951376</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.80625406070008</v>
+        <v>9.818825340245439</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.60028030307358</v>
+        <v>16.23501226325973</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.939566914280327</v>
+        <v>11.72348389151461</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.71539978550094</v>
+        <v>32.56482173413943</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.74828671231404</v>
+        <v>33.5791213208875</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>37.50696872079327</v>
+        <v>35.63661942898656</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>11.57305437679298</v>
+        <v>16.733621432549</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.92608415273035</v>
+        <v>30.78113470123721</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>38.972674911814</v>
+        <v>34.07103034769131</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>45.46694624527092</v>
+        <v>40.84268361710164</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.3959532552354</v>
+        <v>49.96052338069369</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>56.47351378340977</v>
+        <v>51.02383693716112</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.25009619259069</v>
+        <v>17.63903790521874</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>47.79713134647052</v>
+        <v>47.654897562514</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>67.81659343041514</v>
+        <v>63.77130394346631</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>69.96573014562614</v>
+        <v>64.48650217368993</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>50.22664362465095</v>
+        <v>45.31877487854033</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>55.12120287202971</v>
+        <v>48.84160072155306</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>9.75821423268388</v>
+        <v>17.01315716474924</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.06170713283927</v>
+        <v>47.72050914862632</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>67.03842117883038</v>
+        <v>61.52421091003839</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>69.63003838627633</v>
+        <v>62.73093125057309</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.27824548329693</v>
+        <v>38.5869784848345</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.20881016718532</v>
+        <v>44.07913772040617</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>12.76045855315874</v>
+        <v>17.27054092230998</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.36189862013428</v>
+        <v>47.18514668376874</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>57.92363110917752</v>
+        <v>60.09802437910805</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>65.54805547740411</v>
+        <v>62.53900269510387</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>6.599592694178998</v>
+        <v>15.29550601895243</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.15723167170882</v>
+        <v>20.46604148217182</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.65884302454479</v>
+        <v>18.09817639615444</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.28660017519127</v>
+        <v>16.83109524959681</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>3.7175293008533</v>
+        <v>10.75489892476903</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.43956165877691</v>
+        <v>14.14885155199144</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2.607167513234845</v>
+        <v>11.22018580519889</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.00995278747389</v>
+        <v>22.07945267382471</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.6482378040507</v>
+        <v>29.2487547835117</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.92095772392917</v>
+        <v>28.27310227431618</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.04397397018635374</v>
+        <v>7.315321320657425</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.08350644292253</v>
+        <v>17.91241046490193</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-0.09917438601113204</v>
+        <v>9.24624971531253</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.06249165605579</v>
+        <v>20.66313282768786</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.77498467406379</v>
+        <v>27.70856402892945</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.6693502359721</v>
+        <v>27.63716229088663</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.011791593962901</v>
+        <v>5.981862715118552</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.20013563289891</v>
+        <v>14.03981884544339</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-0.8402221804707679</v>
+        <v>7.206440523603007</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.48407727258093</v>
+        <v>17.30147430636477</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.53509936881738</v>
+        <v>20.68577981312953</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.31893381790312</v>
+        <v>23.01945305955309</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1.786480764576421</v>
+        <v>5.639905624378393</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.22475443663301</v>
+        <v>11.97606081978256</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.93582587071229</v>
+        <v>12.64774341001422</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.97099309906549</v>
+        <v>15.91898077260369</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.463026509810494</v>
+        <v>14.16365963462627</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.13857826834366</v>
+        <v>22.39282043254176</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.23672212003281</v>
+        <v>21.64406213726223</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.3046772893471</v>
+        <v>27.61151976410226</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.19148403631484</v>
+        <v>22.90871291558319</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.37438415055844</v>
+        <v>31.28570205344039</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.485811273075061</v>
+        <v>15.59678657500736</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.63977352686911</v>
+        <v>34.21831750830559</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>50.35643539625545</v>
+        <v>49.75884866167624</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>54.69701052532808</v>
+        <v>54.26250183744349</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.10698507345761</v>
+        <v>16.18540602156672</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.38607541701433</v>
+        <v>28.13039393967161</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>5.800666784376943</v>
+        <v>13.26041358282426</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.67319233467698</v>
+        <v>32.17873843804585</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>49.27045230767632</v>
+        <v>43.6912370400232</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>54.30653922202484</v>
+        <v>50.30724758088252</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.00174929435727</v>
+        <v>10.44436475343111</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.8895993583496</v>
+        <v>20.51102495060495</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>7.363257187157618</v>
+        <v>12.63279305733066</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.52644020817264</v>
+        <v>31.41952319438369</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.33527172523301</v>
+        <v>37.17291738885132</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>48.08664212241797</v>
+        <v>43.61245150421167</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1.220770889475524</v>
+        <v>10.58480955194095</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>5.810511161362978</v>
+        <v>9.922642797213779</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.922211015168173</v>
+        <v>7.518114678885226</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>4.606333654025558</v>
+        <v>6.064362636063876</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-0.1615796046248583</v>
+        <v>8.543996840846635</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.170306957389837</v>
+        <v>8.978043497972212</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-3.043748726033431</v>
+        <v>7.930164948227151</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>6.163393671360907</v>
+        <v>9.540962801225653</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.25207274049949</v>
+        <v>10.35570392531303</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>12.63666284724024</v>
+        <v>9.675343229973485</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-4.909098638904108</v>
+        <v>4.962450904525326</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>6.180153147031252</v>
+        <v>10.15912588115454</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-5.150875849970543</v>
+        <v>8.150205262013888</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.717664590570688</v>
+        <v>9.759002581306298</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>11.51540062137629</v>
+        <v>9.563702221327873</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.49865896194017</v>
+        <v>9.816180363043941</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-7.399427813393295</v>
+        <v>4.657543419323002</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>3.853498395490263</v>
+        <v>7.318515485998788</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-4.804737851029117</v>
+        <v>5.973966444075398</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>3.583148067908482</v>
+        <v>6.867915574892812</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>7.528696393767738</v>
+        <v>5.185002535800699</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.22709185039932</v>
+        <v>7.829108269738448</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-5.111589208548985</v>
+        <v>4.525190091003015</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2.665142165851467</v>
+        <v>6.257728844755551</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>4.192595755044266</v>
+        <v>7.593233102328217</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>6.545949134558565</v>
+        <v>7.049844720569386</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.506155826253366</v>
+        <v>15.04404170751025</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.55533939671961</v>
+        <v>19.40371406370419</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.55769332977105</v>
+        <v>16.50450385965985</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.44064334588105</v>
+        <v>18.80073620615082</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.52548629409829</v>
+        <v>11.60315033397315</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>17.75744942134996</v>
+        <v>13.28701846606538</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>7.234253181167094</v>
+        <v>16.28637944848877</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.68420012794003</v>
+        <v>27.16383264284687</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.84884738281733</v>
+        <v>39.02797032243269</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.28734464631826</v>
+        <v>40.49073461603343</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>9.922403880212746</v>
+        <v>5.838234556196202</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.02620211644102</v>
+        <v>10.2709683524109</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>4.888665009456421</v>
+        <v>15.41913219258729</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.84383503579761</v>
+        <v>25.90401831123241</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.87069641563139</v>
+        <v>35.20871916775924</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>41.93897039617048</v>
+        <v>38.64932765522796</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>4.463516117292283</v>
+        <v>3.539513113718687</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.97344442001659</v>
+        <v>7.601656059506212</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.461154488844741</v>
+        <v>14.5175835210887</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.53241028207153</v>
+        <v>26.61234592285771</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.68892521080042</v>
+        <v>30.25623343817022</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.06931776623666</v>
+        <v>33.2749967451305</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.68270301040265</v>
+        <v>17.00668572230416</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.48698411201169</v>
+        <v>27.20448048047402</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.90275565750594</v>
+        <v>24.21845069292062</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.5140090122147</v>
+        <v>27.68384123150907</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.182853643483295</v>
+        <v>20.72657266120638</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.41895221178336</v>
+        <v>24.28760650674134</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>8.417139448275609</v>
+        <v>18.60215953646106</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.71501356981311</v>
+        <v>35.33061159136298</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>45.28574705453217</v>
+        <v>51.0973137027713</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>47.02490998602488</v>
+        <v>51.68402980127645</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>6.649637796389598</v>
+        <v>14.6491250789616</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.03642296681211</v>
+        <v>30.40077865038899</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>5.330104535150046</v>
+        <v>18.88571399569595</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.07047068582705</v>
+        <v>35.76671878280752</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>45.33407315342833</v>
+        <v>47.36283428686742</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>47.86658252852118</v>
+        <v>50.13816841183453</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>3.067340815621414</v>
+        <v>13.0265397561593</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.2488268141003</v>
+        <v>26.14011053593021</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2.420539544226024</v>
+        <v>10.65372994767744</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.01700096405588</v>
+        <v>25.44704757240802</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.84195105202944</v>
+        <v>29.06817671821736</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.07794304881931</v>
+        <v>36.40323129167465</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.386834177680452</v>
+        <v>12.13939456564919</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.34669556609376</v>
+        <v>23.08658466538329</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>18.37596872650894</v>
+        <v>14.56111102932737</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.27880101234813</v>
+        <v>14.65284795070078</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.593361604129715</v>
+        <v>20.9890611744517</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.56426305387301</v>
+        <v>28.56799089069953</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.64723178399275</v>
+        <v>21.28518702990154</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.56889406552416</v>
+        <v>23.95584536705447</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.24230363941308</v>
+        <v>41.62816978467134</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.21866423561857</v>
+        <v>42.62394108077694</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>11.16411675724397</v>
+        <v>22.04427630475855</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.23782179386389</v>
+        <v>46.97145946260254</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>63.306593319973</v>
+        <v>65.69888045727814</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>68.47283692447428</v>
+        <v>65.63482821960979</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.49411055375156</v>
+        <v>33.8208949968663</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>47.09859389949474</v>
+        <v>41.48517594560965</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.523873497828436</v>
+        <v>19.30032752338307</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.88219828224948</v>
+        <v>42.89531241380512</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>63.23169573307945</v>
+        <v>58.60201692966086</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>69.86277293055892</v>
+        <v>64.18878584411561</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.1697941378512</v>
+        <v>19.24491021747693</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.48516416738882</v>
+        <v>30.23188765897166</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.663282707192099</v>
+        <v>17.92676074782014</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.75854877734462</v>
+        <v>39.46374275446874</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.91238201584699</v>
+        <v>44.81079380904649</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.80410497599809</v>
+        <v>54.7307264354492</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>15.52141550054509</v>
+        <v>17.33866627480949</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.48241250918149</v>
+        <v>36.95735667980045</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>37.3185038469188</v>
+        <v>40.74421872578737</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>40.31752783188496</v>
+        <v>42.76448910514188</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.38509459297548</v>
+        <v>16.36241514128257</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.03456779002163</v>
+        <v>28.59341707063107</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>11.96836819793675</v>
+        <v>15.52662802834764</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.02101682238388</v>
+        <v>38.39874477166866</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>52.46479618064603</v>
+        <v>52.36272371919084</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.56347261475267</v>
+        <v>53.35481301541519</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.522094296205371</v>
+        <v>13.58969446093158</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.83050880389138</v>
+        <v>35.68970970151405</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>8.9810654020015</v>
+        <v>13.64952915709321</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.69316241038872</v>
+        <v>36.05453497329469</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>51.29167672674657</v>
+        <v>49.09818106924079</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.9919783495696</v>
+        <v>51.02185499937242</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>5.290038749654752</v>
+        <v>12.03558866110169</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.66075828938578</v>
+        <v>30.75436035795127</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.546262742104622</v>
+        <v>12.24134018905151</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.78987276915641</v>
+        <v>35.73635286086315</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.7383673078852</v>
+        <v>49.61985295653766</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>49.93654290193498</v>
+        <v>53.98019007455841</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.573962081818536</v>
+        <v>11.98436174906334</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.76857203220283</v>
+        <v>26.78793900206495</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.73755600199562</v>
+        <v>30.41579377164466</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.55290074104401</v>
+        <v>31.75702710498183</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.12831348159453</v>
+        <v>16.37668213493215</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.0157034954539</v>
+        <v>27.65040443279826</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.92117976009639</v>
+        <v>30.33414972743537</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.43579123136264</v>
+        <v>39.54558347573101</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.33144477378579</v>
+        <v>46.5816446494066</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>54.20963290642321</v>
+        <v>49.29381197414776</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.22477829098774</v>
+        <v>15.73204699142554</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.82610954182297</v>
+        <v>42.15833463427064</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>60.10795479600884</v>
+        <v>57.58105174104482</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>66.08383551122748</v>
+        <v>61.56453499697059</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.94883960049731</v>
+        <v>38.86659274486294</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>52.09005675163135</v>
+        <v>46.79081030081548</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.147758910791516</v>
+        <v>13.25562967160955</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.27260352434456</v>
+        <v>38.53725263580285</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>58.17849093255413</v>
+        <v>50.18394874167303</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>65.05023652799225</v>
+        <v>57.5371337734157</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.84546031243802</v>
+        <v>30.04569039044975</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.02539587412024</v>
+        <v>39.40167453146675</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>8.795982329535157</v>
+        <v>14.73500699996602</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.04693088530173</v>
+        <v>35.25245346546007</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.93995691456281</v>
+        <v>44.49924733202712</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>59.00466636158558</v>
+        <v>56.32440769763872</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>10.44182275777663</v>
+        <v>13.67012511626858</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.68851303838179</v>
+        <v>37.13422438921754</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.98641514278633</v>
+        <v>34.38128203420338</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>35.24300279312477</v>
+        <v>36.6793570995009</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.21717763143869</v>
+        <v>21.0215912306759</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.23647371737537</v>
+        <v>32.57127111332085</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>7.436958632918692</v>
+        <v>12.03460535196223</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.90347701388897</v>
+        <v>39.71142058518112</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>55.07871850896525</v>
+        <v>52.56145934979838</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.34196930914049</v>
+        <v>51.83683305503723</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>6.54441674876999</v>
+        <v>13.319683691488</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.47732084590341</v>
+        <v>38.44090240803602</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>4.504606234846403</v>
+        <v>10.12866413862593</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.44990211105343</v>
+        <v>37.85324340948826</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>55.62570043955434</v>
+        <v>50.41185004955751</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>57.62804626454277</v>
+        <v>51.40253246781543</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>2.93423806218599</v>
+        <v>10.26505553934398</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.70369988826946</v>
+        <v>33.6546030992609</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>3.786360780576292</v>
+        <v>6.551202772107374</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.73530553061094</v>
+        <v>36.14076450316858</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>45.62127245865388</v>
+        <v>50.20689735262859</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>50.29908841741735</v>
+        <v>53.65404414715483</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.68090975845244</v>
+        <v>10.98794903646531</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.03684309020887</v>
+        <v>31.77552480987407</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.14741242128084</v>
+        <v>30.68233310935906</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.63401742302165</v>
+        <v>32.17797911925307</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>6.326226294626171</v>
+        <v>18.51927816976255</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.84756033696567</v>
+        <v>30.32512974889347</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.25500617448783</v>
+        <v>31.68422585840461</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.9658088987555</v>
+        <v>38.5931522403657</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.49330611877029</v>
+        <v>53.55072151812391</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>60.49057627180993</v>
+        <v>54.72984386765879</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>6.815625228627102</v>
+        <v>15.7389677783617</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.22264645008767</v>
+        <v>46.19759835017631</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>69.20498848951176</v>
+        <v>64.47937831815733</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>74.41396873641996</v>
+        <v>65.32377513948558</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.65134497549369</v>
+        <v>43.81720520067404</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.12232460892288</v>
+        <v>50.25946434227829</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>3.947180497028718</v>
+        <v>13.04169755855284</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.66532388360551</v>
+        <v>42.59174970535453</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>68.81609731828563</v>
+        <v>56.59905266784188</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>75.21748461487522</v>
+        <v>61.6127717972653</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.00792287152681</v>
+        <v>34.88449648792392</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>49.53190632633986</v>
+        <v>44.10904770940289</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>6.789846034824873</v>
+        <v>13.19209794129769</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.93918037291797</v>
+        <v>40.56691167972802</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>56.68896884874908</v>
+        <v>52.93389372671444</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>68.79662175969257</v>
+        <v>62.38054759226019</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.93695022317465</v>
+        <v>17.58612839428171</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.78729211743675</v>
+        <v>34.44163191023763</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.31666540374166</v>
+        <v>35.38915428161249</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.66721510178233</v>
+        <v>36.4182622687483</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.91480449272941</v>
+        <v>25.27046264701165</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.23469211292621</v>
+        <v>35.336726618385</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.81568715419875</v>
+        <v>14.10828630423479</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.25911845336088</v>
+        <v>39.06949391951016</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.48535456559814</v>
+        <v>57.61222324263446</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.11029223671829</v>
+        <v>56.37753316503868</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.10877899170631</v>
+        <v>17.95329168731435</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>37.05806491230582</v>
+        <v>38.77672620822525</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>8.632907248603306</v>
+        <v>14.60252825000913</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.56962159511419</v>
+        <v>41.2021945516924</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>54.30559764257403</v>
+        <v>56.30724962889353</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>55.671807886467</v>
+        <v>56.8461516272931</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.984958634709951</v>
+        <v>16.54022040422734</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.82101705983823</v>
+        <v>35.83797226551243</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>7.658924840344149</v>
+        <v>10.51498042302822</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.72336305002279</v>
+        <v>38.67940483535973</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.16353401609256</v>
+        <v>55.78646608635907</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>47.73869107533895</v>
+        <v>56.72604775277372</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>11.44953550002201</v>
+        <v>16.00760565320884</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.64744900536606</v>
+        <v>36.82069890859407</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.27385391608347</v>
+        <v>33.66877997763243</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>38.50954215330943</v>
+        <v>33.74995977441455</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.907637705384733</v>
+        <v>21.9618697781233</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.79851922643605</v>
+        <v>32.44473529047146</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.18729992260679</v>
+        <v>34.79653772478878</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.196634746508</v>
+        <v>38.5717644430916</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>53.88099038677858</v>
+        <v>53.83707721820291</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>61.10904240503743</v>
+        <v>56.89484404076218</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>11.91955526906163</v>
+        <v>19.45002508024539</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.82691031638599</v>
+        <v>46.70903176831929</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>68.89467122524832</v>
+        <v>68.0389234462111</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>74.30550752655428</v>
+        <v>67.33214794405022</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.73462363746793</v>
+        <v>47.60267787391284</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>60.24549282396536</v>
+        <v>55.19450305131913</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>9.768809358888879</v>
+        <v>18.65052292779701</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.82265195525062</v>
+        <v>45.06811688429325</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>68.98381575241866</v>
+        <v>63.08501073366159</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>75.64130634134207</v>
+        <v>65.91228329319671</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.58301879582839</v>
+        <v>41.18885857262418</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>51.51397631023178</v>
+        <v>48.01944470493001</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.56073870079676</v>
+        <v>18.6690415662651</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.91482073512601</v>
+        <v>44.13031925348254</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>56.92577833754342</v>
+        <v>60.48755679448385</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>68.54840324995308</v>
+        <v>66.98435805365098</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.275442267354006</v>
+        <v>14.18856893972324</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.57809634230355</v>
+        <v>29.44188047424387</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.24839542870602</v>
+        <v>26.16221836196337</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.54243414149292</v>
+        <v>30.59160143975125</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>6.342165474713703</v>
+        <v>14.42834585697219</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.71759462467784</v>
+        <v>27.35492523257402</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>6.932658691389488</v>
+        <v>13.7312267766465</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.74245053844959</v>
+        <v>39.13808886384454</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>52.31242742692569</v>
+        <v>49.60075505239675</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>53.99837228024951</v>
+        <v>50.91252598287168</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>5.08472993341422</v>
+        <v>11.23281954602203</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.73596501020214</v>
+        <v>36.34257745223869</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>4.244015316596016</v>
+        <v>11.61646589710566</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.06005590745391</v>
+        <v>36.21521049557106</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.57394597690682</v>
+        <v>46.82895624413649</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>54.90941784043573</v>
+        <v>49.92512151149248</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>2.123429405974694</v>
+        <v>9.821464428665735</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.11622636308911</v>
+        <v>31.65831283370718</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2.784023156536374</v>
+        <v>9.029870807652053</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.64368436159481</v>
+        <v>28.02102939609283</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.18286683908195</v>
+        <v>35.51046490071356</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.02223279101665</v>
+        <v>46.41472282485304</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>2.163994010930679</v>
+        <v>8.882294306395615</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.56369537571895</v>
+        <v>26.58830493551359</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.61365073806265</v>
+        <v>26.4449759191264</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.89331178774432</v>
+        <v>27.11433603148447</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>5.090312306998559</v>
+        <v>14.48866487890461</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.21478542624902</v>
+        <v>25.42512022498405</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.43262153248651</v>
+        <v>25.80955670222457</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.92210008717934</v>
+        <v>32.22716022787201</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>50.44166402311031</v>
+        <v>47.39957230317313</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>53.67232793555634</v>
+        <v>47.57748178308887</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>7.344331670070524</v>
+        <v>14.28217658310807</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.23830556099989</v>
+        <v>43.37147304915383</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>62.62842617693902</v>
+        <v>55.57898655429334</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>66.81315454125355</v>
+        <v>57.39949353176191</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.85825296382372</v>
+        <v>40.25266974350868</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>52.60383968434138</v>
+        <v>45.48566146257733</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4.447648075870653</v>
+        <v>12.55103520652356</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.2762865132101</v>
+        <v>40.16868143786264</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>61.50602474121366</v>
+        <v>50.17647236167819</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>66.88155423617758</v>
+        <v>56.28497488943066</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.92038367919949</v>
+        <v>28.70785290882099</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>41.0959078654172</v>
+        <v>36.4286856256596</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>4.838236181744119</v>
+        <v>11.91562639504687</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.07918934615227</v>
+        <v>34.23606459210328</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>46.50885249592794</v>
+        <v>40.75395402524209</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>58.38464529552397</v>
+        <v>52.21045012222729</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>6.098523161490203</v>
+        <v>13.117713059216</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.21850190111636</v>
+        <v>18.70504077161286</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.99238888801225</v>
+        <v>20.02818601087993</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>18.52821447972299</v>
+        <v>20.86997563527741</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.675723211606822</v>
+        <v>16.03733931972873</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.97543357682331</v>
+        <v>23.87878191800286</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>2.910910666999069</v>
+        <v>11.81455624081582</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.74332150433765</v>
+        <v>21.19113374709346</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.86856466415473</v>
+        <v>31.0360593736395</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.7987223195207</v>
+        <v>30.82754690565361</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>8.698486714739294</v>
+        <v>13.96532997440855</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.66333029194179</v>
+        <v>32.15492990124876</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>0.1719139573097017</v>
+        <v>10.62583389917816</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>18.02876103842437</v>
+        <v>19.92723453755695</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.25751110586758</v>
+        <v>27.24303011056436</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.89210779843085</v>
+        <v>28.70527265567466</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>5.81628460001339</v>
+        <v>10.30873762789001</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.19409506398054</v>
+        <v>24.29008850203882</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-0.5935319537363988</v>
+        <v>8.153919584879297</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>14.75930432226803</v>
+        <v>16.44973421463149</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.14409126127351</v>
+        <v>22.89655719394667</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.94359360808109</v>
+        <v>26.65902955691498</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>6.338686444202747</v>
+        <v>13.11154406368643</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.88078011855431</v>
+        <v>23.80679031220564</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.36590722643106</v>
+        <v>21.0680415628519</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.85480047579505</v>
+        <v>22.81276209574462</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.519395469823188</v>
+        <v>15.09879544589595</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.75501315156182</v>
+        <v>23.02734493957024</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.6331274301576</v>
+        <v>18.91285229330691</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.27434198428647</v>
+        <v>23.45372536548227</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.73469579147485</v>
+        <v>41.03822172272847</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.89002256575561</v>
+        <v>45.84427835321227</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>12.09168960417824</v>
+        <v>20.44333001162465</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.49181251215148</v>
+        <v>43.82360114122072</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>55.09331662675115</v>
+        <v>56.61206916573286</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>61.99919717721394</v>
+        <v>59.47313151157888</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.12900060332351</v>
+        <v>29.3648816794465</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>46.80972077981235</v>
+        <v>41.41272340573367</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>9.649761506590297</v>
+        <v>16.87635201099744</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.88499978785601</v>
+        <v>39.51216510428935</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>54.19963853918595</v>
+        <v>45.96963190274293</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>62.61551438559403</v>
+        <v>54.18554275571653</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.24199927243185</v>
+        <v>23.8223155047398</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>38.02326504889687</v>
+        <v>37.79455021315043</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>7.607804874679125</v>
+        <v>15.34009861554158</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.74371888636637</v>
+        <v>31.89816850027342</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>38.89650844149465</v>
+        <v>33.42831123141796</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>51.88473689908672</v>
+        <v>49.9481565876192</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>7.909222107711386</v>
+        <v>9.005643777474155</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.18068128824623</v>
+        <v>16.83698734809006</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.66807943412594</v>
+        <v>18.03265431341218</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.2271390277339</v>
+        <v>18.12203415786712</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.0597011051146</v>
+        <v>19.41940416778674</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.55987290954035</v>
+        <v>24.87220808255995</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>5.900630627969825</v>
+        <v>7.816813816989331</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.53356163182864</v>
+        <v>23.85227144405438</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>44.08527350698317</v>
+        <v>39.0981875324113</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>45.04153829492661</v>
+        <v>38.37226742291674</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>7.505284395185413</v>
+        <v>11.83656833061277</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.50753973083417</v>
+        <v>28.61065240652682</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>3.997528351853582</v>
+        <v>11.92173136938976</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.14695428660168</v>
+        <v>30.28306655843939</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>45.08464091748093</v>
+        <v>39.42614870848751</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.80236462887247</v>
+        <v>40.93524638817794</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>4.597572981639399</v>
+        <v>11.02946892467217</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.48303696629953</v>
+        <v>26.66272975260962</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>2.618429269112809</v>
+        <v>7.643197125278959</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.86772907944927</v>
+        <v>26.10311258459412</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.85480023649758</v>
+        <v>36.08233159782014</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.72185908607922</v>
+        <v>37.66493780604817</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>6.733222026224571</v>
+        <v>11.24860587133814</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.9099790717417</v>
+        <v>27.04398801886927</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>22.68326862354438</v>
+        <v>18.46991110936749</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.3079504562386</v>
+        <v>23.7257850142759</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>4.73492719346412</v>
+        <v>15.54954564761953</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>19.99987973844548</v>
+        <v>21.00441014345096</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.86903659108559</v>
+        <v>15.73190600981175</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.6629196359862</v>
+        <v>20.7127515359442</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>43.70356633620388</v>
+        <v>35.59780895501978</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>52.68745997379452</v>
+        <v>47.47109142142644</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>7.474648889774716</v>
+        <v>14.38175976730949</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.6461902736504</v>
+        <v>38.01599649817443</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>59.81033431847818</v>
+        <v>51.02236851869004</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>66.39383178035825</v>
+        <v>54.96941756751578</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.74926034294151</v>
+        <v>29.82286469352989</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>52.07098160882965</v>
+        <v>46.74369060252106</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.612468977052469</v>
+        <v>13.70941090934978</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.94461841904118</v>
+        <v>37.3694275813704</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>60.19216271587693</v>
+        <v>46.29854438969071</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>68.09505017647038</v>
+        <v>54.31971436175176</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.68855894729548</v>
+        <v>25.36829600299045</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.30295476621349</v>
+        <v>40.62835054021844</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>6.595303569804955</v>
+        <v>12.72907975092918</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.18309565699469</v>
+        <v>32.58160921982829</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>47.34621685635058</v>
+        <v>38.14644581005484</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>60.07668044258499</v>
+        <v>50.52805705434605</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>13.08015109128511</v>
+        <v>17.69061389797343</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.2226064082132</v>
+        <v>38.56240365435506</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>41.75915561924694</v>
+        <v>39.56540717506526</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.41137566461585</v>
+        <v>40.71005049957702</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>10.96857401746464</v>
+        <v>18.26856228828741</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.45071970187771</v>
+        <v>31.53603392578931</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>9.523754221867454</v>
+        <v>14.9930248666842</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>40.12614960470665</v>
+        <v>39.38488221688955</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>59.57460974309362</v>
+        <v>55.81157199709014</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>59.11413471283645</v>
+        <v>55.47111867202674</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>9.269646484100496</v>
+        <v>15.04535190359578</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.55953665378046</v>
+        <v>36.83465018321303</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>6.889701094377656</v>
+        <v>12.83707958776019</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>38.53888424591354</v>
+        <v>37.98554050626333</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>59.9182888227766</v>
+        <v>52.33153499451237</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>59.91191141146948</v>
+        <v>53.12635926894898</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>6.919838551885217</v>
+        <v>14.46991186990031</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.77747485409681</v>
+        <v>34.87632857926918</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>5.920223039705409</v>
+        <v>8.835502637703048</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.56650360041141</v>
+        <v>36.21184364035137</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>52.28406909844417</v>
+        <v>50.46817574083487</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>54.28228101532618</v>
+        <v>53.76499007586791</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>8.071456717344915</v>
+        <v>13.52698287624029</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.04559186696525</v>
+        <v>34.6809430458048</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.67163640439904</v>
+        <v>33.2591662933195</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.57791597592158</v>
+        <v>33.16549373376893</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>8.097572984570547</v>
+        <v>16.69193253984713</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.92145796852702</v>
+        <v>30.38764752738836</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.26622926316742</v>
+        <v>33.80107316393099</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>43.12083374841865</v>
+        <v>40.80141093228943</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>55.49180422404371</v>
+        <v>52.09185311818756</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>58.58104880523726</v>
+        <v>51.79075466009462</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>10.52849699004694</v>
+        <v>16.95477095534416</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>45.16805316650888</v>
+        <v>44.76661411981253</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>68.84494792693521</v>
+        <v>64.90905890548432</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>70.81395292843933</v>
+        <v>65.36227551493792</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>52.89744438439826</v>
+        <v>47.87452771964053</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>57.91396408099348</v>
+        <v>50.76305067218306</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>8.792770683206706</v>
+        <v>16.10649990001098</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.38960588433729</v>
+        <v>44.58294106302549</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>69.07227742384121</v>
+        <v>60.99674528900729</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>71.78278778073869</v>
+        <v>62.7805064036078</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>42.20704980601243</v>
+        <v>40.94220381115189</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>49.18337336641234</v>
+        <v>44.40881413929979</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>9.892723405813401</v>
+        <v>15.58827349420913</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>41.8013390393772</v>
+        <v>42.70449570343025</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>57.6968009064407</v>
+        <v>54.09980288344412</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>65.14550080286541</v>
+        <v>60.00562791910623</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>5.681913402961484</v>
+        <v>10.59337331678118</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>27.08018605900968</v>
+        <v>24.67477659541507</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.90873312565576</v>
+        <v>23.99059590583677</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>32.56102899147758</v>
+        <v>27.06747545209742</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>5.91411572543382</v>
+        <v>14.24448688899179</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.26333125346607</v>
+        <v>26.59884647198288</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>5.389937863284281</v>
+        <v>13.0910030659379</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>36.42874134370729</v>
+        <v>37.75938691283773</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>52.63251952686487</v>
+        <v>48.77844556033221</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>53.66007598167833</v>
+        <v>48.43609442820572</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>4.538920225359412</v>
+        <v>10.95227664377008</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>35.05413758795685</v>
+        <v>35.5806476082096</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>3.215682960353426</v>
+        <v>11.94331801391239</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>35.32786754534351</v>
+        <v>36.50432882661492</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>53.34780864037958</v>
+        <v>47.37718068452917</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>55.08224791116119</v>
+        <v>48.31873229960512</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>1.844705455988251</v>
+        <v>9.711117337999852</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.78105724680202</v>
+        <v>31.43977517897066</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1.178750064183109</v>
+        <v>8.538939035568291</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.35593705166915</v>
+        <v>28.66088781969218</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>42.96057948423433</v>
+        <v>38.15854853845542</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>48.16907184896424</v>
+        <v>44.83789469929488</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>2.150039908363809</v>
+        <v>8.961929880147117</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>26.64329426777872</v>
+        <v>26.388917410469</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>26.86038036408949</v>
+        <v>27.70104519956531</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>30.92451656003686</v>
+        <v>29.95848574820275</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>4.208605071014759</v>
+        <v>13.52256573732623</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>22.70491683793956</v>
+        <v>23.1618012199646</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>26.68524645474109</v>
+        <v>23.3894591863639</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>35.6013763195554</v>
+        <v>30.50403444215152</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>49.87556303166753</v>
+        <v>47.65068166018366</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>53.84212115552787</v>
+        <v>48.76606015334085</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>6.485840496661051</v>
+        <v>15.0203956643502</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.64504309757653</v>
+        <v>42.59696717764872</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>60.3412374986687</v>
+        <v>55.74129682217352</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>65.08735253362586</v>
+        <v>58.18637011125921</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>46.58996830156546</v>
+        <v>40.71768989176146</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>52.95022383982766</v>
+        <v>46.47256688527084</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>3.861696012449425</v>
+        <v>13.43884644311291</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.99033236582937</v>
+        <v>39.55230449878127</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>59.49223681486797</v>
+        <v>50.00267222658542</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>65.4444471943504</v>
+        <v>56.77620778020625</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>32.53802153874852</v>
+        <v>30.24595223555405</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>42.32137134525451</v>
+        <v>39.03759820571568</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>4.244469810156652</v>
+        <v>10.96000105496434</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>33.82874430864202</v>
+        <v>30.82388182525046</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>44.72078708291573</v>
+        <v>36.63984044904036</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>57.22228345821441</v>
+        <v>49.85679218673802</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.837</v>
+        <v>16.696</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.711</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.31</v>
+        <v>14.98</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.973</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.512</v>
+        <v>6.413</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.638310284676393</v>
+        <v>3.33645100726376</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.80748075929929</v>
+        <v>15.67948682003312</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.09582614694795</v>
+        <v>17.64477802379601</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.08312310511189</v>
+        <v>19.36719067112061</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.2280964443257</v>
+        <v>15.92633859954461</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.76504212668645</v>
+        <v>28.40041234116872</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.885004161224536</v>
+        <v>-7.222027017174593</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.84805304277049</v>
+        <v>18.78488402404877</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.27715243199372</v>
+        <v>39.46033919401832</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.60459036875731</v>
+        <v>38.9605624885394</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.17799105600166</v>
+        <v>1.680024996040974</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.09105502597783</v>
+        <v>34.03164527789905</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.150863297158335</v>
+        <v>-10.27094388660777</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.69484781185101</v>
+        <v>15.40389092460059</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.69722428411188</v>
+        <v>34.37817113081703</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.34368369838088</v>
+        <v>36.10329043667545</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.3754752697634</v>
+        <v>-6.020999233826618</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.68118547066098</v>
+        <v>24.49298535761351</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.682924100540532</v>
+        <v>-13.08219905827944</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.38544470090935</v>
+        <v>10.11241804682343</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.98469870773477</v>
+        <v>26.24379942650075</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.08053066298147</v>
+        <v>31.65671631205277</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.66279309803225</v>
+        <v>-2.111044386517221</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.11705531717361</v>
+        <v>22.40371316655868</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.78743630467968</v>
+        <v>25.44141189021826</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.80705939423483</v>
+        <v>31.40641811238052</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.50008572132271</v>
+        <v>9.276324921767944</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.29308008686425</v>
+        <v>25.18472566318827</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.68662454600373</v>
+        <v>26.94984410823265</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.2191581082256</v>
+        <v>34.85619587910151</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.60853234345624</v>
+        <v>54.86643583542654</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>57.86871259777055</v>
+        <v>64.38679995492619</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.41582628185741</v>
+        <v>2.334892281242306</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.84257605912275</v>
+        <v>42.95886805526672</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>65.72810714417535</v>
+        <v>74.78928022599274</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>67.7135962014754</v>
+        <v>82.160365265122</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.60906867462397</v>
+        <v>43.88343941495001</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.79171961953253</v>
+        <v>60.5219457104569</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.9135150838522</v>
+        <v>-4.457559807347334</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.33123675475034</v>
+        <v>38.00543409774564</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>56.61244951895789</v>
+        <v>68.07933206503752</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>64.31334942190729</v>
+        <v>80.76831583224644</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.02199999756166</v>
+        <v>32.88826275006309</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>46.09186461660593</v>
+        <v>52.47021856987351</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16.84755316665697</v>
+        <v>-0.8379142061442231</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.45166325354436</v>
+        <v>36.69358660667707</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>51.92338265107363</v>
+        <v>57.78481628381297</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>62.87963769757518</v>
+        <v>74.60067373791227</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.42041551328654</v>
+        <v>1.844742907967035</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.26480588106252</v>
+        <v>39.05601188600072</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.02006751390329</v>
+        <v>41.76083934047529</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>39.58910751307738</v>
+        <v>45.78039140781101</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15.43810548820696</v>
+        <v>2.735361493993985</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.44509598885362</v>
+        <v>29.57076359502003</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>13.26394469519273</v>
+        <v>-4.55570754324685</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.56517377638271</v>
+        <v>43.03745995316</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.56120656878277</v>
+        <v>61.44015486164987</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50.94873685444716</v>
+        <v>62.30896776350508</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12.98398492631452</v>
+        <v>-5.123787593421987</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.13866705807041</v>
+        <v>38.50491174311124</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.54942287404622</v>
+        <v>-8.066700592395673</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.66005379212955</v>
+        <v>38.39835796918452</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>50.04905853463811</v>
+        <v>57.8902175440283</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>49.06618456605866</v>
+        <v>60.27320232504965</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.47394991274582</v>
+        <v>-11.23562230499675</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.15197869424372</v>
+        <v>29.92676796645118</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.070876621644206</v>
+        <v>-11.27728904749117</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.53804276141925</v>
+        <v>34.63049425713032</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.71337482653979</v>
+        <v>54.40717138925189</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.25910813559742</v>
+        <v>61.16005722817262</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10.96287872140231</v>
+        <v>-11.66682368125425</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.0370040400698</v>
+        <v>23.28781957423227</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.46255978092012</v>
+        <v>36.84354366977887</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.36683103079537</v>
+        <v>44.57468503438437</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15.74594645365115</v>
+        <v>1.340282697523879</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.84153193609494</v>
+        <v>30.35757784309847</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.77750136034123</v>
+        <v>39.23324910138466</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>44.68721838615077</v>
+        <v>55.45086450260895</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.74643178288914</v>
+        <v>63.19763283406259</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>56.32875433246863</v>
+        <v>71.44909044815839</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.44608798374933</v>
+        <v>-4.976268694133672</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>49.93895942128505</v>
+        <v>47.70713579345389</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>63.79900630362182</v>
+        <v>77.67397729623841</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>65.75737434032999</v>
+        <v>84.41675996767235</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43.70784068221325</v>
+        <v>53.45751939227894</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.32464956913721</v>
+        <v>67.30022179282074</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.85704510754344</v>
+        <v>-11.45287935663239</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>46.62313623542134</v>
+        <v>42.58445792313387</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>57.75140846144163</v>
+        <v>70.94911361129871</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>61.96890829482346</v>
+        <v>79.86332085256531</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.72360957453994</v>
+        <v>40.57809543714046</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>48.3018613861403</v>
+        <v>58.68724094351413</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>12.49886685846195</v>
+        <v>-11.02398043763872</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.01585632334268</v>
+        <v>37.09316030690152</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>53.43160040555323</v>
+        <v>61.55183777489081</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>62.92929524531695</v>
+        <v>78.82837349724461</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.84081111163269</v>
+        <v>5.04524107848669</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.55263833741543</v>
+        <v>34.00457117272392</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.47259189992218</v>
+        <v>38.86437258493828</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.86162160106595</v>
+        <v>40.85623931437135</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>16.45023455520688</v>
+        <v>6.173642350702313</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.55369258874652</v>
+        <v>33.10548565298195</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.60021626777044</v>
+        <v>0.2752337053895637</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.16180783262806</v>
+        <v>40.89525558115972</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>56.53926169989192</v>
+        <v>60.47254169192145</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>53.76551072338759</v>
+        <v>59.94714279335858</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>13.827941530046</v>
+        <v>-1.03097699102408</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.27131688788715</v>
+        <v>43.64837267419537</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.90803877676431</v>
+        <v>-3.092496407867767</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.14822356350928</v>
+        <v>37.09328996993371</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.29724205894173</v>
+        <v>57.1607273584311</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>50.08463408618626</v>
+        <v>58.14768094167977</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12.03746883320312</v>
+        <v>-6.199461700764346</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.97054913702496</v>
+        <v>36.6973493252563</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>11.10876991835108</v>
+        <v>-6.56196061469165</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.94489749113852</v>
+        <v>32.46306742375875</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.13451031434142</v>
+        <v>53.74032303547096</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>51.68494210114935</v>
+        <v>58.38719336052695</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12.03030428116104</v>
+        <v>-5.862099554081102</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.11639547927368</v>
+        <v>31.09012284287397</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>39.43605188075353</v>
+        <v>44.76546485160971</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.85638706935707</v>
+        <v>47.82245832118979</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>17.66959535402276</v>
+        <v>2.698197469328775</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.61913576800421</v>
+        <v>32.87073439722206</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.83818653180377</v>
+        <v>46.22971690305805</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.88206850228195</v>
+        <v>57.4205089702066</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>61.15924480704525</v>
+        <v>72.85374344708305</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>63.30868894951736</v>
+        <v>76.28241358249213</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16.88176939550684</v>
+        <v>-2.907834375951751</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.31376601177912</v>
+        <v>51.91455078297842</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.36286469003186</v>
+        <v>86.57883137664622</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>73.79174308197122</v>
+        <v>88.29218584892384</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>54.33178450257144</v>
+        <v>64.61503636144474</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>60.10433949796351</v>
+        <v>73.14439378735059</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>14.35951311695669</v>
+        <v>-8.751892710477218</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>49.45131242651524</v>
+        <v>48.20683744553802</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>67.89527992940263</v>
+        <v>81.16672229219061</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>69.36818912684876</v>
+        <v>84.54777609063373</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.87192085499038</v>
+        <v>52.77375315240015</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>51.67846336713508</v>
+        <v>64.68500293485519</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>15.63075459978881</v>
+        <v>-7.440803583387368</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>48.31021960559555</v>
+        <v>43.97799067153682</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.13958030108759</v>
+        <v>73.10824205708177</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>67.73259876676538</v>
+        <v>83.72597709189685</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.59385578735753</v>
+        <v>8.12069770253396</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.80936358735158</v>
+        <v>16.41491148743534</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.44978923519847</v>
+        <v>24.68296768530271</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.74290594033249</v>
+        <v>26.46367825668255</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>20.83262196585853</v>
+        <v>17.22734172084934</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.76019022191936</v>
+        <v>25.74669034876703</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.34100855845438</v>
+        <v>-0.6426665435870582</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>21.2790877439221</v>
+        <v>20.79954462160084</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.87124125697915</v>
+        <v>45.48483451514781</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>45.44256604230979</v>
+        <v>44.95936042987499</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>14.86951643232533</v>
+        <v>6.433773017043071</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.944846601763</v>
+        <v>33.62426611744515</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>10.01582857565106</v>
+        <v>-3.144002168148209</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.95139262070082</v>
+        <v>18.00267440111185</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.28279608613629</v>
+        <v>40.0931000774157</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.68437639301932</v>
+        <v>41.49064918519834</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.79277890517889</v>
+        <v>-0.4674101253097689</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.54644021662519</v>
+        <v>24.83633096077399</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.892409880029376</v>
+        <v>-6.588256732199518</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18.37548975696866</v>
+        <v>12.23803556308665</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>37.19461657963494</v>
+        <v>31.75058973535643</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>40.03349140397185</v>
+        <v>36.82434559517688</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.98159728938066</v>
+        <v>0.09294466324578465</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.99248720269126</v>
+        <v>19.92691716173962</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.01335850744417</v>
+        <v>20.12578541083737</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.2529497871577</v>
+        <v>26.85765729005722</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.31077733186063</v>
+        <v>9.798676831217318</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.88361123027025</v>
+        <v>20.84584751943048</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>23.65929654566417</v>
+        <v>22.60635865777919</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.05700677342984</v>
+        <v>32.42281936512408</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.90102431384715</v>
+        <v>51.50749997814927</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>57.87041230796883</v>
+        <v>61.97116487248562</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.60794527095508</v>
+        <v>6.838880942176756</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.18323119988496</v>
+        <v>40.57127307949418</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.93292422111833</v>
+        <v>72.35883043400796</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>69.62525429246659</v>
+        <v>82.71593821462028</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.14412628880076</v>
+        <v>41.40753839081961</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>53.00231823004614</v>
+        <v>58.3158432387463</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>17.68513225902096</v>
+        <v>0.551697895825658</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.49425483463681</v>
+        <v>35.63446942690237</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>54.58748204692959</v>
+        <v>65.69794679359394</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>65.47830679546986</v>
+        <v>80.96364833620925</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.49221583011597</v>
+        <v>26.94709383121893</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.54596331660365</v>
+        <v>46.05843109347151</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>15.9556767786023</v>
+        <v>-0.02887969480922337</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.6010394220767</v>
+        <v>31.11254665112813</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.90270563314533</v>
+        <v>51.68966816211974</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>58.89758088452959</v>
+        <v>69.69811544704932</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.480998546565104</v>
+        <v>6.47521724142304</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.02855702200317</v>
+        <v>33.52110552154435</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.96353447906746</v>
+        <v>38.93153972707118</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.96686565076439</v>
+        <v>40.50314887354791</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.06720366365663</v>
+        <v>14.27093009608263</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.66567740422491</v>
+        <v>37.11444612207829</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.66302530103499</v>
+        <v>0.834341102819625</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.60692615468956</v>
+        <v>42.23106357555498</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>54.91032780115486</v>
+        <v>66.33900931879515</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>53.94984771054082</v>
+        <v>65.24755354990099</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.64391279335299</v>
+        <v>2.740956930477903</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.70120108038431</v>
+        <v>45.47291493898349</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>13.36998746631539</v>
+        <v>-0.4139009971402956</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>41.83442562422663</v>
+        <v>40.96930535005473</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>54.11435409685807</v>
+        <v>64.28280792688997</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>54.9386007560781</v>
+        <v>64.76296632597752</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.26848190804071</v>
+        <v>-3.075476383078932</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>40.45885322671835</v>
+        <v>38.43224181512178</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>11.87544832945623</v>
+        <v>-2.706569354309895</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.31849940142468</v>
+        <v>37.39178926434954</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>55.50271151405761</v>
+        <v>58.42203457229442</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>56.03677245842292</v>
+        <v>62.03154054641486</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>13.83445928631056</v>
+        <v>-1.141230222972279</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.59737206590911</v>
+        <v>35.72454119386725</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.11529477137294</v>
+        <v>47.27612055286728</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.9887972028281</v>
+        <v>49.14182717292016</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.2085068883924</v>
+        <v>8.537920358379374</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.90153597415455</v>
+        <v>30.77097981913058</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>40.6433195663822</v>
+        <v>41.90549131185961</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>45.95014623781137</v>
+        <v>48.86038937448822</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>68.95561452356021</v>
+        <v>80.5786068009797</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>70.13734923607132</v>
+        <v>83.5909511223434</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.39286660679623</v>
+        <v>0.3276614311626638</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.79266364503381</v>
+        <v>46.40194076653532</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>73.02056790652162</v>
+        <v>85.58865115753217</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>74.7303692250639</v>
+        <v>90.33071725133603</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>61.86760114548716</v>
+        <v>72.61945384133671</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.7882978162803</v>
+        <v>-5.484583824382607</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.19434513234461</v>
+        <v>42.44418139205361</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.81920549876824</v>
+        <v>80.03190481297455</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>71.78004861021353</v>
+        <v>88.75682718619198</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>53.30332948303035</v>
+        <v>60.5427548476391</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>57.09937397853125</v>
+        <v>72.05613469153992</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>15.7401608351971</v>
+        <v>-1.408463825907422</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>45.73289612298785</v>
+        <v>43.21383276562123</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>66.83751610461441</v>
+        <v>74.19154541750598</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>73.5758679845527</v>
+        <v>86.54243578157761</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.864594114524404</v>
+        <v>-2.082694174492268</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.33313481603779</v>
+        <v>36.86311902341383</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.5041890819447</v>
+        <v>40.02817736163169</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.89502079331636</v>
+        <v>41.26342805272328</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>18.19137238638296</v>
+        <v>3.960647658033476</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.76405753495669</v>
+        <v>40.61544285837267</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>12.84726603404618</v>
+        <v>-6.36194477359269</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>41.59263690827739</v>
+        <v>41.8501950719855</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>52.21945223186232</v>
+        <v>62.75682051541303</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.66135417306556</v>
+        <v>60.32490266484992</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.43875502048288</v>
+        <v>-4.591602628246243</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>47.32230717043261</v>
+        <v>48.95009530186846</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>10.54343974135082</v>
+        <v>-9.168290925281692</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>39.19707222414814</v>
+        <v>38.56221427057412</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>55.16510178648944</v>
+        <v>62.19617260295371</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>53.71259048033098</v>
+        <v>60.305934304291</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.24334788617872</v>
+        <v>-9.602453402428157</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.68508805208722</v>
+        <v>42.92609543890084</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.83219246845929</v>
+        <v>-10.08898126345525</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.47433539818254</v>
+        <v>39.5158250701116</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.39860744020059</v>
+        <v>61.41253344856149</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>59.06953366100586</v>
+        <v>62.93591560130433</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.6431027494799</v>
+        <v>-8.569080837162829</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.14460376148921</v>
+        <v>40.01466386798005</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.14788206803046</v>
+        <v>50.24708575972376</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>45.43159765365152</v>
+        <v>54.13624070118485</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.59115156933898</v>
+        <v>3.270386850359257</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.99331968079866</v>
+        <v>36.66542084860544</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.68084505545163</v>
+        <v>46.54989140835426</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>47.21881278870457</v>
+        <v>57.25483510625588</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.65858035786019</v>
+        <v>78.15071192565779</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>63.45120575669957</v>
+        <v>79.61088675375734</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.8878321932872</v>
+        <v>-2.510329077862803</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>64.07029362033394</v>
+        <v>82.55212116495427</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>65.28954708860897</v>
+        <v>84.6209247197918</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>58.28855523299082</v>
+        <v>71.78465792297223</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>61.02541542516722</v>
+        <v>76.83137104252668</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.43177061387595</v>
+        <v>-7.121620255867558</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>47.07102262469456</v>
+        <v>49.79324884866703</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>62.0734765532095</v>
+        <v>79.24865716112545</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>63.88369088875132</v>
+        <v>82.16381052969952</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.43605918722816</v>
+        <v>60.65496454932334</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>54.90455974614128</v>
+        <v>69.92106758660262</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.35095084083599</v>
+        <v>-5.185960650194303</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>47.923241764729</v>
+        <v>49.64580661279285</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>60.90548027473291</v>
+        <v>75.45578494363129</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>63.4259297326048</v>
+        <v>84.11754003813019</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>9.865753328878437</v>
+        <v>3.109181283976152</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>16.24038425446542</v>
+        <v>12.21140644545162</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.11211351165202</v>
+        <v>18.37479676463938</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.47127033188336</v>
+        <v>19.47621976459892</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.13343649836303</v>
+        <v>9.199589103656564</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.09153925904986</v>
+        <v>24.99910945790222</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>5.200479768237081</v>
+        <v>-5.724109098001243</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.18413837221209</v>
+        <v>11.85592719560357</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.63236430486636</v>
+        <v>32.65760078333427</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.45084320314561</v>
+        <v>33.20061398570022</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.47632658382837</v>
+        <v>0.3430643547051275</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.83326205747159</v>
+        <v>32.76433573706444</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1.586225522719033</v>
+        <v>-11.12411676086427</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>11.96397197941436</v>
+        <v>5.54602909185108</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.40594461219635</v>
+        <v>25.6039481976254</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.30257337536323</v>
+        <v>28.25019425617636</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.23254012266401</v>
+        <v>-6.491840635157192</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.98172066216877</v>
+        <v>23.65023412112952</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1.341684372583234</v>
+        <v>-15.04094484088993</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.57680197839809</v>
+        <v>1.603833368024873</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.62624291879859</v>
+        <v>20.23026498040069</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.20774595104503</v>
+        <v>24.60787416964848</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>11.66086463182233</v>
+        <v>-4.057099036605138</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.07790154134907</v>
+        <v>20.46905121743256</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.64710689983349</v>
+        <v>27.54802543809394</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.30668563432768</v>
+        <v>32.1677812018107</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>14.69405607293269</v>
+        <v>2.721676996503502</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.96928427051956</v>
+        <v>22.08581857272468</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>30.99627429685923</v>
+        <v>32.33053609675152</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.00198201438268</v>
+        <v>41.25610360222764</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.31569774594031</v>
+        <v>51.2048880256349</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>49.37633021476671</v>
+        <v>59.98800208483679</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.98828916074364</v>
+        <v>1.666291400706413</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.4172209626057</v>
+        <v>43.22381990683839</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>61.75220789161864</v>
+        <v>74.86246081209627</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>64.19986811952414</v>
+        <v>80.80906153375116</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.00868261662103</v>
+        <v>40.07115479294147</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>45.6964820991731</v>
+        <v>55.38637022376572</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.24201541277547</v>
+        <v>-3.733107477528907</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.8296022568167</v>
+        <v>39.8910333326638</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>55.04599223015217</v>
+        <v>69.29739006126017</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>60.07638585378122</v>
+        <v>78.83102790331922</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.55649220784411</v>
+        <v>31.17224165537807</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.16611096688964</v>
+        <v>47.43008166098929</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>15.53631538465086</v>
+        <v>-1.964425850133061</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>41.39221446297337</v>
+        <v>37.90291158517772</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>51.87021280342638</v>
+        <v>61.2400598607358</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.23466166245228</v>
+        <v>74.23624803148508</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>6.749266322455878</v>
+        <v>-1.086569035951403</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.56482088811614</v>
+        <v>8.160306054808814</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>12.53708023580132</v>
+        <v>8.360107294287475</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>12.30105289322875</v>
+        <v>11.58270394979952</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14.67973475062444</v>
+        <v>4.528307369339903</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.26246595371808</v>
+        <v>9.748996543582063</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>8.59546204510896</v>
+        <v>-11.25153480397392</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.00810466876005</v>
+        <v>10.27274717416248</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.89848238436403</v>
+        <v>24.90628504032578</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.0358204913728</v>
+        <v>25.61984701693284</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1.623350638240133</v>
+        <v>-12.82792739619705</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.10095082021344</v>
+        <v>10.41539228031312</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>5.431558173815301</v>
+        <v>-14.06796342120122</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>15.22522064996317</v>
+        <v>7.068875384473456</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.39890121302397</v>
+        <v>19.86735928215116</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>18.90961345807071</v>
+        <v>22.30946763590848</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.03080144217186387</v>
+        <v>-19.97990736337477</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>7.597498069761503</v>
+        <v>1.539495145361393</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1.002652860328435</v>
+        <v>-17.2490827501086</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>11.90481499098429</v>
+        <v>2.627281935182925</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.83066984827825</v>
+        <v>14.95318461866453</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.90250545552072</v>
+        <v>20.9737209806208</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2.7394827853938</v>
+        <v>-17.39254611106883</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.803735183516935</v>
+        <v>-0.7976237324963122</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.00126394519076</v>
+        <v>10.04533583581548</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.48882250863723</v>
+        <v>15.96694206040873</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.32451013323152</v>
+        <v>0.3110438170431635</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>9.193882751113538</v>
+        <v>7.494280804842997</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.94175587935535</v>
+        <v>10.15899526581224</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.59781435966491</v>
+        <v>25.89774161612275</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.14053276467348</v>
+        <v>31.67802873111122</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.22554135710831</v>
+        <v>39.96680269077097</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.026592960129452</v>
+        <v>-9.651905643205719</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.93073371423838</v>
+        <v>19.89096478126081</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.01983754120578</v>
+        <v>46.69967895649797</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>49.65302292503054</v>
+        <v>61.66198015373308</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.99440990300352</v>
+        <v>21.05626655202078</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.91679900213947</v>
+        <v>35.30591689630101</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.188461802811336</v>
+        <v>-15.96755585301433</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.07187336106319</v>
+        <v>14.97023146996809</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.7993202067919</v>
+        <v>39.2030128388546</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>47.56409810598985</v>
+        <v>58.50813433782538</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>11.06913278382263</v>
+        <v>11.1198213421416</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.04319990753162</v>
+        <v>27.73073237197829</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.826032265201416</v>
+        <v>-13.12380483345384</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.93846559365939</v>
+        <v>14.18808954245039</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.49583349855384</v>
+        <v>32.84847048215816</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>47.33519009832671</v>
+        <v>55.66596197697737</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>15.64977067630362</v>
+        <v>-2.05918476666216</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>39.96442302154953</v>
+        <v>40.15439031554723</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>41.82358000555332</v>
+        <v>47.18194574174817</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>44.33285585205107</v>
+        <v>49.98985103612141</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.47566646136449</v>
+        <v>0.6596737472948035</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.44399878731642</v>
+        <v>30.06521770831758</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>16.22630221285473</v>
+        <v>-6.178116850053559</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.93196989070022</v>
+        <v>46.49771225308623</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>62.82838599007351</v>
+        <v>73.95613748882033</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>61.7310661726807</v>
+        <v>72.97270607186701</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>15.88532589540524</v>
+        <v>-7.712527865169552</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.56470688729888</v>
+        <v>38.83629307706214</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>10.80207187734611</v>
+        <v>-11.3524329879232</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.6162835854251</v>
+        <v>41.21851152874266</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>58.24072027303149</v>
+        <v>71.35489961779535</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.98719228998321</v>
+        <v>70.96175330572802</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.70100241063027</v>
+        <v>-13.62654160898514</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.25468202102825</v>
+        <v>31.82628947162676</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>5.376530961495565</v>
+        <v>-17.6889883246737</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.88813409587316</v>
+        <v>35.7384458022664</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>52.94662390387445</v>
+        <v>64.36030045137214</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>54.73816760510638</v>
+        <v>67.42032230111283</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.4875290015882</v>
+        <v>-14.37591025045196</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.84312817356538</v>
+        <v>26.58706856514421</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.10714750877933</v>
+        <v>39.65629047318796</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.47351701515531</v>
+        <v>42.74155711700472</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.01124112123482</v>
+        <v>0.05890642075515018</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.79551189463968</v>
+        <v>30.20834322605818</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>39.33404801727431</v>
+        <v>42.58080388782994</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>46.89760462900335</v>
+        <v>54.85900220757803</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>56.55590066875888</v>
+        <v>68.32045727978222</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.8362399966156</v>
+        <v>69.80513835661021</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.41662669139201</v>
+        <v>-7.241734662252348</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.50219745456167</v>
+        <v>45.90676597848704</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>66.49763568652142</v>
+        <v>79.52532329565882</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>66.86304661800065</v>
+        <v>81.54801612104872</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>50.67807194567047</v>
+        <v>60.53209774322146</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>53.73487515770983</v>
+        <v>66.35911914918486</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>15.8076087220943</v>
+        <v>-13.2192858779489</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>45.78509584751875</v>
+        <v>42.71947117970712</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>62.60099761481536</v>
+        <v>74.9752665627136</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>63.40981771528081</v>
+        <v>77.83561971776459</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.43690581375645</v>
+        <v>46.59320295416189</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>44.1190792233743</v>
+        <v>56.43807274976595</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.08121429366438</v>
+        <v>-12.13843317724125</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>44.36517077820123</v>
+        <v>40.34260664707689</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>57.33453597842145</v>
+        <v>67.72821537248149</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>60.83455370554556</v>
+        <v>77.62483383489692</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>10.1991504059542</v>
+        <v>3.796825508999719</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.34747719348709</v>
+        <v>10.62064358180523</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>13.99530538109453</v>
+        <v>10.42843933333038</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>14.92414387029696</v>
+        <v>11.9501964460732</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.83662767189353</v>
+        <v>6.447224764838072</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.70349462350956</v>
+        <v>14.51515302148247</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>6.891714408060921</v>
+        <v>-4.204892560659776</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.0591280904917</v>
+        <v>12.08170625650924</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.02827441681985</v>
+        <v>24.34210889467132</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.55757261319922</v>
+        <v>25.57230717654538</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>12.16634851417531</v>
+        <v>0.4677272640394818</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.13099232955543</v>
+        <v>24.18096550942929</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.998222027163063</v>
+        <v>-8.439811247468143</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>14.55739872632433</v>
+        <v>5.926151036648609</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.65366236501928</v>
+        <v>16.91513071478484</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.65779401428512</v>
+        <v>21.48648997460352</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>8.499363284324762</v>
+        <v>-7.617735197025436</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.25999210873554</v>
+        <v>12.4313362341514</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>3.479032426769454</v>
+        <v>-10.0852973922002</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.71258127154833</v>
+        <v>0.9894454271354682</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.78363365772495</v>
+        <v>10.18387662138836</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.60288286144992</v>
+        <v>18.07459641828012</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.499790924119072</v>
+        <v>-8.325778238768816</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.68836810868006</v>
+        <v>3.159149144779652</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>17.9194749260846</v>
+        <v>11.18313826444752</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.42764239111501</v>
+        <v>17.21895078772274</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.85411482477867</v>
+        <v>1.92379500407306</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.8330187867715</v>
+        <v>10.9996015882298</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>18.95927016116132</v>
+        <v>14.14869770196581</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.41026040372748</v>
+        <v>27.4403043749859</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.77809188804902</v>
+        <v>34.51790903754063</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.22299649947418</v>
+        <v>46.0192623724055</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>20.35889144763188</v>
+        <v>3.446541338806105</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.28561414230353</v>
+        <v>33.75469848387667</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.6626863283733</v>
+        <v>56.39142655855323</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>59.06235080692593</v>
+        <v>68.31697456561524</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.46664710026242</v>
+        <v>20.59861448393184</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.56800171548953</v>
+        <v>40.28029687739305</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.45849659209354</v>
+        <v>-3.221353514305427</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.6816983869547</v>
+        <v>26.90144605040396</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.28254757293327</v>
+        <v>47.00267581632975</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.92344681135955</v>
+        <v>65.0172885183957</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.77114504830021</v>
+        <v>7.076822582255753</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>23.01448549176842</v>
+        <v>28.92830705692248</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>15.84624956704466</v>
+        <v>-4.476884685519568</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.7349545588084</v>
+        <v>17.84749363376175</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.68771257422957</v>
+        <v>31.44974146069483</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>48.34209119640821</v>
+        <v>55.38006213985348</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>4.631337660568445</v>
+        <v>-9.465342128605617</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>8.044259803365314</v>
+        <v>5.620555037512776</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>5.200579230804269</v>
+        <v>4.969426775083203</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.94932469936143</v>
+        <v>5.676894939898649</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.25673829429014</v>
+        <v>3.618138541788886</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.74059481847162</v>
+        <v>28.54022921409325</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>3.549453141969142</v>
+        <v>-15.53480029544849</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>8.979031011568452</v>
+        <v>9.191084191686024</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.7658619482232</v>
+        <v>19.13395924746332</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.25261443028507</v>
+        <v>17.88017846583605</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>12.53556720043468</v>
+        <v>-3.742261587152893</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.34379668280889</v>
+        <v>37.44043198547547</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>4.129896988954211</v>
+        <v>-16.52445707346972</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>9.268248444662557</v>
+        <v>7.573714927791164</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>10.67041999163987</v>
+        <v>17.58830075337342</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>13.7382483870164</v>
+        <v>17.87325037890188</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>11.78873097266958</v>
+        <v>-7.484475344273775</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.79954631437805</v>
+        <v>32.056485493472</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>3.643303015159535</v>
+        <v>-16.51000851903848</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.836282360951376</v>
+        <v>7.136433181203188</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>9.818825340245439</v>
+        <v>19.14260134758203</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.23501226325973</v>
+        <v>22.60523180692218</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.72348389151461</v>
+        <v>-6.331522937548865</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.56482173413943</v>
+        <v>27.95069810348129</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.5791213208875</v>
+        <v>36.94029072828656</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>35.63661942898656</v>
+        <v>39.22908555501463</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.733621432549</v>
+        <v>3.169010378152393</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.78113470123721</v>
+        <v>30.55169125599684</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.07103034769131</v>
+        <v>39.49973481515963</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.84268361710164</v>
+        <v>48.40471569669346</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>49.96052338069369</v>
+        <v>61.34615858801023</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>51.02383693716112</v>
+        <v>63.3550920328057</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>17.63903790521874</v>
+        <v>-0.5749276404226542</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>47.654897562514</v>
+        <v>49.07987229464558</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>63.77130394346631</v>
+        <v>77.48187978116127</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.48650217368993</v>
+        <v>78.32932901097689</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.31877487854033</v>
+        <v>54.96713994063678</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.84160072155306</v>
+        <v>61.29910220160617</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.01315716474924</v>
+        <v>-4.5373725223814</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.72050914862632</v>
+        <v>46.7689459807001</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>61.52421091003839</v>
+        <v>73.88150941744151</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>62.73093125057309</v>
+        <v>76.29293595966904</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.5869784848345</v>
+        <v>46.08537939011233</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.07913772040617</v>
+        <v>55.71213629353397</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.27054092230998</v>
+        <v>-3.104359281243109</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.18514668376874</v>
+        <v>43.70831792034276</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>60.09802437910805</v>
+        <v>68.47802308240038</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>62.53900269510387</v>
+        <v>76.86049057835842</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>15.29550601895243</v>
+        <v>5.861849605175372</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>20.46604148217182</v>
+        <v>16.9825179221695</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.09817639615444</v>
+        <v>18.66114242310648</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.83109524959681</v>
+        <v>19.80736787279668</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.75489892476903</v>
+        <v>4.833935770033058</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>14.14885155199144</v>
+        <v>9.708576904014606</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>11.22018580519889</v>
+        <v>0.3514040991322176</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.07945267382471</v>
+        <v>18.87544062664224</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.2487547835117</v>
+        <v>31.56116035611084</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.27310227431618</v>
+        <v>32.5771844243962</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>7.315321320657425</v>
+        <v>-4.325209405668737</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.91241046490193</v>
+        <v>12.9422940583568</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>9.24624971531253</v>
+        <v>-2.030752645292377</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.66313282768786</v>
+        <v>15.25440099649327</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.70856402892945</v>
+        <v>27.01482916726147</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.63716229088663</v>
+        <v>30.16611717156218</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.981862715118552</v>
+        <v>-9.274804013846644</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.03981884544339</v>
+        <v>5.263510575807162</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.206440523603007</v>
+        <v>-9.008017395434102</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.30147430636477</v>
+        <v>7.940947253517743</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.68577981312953</v>
+        <v>19.76828341630532</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.01945305955309</v>
+        <v>25.20653458963632</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.639905624378393</v>
+        <v>-8.662063993275108</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.97606081978256</v>
+        <v>1.462555815989607</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.64774341001422</v>
+        <v>6.694889140062026</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.91898077260369</v>
+        <v>13.105503787329</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.16365963462627</v>
+        <v>4.614266003988341</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.39282043254176</v>
+        <v>17.3220548888088</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.64406213726223</v>
+        <v>19.7183315770732</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.61151976410226</v>
+        <v>30.09350447638021</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.90871291558319</v>
+        <v>22.79619132721577</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.28570205344039</v>
+        <v>34.24463320193322</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.59678657500736</v>
+        <v>1.800974761137439</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.21831750830559</v>
+        <v>32.73928362887884</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>49.75884866167624</v>
+        <v>56.23857888813278</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>54.26250183744349</v>
+        <v>62.52524648773375</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.18540602156672</v>
+        <v>13.5282874409879</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.13039393967161</v>
+        <v>30.69205455198317</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.26041358282426</v>
+        <v>-3.401187880515597</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.17873843804585</v>
+        <v>28.55418622705276</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>43.6912370400232</v>
+        <v>50.58083473424963</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>50.30724758088252</v>
+        <v>59.5487045847163</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.44436475343111</v>
+        <v>5.321294817616897</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.51102495060495</v>
+        <v>22.73339237983757</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.63279305733066</v>
+        <v>-5.363589326211411</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.41952319438369</v>
+        <v>23.61047509222692</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.17291738885132</v>
+        <v>39.50743917732779</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.61245150421167</v>
+        <v>52.17446257452022</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>10.58480955194095</v>
+        <v>4.560291588804512</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.922642797213779</v>
+        <v>4.86442638284872</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.518114678885226</v>
+        <v>2.093649464679228</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>6.064362636063876</v>
+        <v>0.8852792206405056</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.543996840846635</v>
+        <v>5.634291357277057</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>8.978043497972212</v>
+        <v>4.601828455290361</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>7.930164948227151</v>
+        <v>-0.8115099543108322</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.540962801225653</v>
+        <v>4.610236523509428</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.35570392531303</v>
+        <v>8.205930338821796</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>9.675343229973485</v>
+        <v>6.37688191341392</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.962450904525326</v>
+        <v>-4.375643434386468</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.15912588115454</v>
+        <v>4.205253949967105</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.150205262013888</v>
+        <v>-1.199041358263838</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.759002581306298</v>
+        <v>2.639780365477659</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.563702221327873</v>
+        <v>4.645686531341907</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.816180363043941</v>
+        <v>4.731429985625629</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>4.657543419323002</v>
+        <v>-8.100440073836886</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>7.318515485998788</v>
+        <v>-2.440419136209265</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>5.973966444075398</v>
+        <v>-6.667180977250627</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>6.867915574892812</v>
+        <v>-2.656459033689991</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>5.185002535800699</v>
+        <v>1.096673239288926</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>7.829108269738448</v>
+        <v>3.699538898728964</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>4.525190091003015</v>
+        <v>-7.023862077277752</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>6.257728844755551</v>
+        <v>-4.728228001029166</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.593233102328217</v>
+        <v>-1.207937054947077</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>7.049844720569386</v>
+        <v>-0.6535231929243928</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.04404170751025</v>
+        <v>7.475275643257401</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.40371406370419</v>
+        <v>12.78273688440543</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.50450385965985</v>
+        <v>12.89903399282273</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.80073620615082</v>
+        <v>18.6432487954557</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.60315033397315</v>
+        <v>8.902026074850287</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>13.28701846606538</v>
+        <v>13.01265439432807</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.28637944848877</v>
+        <v>4.815418127734475</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.16383264284687</v>
+        <v>24.73726155513145</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.02797032243269</v>
+        <v>43.9190980048379</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>40.49073461603343</v>
+        <v>46.30409627508126</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5.838234556196202</v>
+        <v>0.9162746983990679</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>10.2709683524109</v>
+        <v>9.979974378400783</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.41913219258729</v>
+        <v>1.048375218444786</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.90401831123241</v>
+        <v>21.16521663465857</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.20871916775924</v>
+        <v>39.14844454982045</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.64932765522796</v>
+        <v>44.13770677080515</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>3.539513113718687</v>
+        <v>-4.013834702397833</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>7.601656059506212</v>
+        <v>5.834217548720526</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.5175835210887</v>
+        <v>-0.6522913394289773</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.61234592285771</v>
+        <v>17.60961358692686</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.25623343817022</v>
+        <v>30.71603372117782</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.2749967451305</v>
+        <v>38.94277223789096</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.00668572230416</v>
+        <v>13.4038064918312</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.20448048047402</v>
+        <v>26.62614474933554</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.21845069292062</v>
+        <v>26.78218806329797</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.68384123150907</v>
+        <v>30.84229453541662</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20.72657266120638</v>
+        <v>16.12750908011309</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.28760650674134</v>
+        <v>23.5818868811552</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.60215953646106</v>
+        <v>8.576133382816788</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.33061159136298</v>
+        <v>35.33969730053138</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>51.0973137027713</v>
+        <v>57.09087182807804</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>51.68402980127645</v>
+        <v>58.46418618776104</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.6491250789616</v>
+        <v>3.640786868888405</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.40077865038899</v>
+        <v>30.00422924284386</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.88571399569595</v>
+        <v>6.310902315227514</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.76671878280752</v>
+        <v>32.53129201477918</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>47.36283428686742</v>
+        <v>53.04067200028331</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>50.13816841183453</v>
+        <v>56.6991459498829</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.0265397561593</v>
+        <v>-3.065974228488653</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.14011053593021</v>
+        <v>21.26026906673836</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>10.65372994767744</v>
+        <v>-3.276131455818419</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.44704757240802</v>
+        <v>20.07697218339922</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.06817671821736</v>
+        <v>34.78298200247542</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.40323129167465</v>
+        <v>43.20518019237508</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.13939456564919</v>
+        <v>-1.938987034156817</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.08658466538329</v>
+        <v>16.7237356247851</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>14.56111102932737</v>
+        <v>13.13895528957923</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>14.65284795070078</v>
+        <v>15.35281433155654</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.9890611744517</v>
+        <v>14.35610233735015</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.56799089069953</v>
+        <v>26.48230247292221</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.28518702990154</v>
+        <v>21.91610348632187</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.95584536705447</v>
+        <v>28.42017858494902</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.62816978467134</v>
+        <v>46.17039100587345</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.62394108077694</v>
+        <v>50.96756080710327</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>22.04427630475855</v>
+        <v>9.828532856985053</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.97145946260254</v>
+        <v>46.16484255614163</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>65.69888045727814</v>
+        <v>75.36169556827133</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>65.63482821960979</v>
+        <v>79.90124187670162</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.8208949968663</v>
+        <v>36.74733242441076</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.48517594560965</v>
+        <v>48.66668109619619</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.30032752338307</v>
+        <v>3.473323816442168</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.89531241380512</v>
+        <v>41.55230707745002</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>58.60201692966086</v>
+        <v>69.71750972946106</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>64.18878584411561</v>
+        <v>79.39627584934347</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.24491021747693</v>
+        <v>20.24884600667767</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.23188765897166</v>
+        <v>36.01258667394258</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>17.92676074782014</v>
+        <v>3.298846200283144</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.46374275446874</v>
+        <v>36.72187070601439</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.81079380904649</v>
+        <v>51.95817885186129</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.7307264354492</v>
+        <v>66.78827142598027</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>17.33866627480949</v>
+        <v>10.22357902217145</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.95735667980045</v>
+        <v>40.19109300065453</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>40.74421872578737</v>
+        <v>47.86882778408982</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.76448910514188</v>
+        <v>50.81037043835231</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.36241514128257</v>
+        <v>4.961159169513911</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.59341707063107</v>
+        <v>26.47043358990815</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>15.52662802834764</v>
+        <v>3.101994219002494</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.39874477166866</v>
+        <v>42.16364011471522</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>52.36272371919084</v>
+        <v>62.38401960082125</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>53.35481301541519</v>
+        <v>63.75109036863751</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>13.58969446093158</v>
+        <v>-1.919926383208679</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.68970970151405</v>
+        <v>34.41338900403393</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>13.64952915709321</v>
+        <v>-0.1536665830186017</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.05453497329469</v>
+        <v>37.40488601205149</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.09818106924079</v>
+        <v>56.85090419679342</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>51.02185499937242</v>
+        <v>60.65936649036553</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>12.03558866110169</v>
+        <v>-7.372883338024163</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.75436035795127</v>
+        <v>26.02521047550463</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>12.24134018905151</v>
+        <v>-1.161679301573638</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.73635286086315</v>
+        <v>35.21754049175971</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.61985295653766</v>
+        <v>55.49214599632363</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>53.98019007455841</v>
+        <v>63.12674930980859</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>11.98436174906334</v>
+        <v>-7.083196405677842</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.78793900206495</v>
+        <v>19.91686028336921</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.41579377164466</v>
+        <v>31.88330223800792</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.75702710498183</v>
+        <v>35.40477247787071</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.37668213493215</v>
+        <v>0.537401848141787</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.65040443279826</v>
+        <v>23.65384212174027</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.33414972743537</v>
+        <v>31.21370590996689</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.54558347573101</v>
+        <v>45.24610039967158</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.5816446494066</v>
+        <v>55.00690385251623</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.29381197414776</v>
+        <v>60.91789635307993</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.73204699142554</v>
+        <v>-3.704728480383299</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.15833463427064</v>
+        <v>41.12949216701427</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>57.58105174104482</v>
+        <v>68.08140880108141</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>61.56453499697059</v>
+        <v>75.20988188300862</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.86659274486294</v>
+        <v>44.91583653114026</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.79081030081548</v>
+        <v>57.3186307129088</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.25562967160955</v>
+        <v>-9.69182442753187</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.53725263580285</v>
+        <v>35.67193984823025</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.18394874167303</v>
+        <v>60.39316595932557</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.5371337734157</v>
+        <v>71.08877194155646</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.04569039044975</v>
+        <v>33.52925365614298</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>39.40167453146675</v>
+        <v>49.42795980375747</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>14.73500699996602</v>
+        <v>-8.689417658549591</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.25245346546007</v>
+        <v>29.82320761260589</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.49924733202712</v>
+        <v>50.12861722783875</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>56.32440769763872</v>
+        <v>68.72924818326514</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.67012511626858</v>
+        <v>4.747303928201129</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>37.13422438921754</v>
+        <v>36.0250679957073</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.38128203420338</v>
+        <v>38.36992217347654</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.6793570995009</v>
+        <v>40.50535905813071</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.0215912306759</v>
+        <v>10.06144185572998</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>32.57127111332085</v>
+        <v>31.35286400947607</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>12.03460535196223</v>
+        <v>-4.012511406536277</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.71142058518112</v>
+        <v>41.73415380673571</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>52.56145934979838</v>
+        <v>65.90715933766049</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.83683305503723</v>
+        <v>64.19795736722936</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>13.319683691488</v>
+        <v>-4.743119546445122</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.44090240803602</v>
+        <v>36.95380851007145</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10.12866413862593</v>
+        <v>-7.272970447376398</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.85324340948826</v>
+        <v>38.38382424071149</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>50.41185004955751</v>
+        <v>62.77446344265329</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>51.40253246781543</v>
+        <v>62.5759896177339</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>10.26505553934398</v>
+        <v>-12.057146080061</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.6546030992609</v>
+        <v>28.26066158202992</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>6.551202772107374</v>
+        <v>-11.35177114134614</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.14076450316858</v>
+        <v>32.61602845215165</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>50.20689735262859</v>
+        <v>54.296499288417</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>53.65404414715483</v>
+        <v>58.53992220182192</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.98794903646531</v>
+        <v>-9.362386852162981</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.77552480987407</v>
+        <v>25.46455303166556</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.68233310935906</v>
+        <v>32.10967489826844</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.17797911925307</v>
+        <v>35.24707626453282</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>18.51927816976255</v>
+        <v>5.863495005527085</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.32512974889347</v>
+        <v>28.7739723925214</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.68422585840461</v>
+        <v>33.0884096945478</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.5931522403657</v>
+        <v>41.60724042151519</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>53.55072151812391</v>
+        <v>63.33516613168088</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>54.72984386765879</v>
+        <v>67.01603525707047</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>15.7389677783617</v>
+        <v>-5.060456563703141</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.19759835017631</v>
+        <v>43.40842354868033</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>64.47937831815733</v>
+        <v>77.34546389487006</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>65.32377513948558</v>
+        <v>81.28964530192485</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.81720520067404</v>
+        <v>53.80220283085228</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.25946434227829</v>
+        <v>63.61735339933384</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.04169755855284</v>
+        <v>-12.2291806484076</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.59174970535453</v>
+        <v>38.4528057851176</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.59905266784188</v>
+        <v>70.92330351484152</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>61.6127717972653</v>
+        <v>78.82171195568488</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.88449648792392</v>
+        <v>40.88525362349284</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>44.10904770940289</v>
+        <v>55.08594028019402</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>13.19209794129769</v>
+        <v>-8.392104038883566</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.56691167972802</v>
+        <v>37.56092217750366</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>52.93389372671444</v>
+        <v>62.01698253210499</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>62.38054759226019</v>
+        <v>75.91103560186372</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.58612839428171</v>
+        <v>9.771284700834556</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.44163191023763</v>
+        <v>35.90753127606811</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.38915428161249</v>
+        <v>44.52754348743969</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.4182622687483</v>
+        <v>44.903537880958</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.27046264701165</v>
+        <v>17.38053179517653</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.336726618385</v>
+        <v>34.28228910319235</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.10828630423479</v>
+        <v>1.448486988105255</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.06949391951016</v>
+        <v>42.00081142035697</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.61222324263446</v>
+        <v>69.8413791181876</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.37753316503868</v>
+        <v>67.31822372142834</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>17.95329168731435</v>
+        <v>3.410215191416894</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.77672620822525</v>
+        <v>39.20056138137844</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.60252825000913</v>
+        <v>1.158895832894693</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>41.2021945516924</v>
+        <v>42.03336888701106</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>56.30724962889353</v>
+        <v>68.59692738579957</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>56.8461516272931</v>
+        <v>67.63260252800903</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.54022040422734</v>
+        <v>-1.839259230852537</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.83797226551243</v>
+        <v>32.93723780333475</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.51498042302822</v>
+        <v>-1.12092287390313</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.67940483535973</v>
+        <v>38.25770079578213</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.78646608635907</v>
+        <v>62.73485719075754</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>56.72604775277372</v>
+        <v>64.87165649878102</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.00760565320884</v>
+        <v>1.00730464964753</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.82069890859407</v>
+        <v>31.79676665397827</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.66877997763243</v>
+        <v>35.56356785022778</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.74995977441455</v>
+        <v>38.21862756982598</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.9618697781233</v>
+        <v>11.10442059113639</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.44473529047146</v>
+        <v>29.49021362830392</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.79653772478878</v>
+        <v>36.72085348189788</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.5717644430916</v>
+        <v>41.27009598473138</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>53.83707721820291</v>
+        <v>65.00569094633113</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.89484404076218</v>
+        <v>69.58732314144298</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.45002508024539</v>
+        <v>2.4397789909431</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.70903176831929</v>
+        <v>43.8501268351575</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>68.0389234462111</v>
+        <v>80.53353977071858</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.33214794405022</v>
+        <v>83.35588523781273</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.60267787391284</v>
+        <v>57.91711332983027</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.19450305131913</v>
+        <v>68.25407614927512</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.65052292779701</v>
+        <v>-2.631886298440424</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>45.06811688429325</v>
+        <v>40.82169199547482</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>63.08501073366159</v>
+        <v>76.15136081071408</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>65.91228329319671</v>
+        <v>83.19026170305148</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.18885857262418</v>
+        <v>47.63645503444003</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.01944470493001</v>
+        <v>60.53921072004024</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.6690415662651</v>
+        <v>0.262666804157508</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>44.13031925348254</v>
+        <v>40.37162859505202</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>60.48755679448385</v>
+        <v>68.00799348398989</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>66.98435805365098</v>
+        <v>78.75177979969926</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>14.18856893972324</v>
+        <v>4.580401367346127</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.44188047424387</v>
+        <v>29.65892125273675</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.16221836196337</v>
+        <v>30.32233001726585</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.59160143975125</v>
+        <v>34.88899054336847</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>14.42834585697219</v>
+        <v>3.837665707639683</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.35492523257402</v>
+        <v>24.70888767854207</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.7312267766465</v>
+        <v>-1.073557552850851</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.13808886384454</v>
+        <v>39.1680357854868</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>49.60075505239675</v>
+        <v>57.91077142881274</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>50.91252598287168</v>
+        <v>59.21096701929019</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.23281954602203</v>
+        <v>-5.394784029429474</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.34257745223869</v>
+        <v>35.91898900344547</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>11.61646589710566</v>
+        <v>-4.764249738819114</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.21521049557106</v>
+        <v>34.62330881119181</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>46.82895624413649</v>
+        <v>53.95240403244181</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.92512151149248</v>
+        <v>57.66506739992242</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>9.821464428665735</v>
+        <v>-11.99608380928543</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.65831283370718</v>
+        <v>27.01785682861636</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>9.029870807652053</v>
+        <v>-7.786289545802621</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.02102939609283</v>
+        <v>26.44067242937025</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.51046490071356</v>
+        <v>44.08893772702277</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.41472282485304</v>
+        <v>53.85324632025537</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>8.882294306395615</v>
+        <v>-12.02390977492896</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.58830493551359</v>
+        <v>17.81344689916008</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.4449759191264</v>
+        <v>25.20162306652063</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.11433603148447</v>
+        <v>25.98594232294251</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.48866487890461</v>
+        <v>1.068925931254807</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.42512022498405</v>
+        <v>21.09165836273364</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.80955670222457</v>
+        <v>25.36834834043161</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.22716022787201</v>
+        <v>35.66023348779147</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.39957230317313</v>
+        <v>56.22482710551466</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.57748178308887</v>
+        <v>57.12068460976595</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.28217658310807</v>
+        <v>-4.134145069097055</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.37147304915383</v>
+        <v>42.97748936592443</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>55.57898655429334</v>
+        <v>70.59603655479934</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>57.39949353176191</v>
+        <v>73.30308836067553</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.25266974350868</v>
+        <v>46.41337872687436</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.48566146257733</v>
+        <v>54.04340578791921</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>12.55103520652356</v>
+        <v>-11.19988218675071</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.16868143786264</v>
+        <v>37.1560617191399</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.17647236167819</v>
+        <v>62.93559284100709</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.28497488943066</v>
+        <v>69.94951073391232</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.70785290882099</v>
+        <v>29.76216054932181</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.4286856256596</v>
+        <v>43.11669108128307</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>11.91562639504687</v>
+        <v>-12.01574288422761</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.23606459210328</v>
+        <v>26.78136187289419</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.75395402524209</v>
+        <v>45.7750236589138</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>52.21045012222729</v>
+        <v>62.41721752535123</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>13.117713059216</v>
+        <v>8.700060294480863</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.70504077161286</v>
+        <v>14.36134716018287</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.02818601087993</v>
+        <v>16.56121444702566</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.86997563527741</v>
+        <v>19.41168743087409</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.03733931972873</v>
+        <v>9.059742963783483</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.87878191800286</v>
+        <v>20.27650221588489</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.81455624081582</v>
+        <v>1.106278162972917</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.19113374709346</v>
+        <v>17.6097004009231</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.0360593736395</v>
+        <v>33.7127473660689</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.82754690565361</v>
+        <v>35.06653990488472</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.96532997440855</v>
+        <v>0.9636372722416731</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.15492990124876</v>
+        <v>30.20258425741353</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.62583389917816</v>
+        <v>-2.70799200732888</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.92723453755695</v>
+        <v>12.86158644760851</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.24303011056436</v>
+        <v>27.04788971526932</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.70527265567466</v>
+        <v>31.03184145223539</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.30873762789001</v>
+        <v>-7.214650518635406</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.29008850203882</v>
+        <v>19.43335808846618</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>8.153919584879297</v>
+        <v>-4.49031112980802</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.44973421463149</v>
+        <v>8.816726613539556</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.89655719394667</v>
+        <v>22.75382881833004</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.65902955691498</v>
+        <v>31.07872905040982</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.11154406368643</v>
+        <v>-2.597788104548911</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.80679031220564</v>
+        <v>16.96566361167798</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.0680415628519</v>
+        <v>16.28081674548872</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>22.81276209574462</v>
+        <v>21.56834408258833</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.09879544589595</v>
+        <v>5.219722714778616</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.02734493957024</v>
+        <v>17.84687157366627</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>18.91285229330691</v>
+        <v>14.4350623016121</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.45372536548227</v>
+        <v>24.03066622720823</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>41.03822172272847</v>
+        <v>45.55118739210195</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>45.84427835321227</v>
+        <v>54.39112531896691</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>20.44333001162465</v>
+        <v>6.598586197076102</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.82360114122072</v>
+        <v>43.08421650718222</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>56.61206916573286</v>
+        <v>65.67655668858878</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>59.47313151157888</v>
+        <v>73.35921903176042</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.3648816794465</v>
+        <v>32.77723814053833</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>41.41272340573367</v>
+        <v>49.331909045698</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.87635201099744</v>
+        <v>-1.207523513711696</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.51216510428935</v>
+        <v>36.48673476482487</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>45.96963190274293</v>
+        <v>56.41426362481006</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.18554275571653</v>
+        <v>69.84355905858882</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.8223155047398</v>
+        <v>23.30768472437583</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>37.79455021315043</v>
+        <v>44.44061328429952</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.34009861554158</v>
+        <v>-3.047912747085537</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.89816850027342</v>
+        <v>27.25222012919987</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.42831123141796</v>
+        <v>37.67944114435373</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>49.9481565876192</v>
+        <v>58.78738886029313</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>9.005643777474155</v>
+        <v>0.567744418695213</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.83698734809006</v>
+        <v>17.6728956077966</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.03265431341218</v>
+        <v>23.19169670472458</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>18.12203415786712</v>
+        <v>25.25117936545355</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.41940416778674</v>
+        <v>9.148695813382457</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.87220808255995</v>
+        <v>19.38225900527933</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>7.816813816989331</v>
+        <v>-6.029077284788855</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.85227144405438</v>
+        <v>25.43299949562405</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.0981875324113</v>
+        <v>48.66229641974658</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.37226742291674</v>
+        <v>48.62720351833305</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>11.83656833061277</v>
+        <v>-4.177050522735335</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.61065240652682</v>
+        <v>24.99425956229144</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>11.92173136938976</v>
+        <v>-5.081643738914952</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.28306655843939</v>
+        <v>26.75183990104966</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.42614870848751</v>
+        <v>47.96944761434182</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>40.93524638817794</v>
+        <v>49.79247983376591</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>11.02946892467217</v>
+        <v>-8.976361916992669</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.66272975260962</v>
+        <v>19.11107483980197</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>7.643197125278959</v>
+        <v>-8.417979203816124</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.10311258459412</v>
+        <v>21.22600559669672</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.08233159782014</v>
+        <v>40.54583162571049</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.66493780604817</v>
+        <v>45.36563876120046</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>11.24860587133814</v>
+        <v>-6.1708517336303</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>27.04398801886927</v>
+        <v>17.18871812228089</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>18.46991110936749</v>
+        <v>15.0997097713434</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.7257850142759</v>
+        <v>23.45501393235715</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>15.54954564761953</v>
+        <v>-0.3572848888872429</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>21.00441014345096</v>
+        <v>12.31974287332403</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.73190600981175</v>
+        <v>13.32577775535409</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>20.7127515359442</v>
+        <v>22.34904265337109</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>35.59780895501978</v>
+        <v>43.35792692078135</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>47.47109142142644</v>
+        <v>55.17186233706933</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>14.38175976730949</v>
+        <v>-6.344940126696844</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>38.01599649817443</v>
+        <v>29.62938341029127</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>51.02236851869004</v>
+        <v>59.49571448437641</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>54.96941756751578</v>
+        <v>68.24935371214129</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.82286469352989</v>
+        <v>36.21241972426327</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>46.74369060252106</v>
+        <v>54.23402698261583</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>13.70941090934978</v>
+        <v>-10.67035727418485</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>37.3694275813704</v>
+        <v>27.4080704491226</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>46.29854438969071</v>
+        <v>55.6577505574231</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>54.31971436175176</v>
+        <v>69.09962969529387</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.36829600299045</v>
+        <v>26.18432072750362</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>40.62835054021844</v>
+        <v>46.52126656105965</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>12.72907975092918</v>
+        <v>-9.445564468143282</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.58160921982829</v>
+        <v>24.43439413664522</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.14644581005484</v>
+        <v>44.65806539166296</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>50.52805705434605</v>
+        <v>61.68570875511259</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.69061389797343</v>
+        <v>4.024847021664479</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>38.56240365435506</v>
+        <v>38.30986298568976</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.56540717506526</v>
+        <v>48.39271047278173</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>40.71005049957702</v>
+        <v>51.17931302058064</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.26856228828741</v>
+        <v>7.977129644089626</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.53603392578931</v>
+        <v>31.22999377984058</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.9930248666842</v>
+        <v>-4.238833972745361</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.38488221688955</v>
+        <v>40.79147170530088</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>55.81157199709014</v>
+        <v>70.24074857156238</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>55.47111867202674</v>
+        <v>69.22185083677596</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>15.04535190359578</v>
+        <v>-2.629564901343659</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.83465018321303</v>
+        <v>37.26198891084533</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>12.83707958776019</v>
+        <v>-6.693954814597625</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>37.98554050626333</v>
+        <v>38.32834945070731</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>52.33153499451237</v>
+        <v>68.69050304717082</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>53.12635926894898</v>
+        <v>68.76511340762148</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>14.46991186990031</v>
+        <v>-7.224648942093427</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.87632857926918</v>
+        <v>31.60805567545094</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>8.835502637703048</v>
+        <v>-11.91732465878895</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.21184364035137</v>
+        <v>34.20920567383267</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>50.46817574083487</v>
+        <v>64.09137039210236</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>53.76499007586791</v>
+        <v>67.20121730735286</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>13.52698287624029</v>
+        <v>-6.091180479343251</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.6809430458048</v>
+        <v>29.96556275643291</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.2591662933195</v>
+        <v>38.1723406655826</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.16549373376893</v>
+        <v>39.2347907806717</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>16.69193253984713</v>
+        <v>2.358762147499601</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.38764752738836</v>
+        <v>26.56684969334766</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>33.80107316393099</v>
+        <v>36.9502094654209</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>40.80141093228943</v>
+        <v>46.64871892622305</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>52.09185311818756</v>
+        <v>65.73191985556275</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>51.79075466009462</v>
+        <v>66.67128942497212</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>16.95477095534416</v>
+        <v>-3.680374701572706</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>44.76661411981253</v>
+        <v>43.13897122867834</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>64.90905890548432</v>
+        <v>79.40163153040733</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>65.36227551493792</v>
+        <v>81.66995383577563</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>47.87452771964053</v>
+        <v>59.38897605409709</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>50.76305067218306</v>
+        <v>65.34261412744777</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>16.10649990001098</v>
+        <v>-8.212506414034415</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.58294106302549</v>
+        <v>41.19393470861916</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>60.99674528900729</v>
+        <v>75.91475118107375</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>62.7805064036078</v>
+        <v>80.56532094452632</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>40.94220381115189</v>
+        <v>49.80890040385327</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>44.40881413929979</v>
+        <v>58.33097017197922</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>15.58827349420913</v>
+        <v>-7.912912258632634</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>42.70449570343025</v>
+        <v>38.40564255805613</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>54.09980288344412</v>
+        <v>65.29071613406045</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>60.00562791910623</v>
+        <v>76.14559291521185</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>10.59337331678118</v>
+        <v>-0.08601766342146533</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>24.67477659541507</v>
+        <v>23.83625814576801</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>23.99059590583677</v>
+        <v>27.56563759154766</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.06747545209742</v>
+        <v>30.77595531632853</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>14.24448688899179</v>
+        <v>4.960922336329887</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.59884647198288</v>
+        <v>24.91206064989523</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>13.0910030659379</v>
+        <v>-2.967710692623861</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>37.75938691283773</v>
+        <v>37.67696513030082</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>48.77844556033221</v>
+        <v>57.57124254997447</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>48.43609442820572</v>
+        <v>57.0847202574366</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>10.95227664377008</v>
+        <v>-5.483384605770997</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>35.5806476082096</v>
+        <v>35.74142978753468</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>11.94331801391239</v>
+        <v>-5.545921404089576</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>36.50432882661492</v>
+        <v>34.71974007991543</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>47.37718068452917</v>
+        <v>54.76067729571677</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>48.31873229960512</v>
+        <v>56.52914420786514</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>9.711117337999852</v>
+        <v>-12.12133257924863</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.43977517897066</v>
+        <v>27.07693660638025</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>8.538939035568291</v>
+        <v>-9.402848834061842</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>28.66088781969218</v>
+        <v>25.1334694906697</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>38.15854853845542</v>
+        <v>45.52794821224896</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>44.83789469929488</v>
+        <v>53.05291586209374</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>8.961929880147117</v>
+        <v>-10.63562497009181</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>26.388917410469</v>
+        <v>19.1505459597396</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>27.70104519956531</v>
+        <v>27.26166153753951</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.95848574820275</v>
+        <v>29.77339328639142</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>13.52256573732623</v>
+        <v>0.525577631899889</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>23.1618012199646</v>
+        <v>19.18108477030922</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>23.3894591863639</v>
+        <v>23.05486515516262</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>30.50403444215152</v>
+        <v>33.96654029545255</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>47.65068166018366</v>
+        <v>56.50284956274994</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>48.76606015334085</v>
+        <v>58.58623952723161</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>15.0203956643502</v>
+        <v>-4.523194191119931</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>42.59696717764872</v>
+        <v>41.97985190259912</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>55.74129682217352</v>
+        <v>67.65029100018253</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>58.18637011125921</v>
+        <v>71.22111595652511</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>40.71768989176146</v>
+        <v>46.63196492020187</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>46.47256688527084</v>
+        <v>55.31615827613037</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>13.43884644311291</v>
+        <v>-11.51924243773935</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>39.55230449878127</v>
+        <v>36.38193286788842</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>50.00267222658542</v>
+        <v>59.95713629749433</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>56.77620778020625</v>
+        <v>67.93840990566648</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>30.24595223555405</v>
+        <v>32.66727042942679</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>39.03759820571568</v>
+        <v>47.39250317633162</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>10.96000105496434</v>
+        <v>-12.51300794979845</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.82388182525046</v>
+        <v>25.22145575738062</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>36.63984044904036</v>
+        <v>43.22474648769125</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.85679218673802</v>
+        <v>61.00452888298138</v>
       </c>
     </row>
   </sheetData>
